--- a/RatingsDB.xlsx
+++ b/RatingsDB.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1522" uniqueCount="1520">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1560" uniqueCount="1558">
   <si>
     <t>When Rated</t>
   </si>
@@ -4620,6 +4620,120 @@
   </si>
   <si>
     <t xml:space="preserve">Henry Weinhards Private Reserve </t>
+  </si>
+  <si>
+    <t>Cool Springs Franklins First</t>
+  </si>
+  <si>
+    <t>Cool Springs Pecker Wrecker Pale Ale</t>
+  </si>
+  <si>
+    <t>Cool Springs Fatback Amber Ale</t>
+  </si>
+  <si>
+    <t>Cool Springs 3’s A Crowd Tripel</t>
+  </si>
+  <si>
+    <t>Cool Springs Berliner Weisse</t>
+  </si>
+  <si>
+    <t>Cool Springs Ginger Bombshell Red IPA</t>
+  </si>
+  <si>
+    <t>Cool Springs Dirty Monk</t>
+  </si>
+  <si>
+    <t>Cool Springs Early Riser Espresso Stout</t>
+  </si>
+  <si>
+    <t>Turtle Anarchy Portly Stout</t>
+  </si>
+  <si>
+    <t>Jackalope Leghorn Rye IPA</t>
+  </si>
+  <si>
+    <t>Stone 16th Anniversary IPA</t>
+  </si>
+  <si>
+    <t>BridgePort Summer Squeeze Bright Ale</t>
+  </si>
+  <si>
+    <t>Haywards 5000</t>
+  </si>
+  <si>
+    <t>Turtle Anarchy Another Way to Rye</t>
+  </si>
+  <si>
+    <t>New Belgium Lips of Faith - Brett Beer</t>
+  </si>
+  <si>
+    <t>New Belgium/Alpine Lips of Faith - Super India Pale Ale</t>
+  </si>
+  <si>
+    <t>Birradamare Na Biretta Rossa</t>
+  </si>
+  <si>
+    <t>Birradamare Na Biretta Nera</t>
+  </si>
+  <si>
+    <t>Coedo Beniaka</t>
+  </si>
+  <si>
+    <t>Shock Top End of the World Midnight Wheat</t>
+  </si>
+  <si>
+    <t>Shock Top Wheat I.P.A.</t>
+  </si>
+  <si>
+    <t>Leinenkugels Lemon Berry Shandy</t>
+  </si>
+  <si>
+    <t>Rogue Voodoo Doughnut Bacon Maple Ale</t>
+  </si>
+  <si>
+    <t>This is surprisingly like what you would expect from the name. It smells like a box of hot Krispy Kremes covered in Aunt Jemima syrup, with someone cooking Benton's Bacon in the next room. Somehow the smoked malts part, leaving what feels like a good Nut Brown base and just enough mild hops to tame the added sugars, before finishing with residual smoke--almost spice--notes. All together, it's just a bit too much to enjoy outside of the novelty. Without a defined style to compare it with, I rated it primarily based on my willingness to ever pick it off a shelf again. I must admit, however, that Rogue, as usual, came through with exactly the beer they intended to, which in this case is quite remarkable.</t>
+  </si>
+  <si>
+    <t>Fat Bottom Ruby</t>
+  </si>
+  <si>
+    <t>Suntory Premium Malts</t>
+  </si>
+  <si>
+    <t>Birreria Gina</t>
+  </si>
+  <si>
+    <t>Birreria Nicoletta</t>
+  </si>
+  <si>
+    <t>Dogfish Head Birra Etrusca Bronze Ale</t>
+  </si>
+  <si>
+    <t>Baladin Nora</t>
+  </si>
+  <si>
+    <t>Lakefront Bridge Burner Strong Ale</t>
+  </si>
+  <si>
+    <t>Full Sail Brewers Share Big Daddy Js Malt Liquor</t>
+  </si>
+  <si>
+    <t>Ridgeway Santas Butt Winter Porter</t>
+  </si>
+  <si>
+    <t>BFM √225 Saison</t>
+  </si>
+  <si>
+    <t>Stone 12.12.12 Vertical Epic Ale</t>
+  </si>
+  <si>
+    <t>New Belgium Lips of Faith - Biere de Garde</t>
+  </si>
+  <si>
+    <t>New Belgium Lips of Faith - Imperial Coffee Chocolate Stout</t>
+  </si>
+  <si>
+    <t>Sierra Nevada Narwhal Imperial Stout</t>
   </si>
 </sst>
 </file>
@@ -4760,28 +4874,28 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>24</c:v>
+                  <c:v>26</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>41</c:v>
+                  <c:v>44</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>86</c:v>
+                  <c:v>89</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>194</c:v>
+                  <c:v>201</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>263</c:v>
+                  <c:v>267</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>348</c:v>
+                  <c:v>356</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>318</c:v>
+                  <c:v>323</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>181</c:v>
+                  <c:v>186</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>53</c:v>
@@ -4807,34 +4921,34 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>12.608707287064368</c:v>
+                  <c:v>13.343016166329575</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>46.638255335927063</c:v>
+                  <c:v>48.613367072315945</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>124.39304404144336</c:v>
+                  <c:v>128.19821255485792</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>239.23899106602821</c:v>
+                  <c:v>244.69934958770193</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>331.77976522583606</c:v>
+                  <c:v>338.07124854800912</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>331.77976522583606</c:v>
+                  <c:v>338.07124854800912</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>239.23899106602821</c:v>
+                  <c:v>244.69934958770193</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>124.39304404144336</c:v>
+                  <c:v>128.19821255485792</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>46.638255335927063</c:v>
+                  <c:v>48.613367072315945</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>12.608707287064368</c:v>
+                  <c:v>13.343016166329575</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4851,11 +4965,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="97435648"/>
-        <c:axId val="66807488"/>
+        <c:axId val="54177792"/>
+        <c:axId val="65108736"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="97435648"/>
+        <c:axId val="54177792"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4865,7 +4979,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="66807488"/>
+        <c:crossAx val="65108736"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4873,7 +4987,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="66807488"/>
+        <c:axId val="65108736"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4883,7 +4997,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="97435648"/>
+        <c:crossAx val="54177792"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5226,11 +5340,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G1516"/>
+  <dimension ref="A1:G1553"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1509" workbookViewId="0">
-      <selection activeCell="B1518" sqref="B1518"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -21750,87 +21862,87 @@
     </row>
     <row r="1501" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1501" s="1">
-        <v>41177</v>
+        <v>41167</v>
       </c>
       <c r="B1501" t="s">
-        <v>1504</v>
+        <v>1520</v>
       </c>
       <c r="C1501">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1502" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1502" s="1">
-        <v>41177</v>
+        <v>41167</v>
       </c>
       <c r="B1502" t="s">
-        <v>1505</v>
+        <v>1521</v>
       </c>
       <c r="C1502">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="1503" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1503" s="1">
-        <v>41183</v>
+        <v>41167</v>
       </c>
       <c r="B1503" t="s">
-        <v>1506</v>
+        <v>1522</v>
       </c>
       <c r="C1503">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1504" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1504" s="1">
-        <v>41187</v>
+        <v>41167</v>
       </c>
       <c r="B1504" t="s">
-        <v>1507</v>
+        <v>1523</v>
       </c>
       <c r="C1504">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1505" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1505" s="1">
-        <v>41194</v>
+        <v>41167</v>
       </c>
       <c r="B1505" t="s">
-        <v>1508</v>
+        <v>1524</v>
       </c>
       <c r="C1505">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1506" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1506" s="1">
-        <v>41194</v>
+        <v>41167</v>
       </c>
       <c r="B1506" t="s">
-        <v>1509</v>
+        <v>1525</v>
       </c>
       <c r="C1506">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1507" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1507" s="1">
-        <v>41199</v>
+        <v>41167</v>
       </c>
       <c r="B1507" t="s">
-        <v>1510</v>
+        <v>1526</v>
       </c>
       <c r="C1507">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1508" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1508" s="1">
-        <v>41203</v>
+        <v>41167</v>
       </c>
       <c r="B1508" t="s">
-        <v>1511</v>
+        <v>1527</v>
       </c>
       <c r="C1508">
         <v>2</v>
@@ -21838,32 +21950,32 @@
     </row>
     <row r="1509" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1509" s="1">
-        <v>41203</v>
+        <v>41168</v>
       </c>
       <c r="B1509" t="s">
-        <v>1512</v>
+        <v>1528</v>
       </c>
       <c r="C1509">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1510" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1510" s="1">
-        <v>41215</v>
+        <v>41168</v>
       </c>
       <c r="B1510" t="s">
-        <v>1513</v>
+        <v>1529</v>
       </c>
       <c r="C1510">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1511" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1511" s="1">
-        <v>41218</v>
+        <v>41173</v>
       </c>
       <c r="B1511" t="s">
-        <v>1514</v>
+        <v>1530</v>
       </c>
       <c r="C1511">
         <v>6</v>
@@ -21871,10 +21983,10 @@
     </row>
     <row r="1512" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1512" s="1">
-        <v>41219</v>
+        <v>41173</v>
       </c>
       <c r="B1512" t="s">
-        <v>1515</v>
+        <v>1531</v>
       </c>
       <c r="C1512">
         <v>5</v>
@@ -21882,46 +21994,456 @@
     </row>
     <row r="1513" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1513" s="1">
-        <v>41229</v>
+        <v>41175</v>
       </c>
       <c r="B1513" t="s">
-        <v>1516</v>
+        <v>1532</v>
       </c>
       <c r="C1513">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="1514" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1514" s="1">
-        <v>41229</v>
+        <v>41175</v>
       </c>
       <c r="B1514" t="s">
-        <v>1517</v>
+        <v>1533</v>
       </c>
       <c r="C1514">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1515" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1515" s="1">
-        <v>41229</v>
+        <v>41175</v>
       </c>
       <c r="B1515" t="s">
-        <v>1518</v>
+        <v>1534</v>
       </c>
       <c r="C1515">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1516" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1516" s="1">
+        <v>41175</v>
+      </c>
+      <c r="B1516" t="s">
+        <v>1535</v>
+      </c>
+      <c r="C1516">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1517" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1517" s="1">
+        <v>41177</v>
+      </c>
+      <c r="B1517" t="s">
+        <v>1504</v>
+      </c>
+      <c r="C1517">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1518" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1518" s="1">
+        <v>41177</v>
+      </c>
+      <c r="B1518" t="s">
+        <v>1505</v>
+      </c>
+      <c r="C1518">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1519" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1519" s="1">
+        <v>41183</v>
+      </c>
+      <c r="B1519" t="s">
+        <v>1506</v>
+      </c>
+      <c r="C1519">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1520" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1520" s="1">
+        <v>41187</v>
+      </c>
+      <c r="B1520" t="s">
+        <v>1507</v>
+      </c>
+      <c r="C1520">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1521" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1521" s="1">
+        <v>41194</v>
+      </c>
+      <c r="B1521" t="s">
+        <v>1508</v>
+      </c>
+      <c r="C1521">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1522" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1522" s="1">
+        <v>41194</v>
+      </c>
+      <c r="B1522" t="s">
+        <v>1509</v>
+      </c>
+      <c r="C1522">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1523" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1523" s="1">
+        <v>41199</v>
+      </c>
+      <c r="B1523" t="s">
+        <v>1510</v>
+      </c>
+      <c r="C1523">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1524" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1524" s="1">
+        <v>41203</v>
+      </c>
+      <c r="B1524" t="s">
+        <v>1511</v>
+      </c>
+      <c r="C1524">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1525" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1525" s="1">
+        <v>41203</v>
+      </c>
+      <c r="B1525" t="s">
+        <v>1512</v>
+      </c>
+      <c r="C1525">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1526" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1526" s="1">
+        <v>41215</v>
+      </c>
+      <c r="B1526" t="s">
+        <v>1513</v>
+      </c>
+      <c r="C1526">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1527" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1527" s="1">
+        <v>41218</v>
+      </c>
+      <c r="B1527" t="s">
+        <v>1514</v>
+      </c>
+      <c r="C1527">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1528" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1528" s="1">
+        <v>41219</v>
+      </c>
+      <c r="B1528" t="s">
+        <v>1515</v>
+      </c>
+      <c r="C1528">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1529" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1529" s="1">
+        <v>41229</v>
+      </c>
+      <c r="B1529" t="s">
+        <v>1516</v>
+      </c>
+      <c r="C1529">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1530" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1530" s="1">
+        <v>41229</v>
+      </c>
+      <c r="B1530" t="s">
+        <v>1517</v>
+      </c>
+      <c r="C1530">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1531" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1531" s="1">
+        <v>41229</v>
+      </c>
+      <c r="B1531" t="s">
+        <v>1518</v>
+      </c>
+      <c r="C1531">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1532" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1532" s="1">
         <v>41234</v>
       </c>
-      <c r="B1516" t="s">
+      <c r="B1532" t="s">
         <v>1519</v>
       </c>
-      <c r="C1516">
+      <c r="C1532">
         <v>3</v>
+      </c>
+    </row>
+    <row r="1533" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1533" s="1">
+        <v>41234</v>
+      </c>
+      <c r="B1533" t="s">
+        <v>1536</v>
+      </c>
+      <c r="C1533">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1534" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1534" s="1">
+        <v>41234</v>
+      </c>
+      <c r="B1534" t="s">
+        <v>1537</v>
+      </c>
+      <c r="C1534">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1535" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1535" s="1">
+        <v>41236</v>
+      </c>
+      <c r="B1535" t="s">
+        <v>1538</v>
+      </c>
+      <c r="C1535">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1536" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1536" s="1">
+        <v>41237</v>
+      </c>
+      <c r="B1536" t="s">
+        <v>1539</v>
+      </c>
+      <c r="C1536">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1537" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1537" s="1">
+        <v>41237</v>
+      </c>
+      <c r="B1537" t="s">
+        <v>1540</v>
+      </c>
+      <c r="C1537">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1538" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1538" s="1">
+        <v>41240</v>
+      </c>
+      <c r="B1538" t="s">
+        <v>1541</v>
+      </c>
+      <c r="C1538">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1539" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1539" s="1">
+        <v>41246</v>
+      </c>
+      <c r="B1539" t="s">
+        <v>1542</v>
+      </c>
+      <c r="C1539">
+        <v>4</v>
+      </c>
+      <c r="D1539" t="s">
+        <v>1543</v>
+      </c>
+    </row>
+    <row r="1540" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1540" s="1">
+        <v>41248</v>
+      </c>
+      <c r="B1540" t="s">
+        <v>1544</v>
+      </c>
+      <c r="C1540">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1541" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1541" s="1">
+        <v>41250</v>
+      </c>
+      <c r="B1541" t="s">
+        <v>1545</v>
+      </c>
+      <c r="C1541">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1542" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1542" s="1">
+        <v>41254</v>
+      </c>
+      <c r="B1542" t="s">
+        <v>1546</v>
+      </c>
+      <c r="C1542">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1543" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1543" s="1">
+        <v>41254</v>
+      </c>
+      <c r="B1543" t="s">
+        <v>1547</v>
+      </c>
+      <c r="C1543">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1544" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1544" s="1">
+        <v>41254</v>
+      </c>
+      <c r="B1544" t="s">
+        <v>1548</v>
+      </c>
+      <c r="C1544">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1545" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1545" s="1">
+        <v>41254</v>
+      </c>
+      <c r="B1545" t="s">
+        <v>1549</v>
+      </c>
+      <c r="C1545">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1546" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1546" s="1">
+        <v>41255</v>
+      </c>
+      <c r="B1546" t="s">
+        <v>1550</v>
+      </c>
+      <c r="C1546">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1547" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1547" s="1">
+        <v>41255</v>
+      </c>
+      <c r="B1547" t="s">
+        <v>1551</v>
+      </c>
+      <c r="C1547">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1548" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1548" s="1">
+        <v>41255</v>
+      </c>
+      <c r="B1548" t="s">
+        <v>1552</v>
+      </c>
+      <c r="C1548">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1549" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1549" s="1">
+        <v>41255</v>
+      </c>
+      <c r="B1549" t="s">
+        <v>1553</v>
+      </c>
+      <c r="C1549">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1550" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1550" s="1">
+        <v>41260</v>
+      </c>
+      <c r="B1550" t="s">
+        <v>1554</v>
+      </c>
+      <c r="C1550">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1551" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1551" s="1">
+        <v>41260</v>
+      </c>
+      <c r="B1551" t="s">
+        <v>1555</v>
+      </c>
+      <c r="C1551">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1552" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1552" s="1">
+        <v>41260</v>
+      </c>
+      <c r="B1552" t="s">
+        <v>1556</v>
+      </c>
+      <c r="C1552">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1553" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1553" s="1">
+        <v>41260</v>
+      </c>
+      <c r="B1553" t="s">
+        <v>1557</v>
+      </c>
+      <c r="C1553">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -21953,11 +22475,11 @@
       </c>
       <c r="B1">
         <f>COUNTIF(Ratings!C:C,Distribution!A1)</f>
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C1" s="2">
         <f>_xlfn.NORM.DIST(A1,$B$13,$B$14,FALSE)*COUNT(Ratings!A:A)</f>
-        <v>12.608707287064368</v>
+        <v>13.343016166329575</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -21966,11 +22488,11 @@
       </c>
       <c r="B2">
         <f>COUNTIF(Ratings!C:C,Distribution!A2)</f>
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="C2" s="2">
         <f>_xlfn.NORM.DIST(A2,$B$13,$B$14,FALSE)*COUNT(Ratings!A:A)</f>
-        <v>46.638255335927063</v>
+        <v>48.613367072315945</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -21979,11 +22501,11 @@
       </c>
       <c r="B3">
         <f>COUNTIF(Ratings!C:C,Distribution!A3)</f>
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="C3" s="2">
         <f>_xlfn.NORM.DIST(A3,$B$13,$B$14,FALSE)*COUNT(Ratings!A:A)</f>
-        <v>124.39304404144336</v>
+        <v>128.19821255485792</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -21992,11 +22514,11 @@
       </c>
       <c r="B4">
         <f>COUNTIF(Ratings!C:C,Distribution!A4)</f>
-        <v>194</v>
+        <v>201</v>
       </c>
       <c r="C4" s="2">
         <f>_xlfn.NORM.DIST(A4,$B$13,$B$14,FALSE)*COUNT(Ratings!A:A)</f>
-        <v>239.23899106602821</v>
+        <v>244.69934958770193</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -22005,11 +22527,11 @@
       </c>
       <c r="B5">
         <f>COUNTIF(Ratings!C:C,Distribution!A5)</f>
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="C5" s="2">
         <f>_xlfn.NORM.DIST(A5,$B$13,$B$14,FALSE)*COUNT(Ratings!A:A)</f>
-        <v>331.77976522583606</v>
+        <v>338.07124854800912</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -22018,11 +22540,11 @@
       </c>
       <c r="B6">
         <f>COUNTIF(Ratings!C:C,Distribution!A6)</f>
-        <v>348</v>
+        <v>356</v>
       </c>
       <c r="C6" s="2">
         <f>_xlfn.NORM.DIST(A6,$B$13,$B$14,FALSE)*COUNT(Ratings!A:A)</f>
-        <v>331.77976522583606</v>
+        <v>338.07124854800912</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -22031,11 +22553,11 @@
       </c>
       <c r="B7">
         <f>COUNTIF(Ratings!C:C,Distribution!A7)</f>
-        <v>318</v>
+        <v>323</v>
       </c>
       <c r="C7" s="2">
         <f>_xlfn.NORM.DIST(A7,$B$13,$B$14,FALSE)*COUNT(Ratings!A:A)</f>
-        <v>239.23899106602821</v>
+        <v>244.69934958770193</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
@@ -22044,11 +22566,11 @@
       </c>
       <c r="B8">
         <f>COUNTIF(Ratings!C:C,Distribution!A8)</f>
-        <v>181</v>
+        <v>186</v>
       </c>
       <c r="C8" s="2">
         <f>_xlfn.NORM.DIST(A8,$B$13,$B$14,FALSE)*COUNT(Ratings!A:A)</f>
-        <v>124.39304404144336</v>
+        <v>128.19821255485792</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
@@ -22061,7 +22583,7 @@
       </c>
       <c r="C9" s="2">
         <f>_xlfn.NORM.DIST(A9,$B$13,$B$14,FALSE)*COUNT(Ratings!A:A)</f>
-        <v>46.638255335927063</v>
+        <v>48.613367072315945</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
@@ -22074,7 +22596,7 @@
       </c>
       <c r="C10" s="2">
         <f>_xlfn.NORM.DIST(A10,$B$13,$B$14,FALSE)*COUNT(Ratings!A:A)</f>
-        <v>12.608707287064368</v>
+        <v>13.343016166329575</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
@@ -22091,7 +22613,7 @@
       </c>
       <c r="B14">
         <f>STDEV(Ratings!C:C)</f>
-        <v>1.7487211453070299</v>
+        <v>1.7589221476360914</v>
       </c>
     </row>
   </sheetData>

--- a/RatingsDB.xlsx
+++ b/RatingsDB.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="435" windowWidth="19875" windowHeight="7710"/>
+    <workbookView xWindow="480" yWindow="435" windowWidth="3705" windowHeight="5880"/>
   </bookViews>
   <sheets>
     <sheet name="Ratings" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1666" uniqueCount="1666">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2032" uniqueCount="2032">
   <si>
     <t>When Rated</t>
   </si>
@@ -5058,6 +5058,1104 @@
   </si>
   <si>
     <t>Left Hand Fade To Black Vol. 4: Rocky Mountain Black Ale</t>
+  </si>
+  <si>
+    <t>Moerlein Exposition Vienna Style Lager</t>
+  </si>
+  <si>
+    <t>Sprecher Mai Bock</t>
+  </si>
+  <si>
+    <t>Samuel Adams New Albion Ale</t>
+  </si>
+  <si>
+    <t>Flying Dog Pearl Necklace Oyster Stout</t>
+  </si>
+  <si>
+    <t>Straight To Ale Lily Flagg Milk Stout</t>
+  </si>
+  <si>
+    <t>Starr Hill Psycho Kilter</t>
+  </si>
+  <si>
+    <t>Green Flash Summer Saison</t>
+  </si>
+  <si>
+    <t>Jackalope Blueberry Porter</t>
+  </si>
+  <si>
+    <t>Budweiser Black Crown</t>
+  </si>
+  <si>
+    <t>OMB Dunkel</t>
+  </si>
+  <si>
+    <t>OMB Copper</t>
+  </si>
+  <si>
+    <t>OMB Captain James Jack Pilsner</t>
+  </si>
+  <si>
+    <t>Fat Bottom Rhonda Rye</t>
+  </si>
+  <si>
+    <t>Flat 12 Half Cycle IPA</t>
+  </si>
+  <si>
+    <t>Rivertown Blueberry Lager</t>
+  </si>
+  <si>
+    <t>Bayou Teche LA 31 Passionné</t>
+  </si>
+  <si>
+    <t>Stoudts Scarlet Lady Ale ESB</t>
+  </si>
+  <si>
+    <t>De Ranke XX Bitter</t>
+  </si>
+  <si>
+    <t>Singlecut Billy 18-Watt IPA</t>
+  </si>
+  <si>
+    <t>Flying Dog Kujo</t>
+  </si>
+  <si>
+    <t>Rockaway ESB</t>
+  </si>
+  <si>
+    <t>Southern Tier Eurotrash Pilz</t>
+  </si>
+  <si>
+    <t>Two Brothers Ebels Weiss Beer</t>
+  </si>
+  <si>
+    <t>Troubadour Obscura</t>
+  </si>
+  <si>
+    <t>Troubadour Magma</t>
+  </si>
+  <si>
+    <t>Corsendonk Agnus / Abbey Pale Ale</t>
+  </si>
+  <si>
+    <t>Poperings Hommelbier</t>
+  </si>
+  <si>
+    <t>Maccabee</t>
+  </si>
+  <si>
+    <t>Goldstar</t>
+  </si>
+  <si>
+    <t>Tuborg Red Label</t>
+  </si>
+  <si>
+    <t>Tuborg Grøn (Green)</t>
+  </si>
+  <si>
+    <t>Jackalope Dire Wolf IPA</t>
+  </si>
+  <si>
+    <t>Mayday Evil Octopus IBA</t>
+  </si>
+  <si>
+    <t>New Belgium Lips of Faith - Heavenly Feijoa Tripel</t>
+  </si>
+  <si>
+    <t>Mayday Angry Redhead</t>
+  </si>
+  <si>
+    <t>Mayday Boro Blonde</t>
+  </si>
+  <si>
+    <t>Calfkiller Scorched Hooker</t>
+  </si>
+  <si>
+    <t>Good People IPA</t>
+  </si>
+  <si>
+    <t>Blackstone Maris Otter Pale Ale</t>
+  </si>
+  <si>
+    <t>Napa Smith Organic IPA</t>
+  </si>
+  <si>
+    <t>Napa Smith Hopageddon Imperial IPA</t>
+  </si>
+  <si>
+    <t>Sweetwater Exodus Porter</t>
+  </si>
+  <si>
+    <t>Chattanooga Hill City India Pale Ale</t>
+  </si>
+  <si>
+    <t>George Killians Irish Stout</t>
+  </si>
+  <si>
+    <t>Good People Oatmeal IPA</t>
+  </si>
+  <si>
+    <t>Sweetwater Road Trip</t>
+  </si>
+  <si>
+    <t>Starr Hill The Gift Bock (2008 - )</t>
+  </si>
+  <si>
+    <t>Flat 12 Hello My Name Is Amber</t>
+  </si>
+  <si>
+    <t>Jackalope Bourbon Barrel Rompo Rye</t>
+  </si>
+  <si>
+    <t>Jackalope Casper</t>
+  </si>
+  <si>
+    <t>Green Flash Double Stout with Serrano Chilis</t>
+  </si>
+  <si>
+    <t>Green Man ESB</t>
+  </si>
+  <si>
+    <t>Widmer Brothers Columbia Common</t>
+  </si>
+  <si>
+    <t>Tetleys Bitter / Original / Smoothflow (Can)</t>
+  </si>
+  <si>
+    <t>Theakston Old Peculier (Bottle)</t>
+  </si>
+  <si>
+    <t>Erie Brewing Derailed Black Cherry Ale</t>
+  </si>
+  <si>
+    <t>Sweetwater 16 So Fine Red Wheat Wine Ale</t>
+  </si>
+  <si>
+    <t>Sierra Nevada Belgian Blonde IPA</t>
+  </si>
+  <si>
+    <t>Rock Bottom Pittsburgh Breakfast Stout</t>
+  </si>
+  <si>
+    <t>Rock Bottom Arrowhead Kolsch</t>
+  </si>
+  <si>
+    <t>Rock Bottom Ahwatukee Belgian White Ale</t>
+  </si>
+  <si>
+    <t>Rock Bottom Arrowhead Belgian IPA</t>
+  </si>
+  <si>
+    <t>Rock Bottom Ahwatukee Legally Red</t>
+  </si>
+  <si>
+    <t>Rock Bottom Atlanta Southern Flyer Light Lager</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Big River Grille Nashville Irish Red </t>
+  </si>
+  <si>
+    <t>Big River Grille Nashville Maibock</t>
+  </si>
+  <si>
+    <t>Lost Coast Tangerine Wheat</t>
+  </si>
+  <si>
+    <t>Bronx Belgian Pale Ale</t>
+  </si>
+  <si>
+    <t>Leinenkugels Canoe Paddler</t>
+  </si>
+  <si>
+    <t>Breckenridge 471 Small Batch IPA</t>
+  </si>
+  <si>
+    <t>Boulder Beer Buffalo Gold Premium Ale</t>
+  </si>
+  <si>
+    <t>The Peekskill Brewery’s Hop Common</t>
+  </si>
+  <si>
+    <t>Breckenridge Hoppy Wheat</t>
+  </si>
+  <si>
+    <t>Bronx Summer Pale Ale</t>
+  </si>
+  <si>
+    <t>Victory Storm King Imperial Stout</t>
+  </si>
+  <si>
+    <t>Gulden Draak 9000 Quadruple</t>
+  </si>
+  <si>
+    <t>Peak Organic Weiss Principal</t>
+  </si>
+  <si>
+    <t>Brunehaut Bio Blonde Gluten Free</t>
+  </si>
+  <si>
+    <t>Stone Cali-Belgique IPA (Cali-België)</t>
+  </si>
+  <si>
+    <t>Evil Twin Lil’ B</t>
+  </si>
+  <si>
+    <t>Tröegs Dream Weaver Wheat</t>
+  </si>
+  <si>
+    <t>Empire Amber Ale</t>
+  </si>
+  <si>
+    <t>Barrier Money IPA</t>
+  </si>
+  <si>
+    <t>Birrificio del Ducato Nuova Mattina (New Morning)</t>
+  </si>
+  <si>
+    <t>Schlafly Summer Lager</t>
+  </si>
+  <si>
+    <t>Square One All Oat Lager</t>
+  </si>
+  <si>
+    <t>Great Divide Colette</t>
+  </si>
+  <si>
+    <t>Barrier Oil City Black IPA</t>
+  </si>
+  <si>
+    <t>Tröegs Perpetual IPA</t>
+  </si>
+  <si>
+    <t>Founders Rübæus</t>
+  </si>
+  <si>
+    <t>Fire Island Sea Salt Ale</t>
+  </si>
+  <si>
+    <t>Carton Monkey Chased The Weasel</t>
+  </si>
+  <si>
+    <t>Schöfferhofer Hefeweizen</t>
+  </si>
+  <si>
+    <t>Founders All Day IPA</t>
+  </si>
+  <si>
+    <t>Barrier Mollycoddle</t>
+  </si>
+  <si>
+    <t>Harviestoun Schiehallion (Bottle/Keg)</t>
+  </si>
+  <si>
+    <t>White Birch Hop to Wit</t>
+  </si>
+  <si>
+    <t>Magic Hat Blind Faith</t>
+  </si>
+  <si>
+    <t>Maredsous 8 Brune/Bruin</t>
+  </si>
+  <si>
+    <t>Riegele Commerzienrat Riegele Privat</t>
+  </si>
+  <si>
+    <t>Riegele Commerzienrat Riegeles Alte Weisse</t>
+  </si>
+  <si>
+    <t>Riegele Kellerbier</t>
+  </si>
+  <si>
+    <t>Riegele Augustus Weizendoppelbock</t>
+  </si>
+  <si>
+    <t>961 Beer/Kissmeyer - Brewmaster’s Select 01 - Lebanese Pale Ale</t>
+  </si>
+  <si>
+    <t>961's Pale Ale invokes vivid memories of the cacophony of Middle Eastern spice markets. The blend of adjuncts, which include za'atar, sumac, and chamomile, form a flavor quite unexpected, a far cry from the standard lagers that typically come from countries new to widespread beer production. The spices replace the typical hop profile of a Pale Ale in much the same way that spruce and pine do for ancient Scotch Ales. This is truly a great beer, the best I've had in quite some time.</t>
+  </si>
+  <si>
+    <t>Omnipollo Nebuchadnezzar</t>
+  </si>
+  <si>
+    <t>Evil Twin / Westbrook / Local Option Plastic Man</t>
+  </si>
+  <si>
+    <t>AleSmith X Extra Pale Ale</t>
+  </si>
+  <si>
+    <t>Pretty Things Saint Botolphs Town</t>
+  </si>
+  <si>
+    <t>Belhaven Black (Bottle/Can/Keg)</t>
+  </si>
+  <si>
+    <t>Coniston Bluebird Bitter (Bottle)</t>
+  </si>
+  <si>
+    <t>Brooklyn Naranjito</t>
+  </si>
+  <si>
+    <t>Brooklyn There Will Be Black</t>
+  </si>
+  <si>
+    <t>Brooklyner Dunkel Weisse</t>
+  </si>
+  <si>
+    <t>St Feuillien / Green Flash Bière De L’Amitié</t>
+  </si>
+  <si>
+    <t>The Perfect Crime Hollow Point</t>
+  </si>
+  <si>
+    <t>Green Flash Symposium</t>
+  </si>
+  <si>
+    <t>Green Flash Saison Diego</t>
+  </si>
+  <si>
+    <t>GasthausGosebrauerei Bayerischer Bahnhof Leipziger Gose</t>
+  </si>
+  <si>
+    <t>Birreria Angelica</t>
+  </si>
+  <si>
+    <t>Dogfish Head Firefly Ale</t>
+  </si>
+  <si>
+    <t>The Peekskill Brewery’s Simple Sour</t>
+  </si>
+  <si>
+    <t>Evil Twin Yang</t>
+  </si>
+  <si>
+    <t>Allagash Black</t>
+  </si>
+  <si>
+    <t>Fuller’s 1845</t>
+  </si>
+  <si>
+    <t>Singlecut Billy Full Stack Double IPA</t>
+  </si>
+  <si>
+    <t>Singlecut Jan Olympic White Lagrrr</t>
+  </si>
+  <si>
+    <t>Anchor Brekle’s Brown</t>
+  </si>
+  <si>
+    <t>Radiant Pig Junior IPA</t>
+  </si>
+  <si>
+    <t>Spider Bite First Bite Pale Ale</t>
+  </si>
+  <si>
+    <t>Ommegang Scythe and Sickle Harvest Ale</t>
+  </si>
+  <si>
+    <t>Samuel Adams Harvest Pumpkin Ale</t>
+  </si>
+  <si>
+    <t>Barrier Copernicus Cream</t>
+  </si>
+  <si>
+    <t>Sly Fox Simon Maibock</t>
+  </si>
+  <si>
+    <t>Sly Fox Rte. 113 India Pale Ale</t>
+  </si>
+  <si>
+    <t>Schlafly Export IPA XIPA (2013 and later)</t>
+  </si>
+  <si>
+    <t>Ramstein Oktoberfest</t>
+  </si>
+  <si>
+    <t>Peak Organic Fresh Cut Pilsner</t>
+  </si>
+  <si>
+    <t>Peak Organic Fall Summit Ale</t>
+  </si>
+  <si>
+    <t>Estaminet Premium Pils</t>
+  </si>
+  <si>
+    <t>Kelso Kellerfest</t>
+  </si>
+  <si>
+    <t>Kelso Saison</t>
+  </si>
+  <si>
+    <t>Keegan Longest Day IPA</t>
+  </si>
+  <si>
+    <t>Ithaca Country Pumpkin</t>
+  </si>
+  <si>
+    <t>Sugar Hill Golden Ale</t>
+  </si>
+  <si>
+    <t>Petrus Aged Red</t>
+  </si>
+  <si>
+    <t>Fire Island Pumpkin Barrel Ale</t>
+  </si>
+  <si>
+    <t>Empire IPA</t>
+  </si>
+  <si>
+    <t>Captain Lawrence Pumpkin Ale</t>
+  </si>
+  <si>
+    <t>Curious Traveler Jack-O-Traveler</t>
+  </si>
+  <si>
+    <t>Avery Karma Ale</t>
+  </si>
+  <si>
+    <t>Avery IPA</t>
+  </si>
+  <si>
+    <t>Long Trail Brown Bag Series #6 Black Rye IPA</t>
+  </si>
+  <si>
+    <t>Long Trail Brewmaster Series Imperial Pumpkin</t>
+  </si>
+  <si>
+    <t>16 Mile Responders Ale</t>
+  </si>
+  <si>
+    <t>16 Mile Harvest Ale</t>
+  </si>
+  <si>
+    <t>Upstate Common Sense Ale</t>
+  </si>
+  <si>
+    <t>Upstate India Pale Wheat</t>
+  </si>
+  <si>
+    <t>Kuka American Pale Ale</t>
+  </si>
+  <si>
+    <t>Kuka Belgian Golden Ale</t>
+  </si>
+  <si>
+    <t>Weyerbacher Imperial Pumpkin Ale</t>
+  </si>
+  <si>
+    <t>Weyerbacher Last Chance IPA</t>
+  </si>
+  <si>
+    <t>Wandering Star Catnip</t>
+  </si>
+  <si>
+    <t>Wandering Star Red Oktober</t>
+  </si>
+  <si>
+    <t>Victory Festbier</t>
+  </si>
+  <si>
+    <t>Stoudts Pils</t>
+  </si>
+  <si>
+    <t>Stoudts Gold Lager</t>
+  </si>
+  <si>
+    <t>Otter Creek Oktoberfest</t>
+  </si>
+  <si>
+    <t>Wolavers Will Stevens Pumpkin Ale</t>
+  </si>
+  <si>
+    <t>Original Sin Pear Cider</t>
+  </si>
+  <si>
+    <t>Applewood Naked Flock Original Cider</t>
+  </si>
+  <si>
+    <t>Magic Hat Séance</t>
+  </si>
+  <si>
+    <t>Pyramid Hefeweizen</t>
+  </si>
+  <si>
+    <t>Flying Dog UnderDog Atlantic Lager</t>
+  </si>
+  <si>
+    <t>Firestone Walker Wookey Jack Black Rye IPA</t>
+  </si>
+  <si>
+    <t>Elysian Avatar Jasmine IPA</t>
+  </si>
+  <si>
+    <t>Elysian Loser Pale Ale</t>
+  </si>
+  <si>
+    <t>Element Red Giant</t>
+  </si>
+  <si>
+    <t>Element Extra Special Oak (ESO)</t>
+  </si>
+  <si>
+    <t>Defiant Headless Horseman</t>
+  </si>
+  <si>
+    <t>Fox Barrel Blackberry Pear Cider</t>
+  </si>
+  <si>
+    <t>Doc’s Draft Hard Apple Cider</t>
+  </si>
+  <si>
+    <t>Cisco Indie Pale Ale</t>
+  </si>
+  <si>
+    <t>Bronx Rye Pale Ale</t>
+  </si>
+  <si>
+    <t>Blue Mountain Full Nelson Pale Ale</t>
+  </si>
+  <si>
+    <t>Blue Mountain Kolsch 151</t>
+  </si>
+  <si>
+    <t>Anderson Valley Fall Hornin’ Pumpkin Ale</t>
+  </si>
+  <si>
+    <t>Anderson Valley Boont Amber Ale</t>
+  </si>
+  <si>
+    <t>Kelso Pilsner</t>
+  </si>
+  <si>
+    <t>508 Bump N’ Grinds</t>
+  </si>
+  <si>
+    <t>508 Steel Dreamin’ IPA</t>
+  </si>
+  <si>
+    <t>508 Catalina Gose</t>
+  </si>
+  <si>
+    <t>508 Soft Crack Saison</t>
+  </si>
+  <si>
+    <t>508 Lil’ PA</t>
+  </si>
+  <si>
+    <t>508 Tamarind Sunburn</t>
+  </si>
+  <si>
+    <t>Houston Hall Peter’s Pils</t>
+  </si>
+  <si>
+    <t>Houston Hall Pale Ale R&amp;D (Apollo)</t>
+  </si>
+  <si>
+    <t>Houston Hall Golden Lager</t>
+  </si>
+  <si>
+    <t>Houston Hall IPA</t>
+  </si>
+  <si>
+    <t>Houston Hall Red Ale</t>
+  </si>
+  <si>
+    <t>Houston Hall Black IPA</t>
+  </si>
+  <si>
+    <t>Houston Hall Dunkel</t>
+  </si>
+  <si>
+    <t>Houston Hall Apricot Ale</t>
+  </si>
+  <si>
+    <t>Houston Hall Patrick’s Belgian Blonde</t>
+  </si>
+  <si>
+    <t>Cisco Pumple Drumkin</t>
+  </si>
+  <si>
+    <t>L’anjub Lug</t>
+  </si>
+  <si>
+    <t>Cold Storage Florida Avenue Ale</t>
+  </si>
+  <si>
+    <t>Twisted Pine Hoppy Boy IPA</t>
+  </si>
+  <si>
+    <t>Sinebrychoff Koff Porter</t>
+  </si>
+  <si>
+    <t>Brooklyn Cuvée La Boîte</t>
+  </si>
+  <si>
+    <t>Greenport Harbor Leaf Pile Pumpkin Ale</t>
+  </si>
+  <si>
+    <t>Hitachino Nest Espresso Stout</t>
+  </si>
+  <si>
+    <t>Ommegang Game Of Thrones #2 - Take the Black Stout</t>
+  </si>
+  <si>
+    <t>Otter Creek Russian Imperial Stout</t>
+  </si>
+  <si>
+    <t>Speakeasy Tallulah Blonde</t>
+  </si>
+  <si>
+    <t>Warka Beer</t>
+  </si>
+  <si>
+    <t>Houston Hall Pumpkin Ale</t>
+  </si>
+  <si>
+    <t>Houston Hall Oktoberfest</t>
+  </si>
+  <si>
+    <t>Carling Black Label</t>
+  </si>
+  <si>
+    <t>The Bruery Autumn Maple</t>
+  </si>
+  <si>
+    <t>Southern Tier Warlock</t>
+  </si>
+  <si>
+    <t>Left Hand Fade To Black Vol. 5: Black Rye Ale</t>
+  </si>
+  <si>
+    <t>Barrier SaazSquash!</t>
+  </si>
+  <si>
+    <t>Wolavers Alta Gracia Coffee Porter</t>
+  </si>
+  <si>
+    <t>Wolaver’s Pumpkin Ale</t>
+  </si>
+  <si>
+    <t>Cellarmaker Batch 1 Porter</t>
+  </si>
+  <si>
+    <t>Cellarmaker Dobis P.A.</t>
+  </si>
+  <si>
+    <t>Cellarmaker Petit Sour</t>
+  </si>
+  <si>
+    <t>Cellarmaker Midnight Society</t>
+  </si>
+  <si>
+    <t>Cellarmaker Wet Hop Questionable Origins</t>
+  </si>
+  <si>
+    <t>Cellarmaker Hop Slangin IPA</t>
+  </si>
+  <si>
+    <t>Cellarmaker Peach Nightmare</t>
+  </si>
+  <si>
+    <t>Cellarmaker Daphne</t>
+  </si>
+  <si>
+    <t>Cellarmaker Coquette</t>
+  </si>
+  <si>
+    <t>Southern Pacific Hefeweizen</t>
+  </si>
+  <si>
+    <t>Southern Pacific California Blonde</t>
+  </si>
+  <si>
+    <t>Southern Pacific Pale Ale</t>
+  </si>
+  <si>
+    <t>Southern Pacific Extra IPA</t>
+  </si>
+  <si>
+    <t>Southern Pacific Porter</t>
+  </si>
+  <si>
+    <t>Southern Pacific Bastogne Blonde</t>
+  </si>
+  <si>
+    <t>Southern Pacific American Strong</t>
+  </si>
+  <si>
+    <t>Ninkasi Tricerahops Double IPA</t>
+  </si>
+  <si>
+    <t>Mikkeller Tenderloin Porter</t>
+  </si>
+  <si>
+    <t>Mikkeller Mosaic Imperial India Pale Ale</t>
+  </si>
+  <si>
+    <t>Mikkeller Rauch Geek Breakfast</t>
+  </si>
+  <si>
+    <t>Mikkeller Beer Geek Brunch Weasel</t>
+  </si>
+  <si>
+    <t>Mikkeller Black As The Night</t>
+  </si>
+  <si>
+    <t>Thirsty Bear Polar Bear</t>
+  </si>
+  <si>
+    <t>Thirsty Bear Panda Bear Ale</t>
+  </si>
+  <si>
+    <t>Thirsty Bear Valencia Wheat</t>
+  </si>
+  <si>
+    <t>Thirsty Bear Grizzly Bear Red Ale</t>
+  </si>
+  <si>
+    <t>Thirsty Bear Meyer ESB</t>
+  </si>
+  <si>
+    <t>Thirsty Bear Kozlov Stout</t>
+  </si>
+  <si>
+    <t>Thirsty Bear Howard Street IPA</t>
+  </si>
+  <si>
+    <t>Thirsty Bear Berensteinfarbenes</t>
+  </si>
+  <si>
+    <t>Thirsty Bear Gratzer Project</t>
+  </si>
+  <si>
+    <t>Mateveza Yerba Mate IPA</t>
+  </si>
+  <si>
+    <t>MateVeza Morpho</t>
+  </si>
+  <si>
+    <t>MateVeza Jump The Shark Double IPA</t>
+  </si>
+  <si>
+    <t>MateVeza Gaucho Wheat</t>
+  </si>
+  <si>
+    <t>Moonlight Twist of Fate Bitter Ale</t>
+  </si>
+  <si>
+    <t>Samuel Adams Boston Tea Party Saison</t>
+  </si>
+  <si>
+    <t>MateVeza Flor de Sal</t>
+  </si>
+  <si>
+    <t>Rogue Brutal IPA</t>
+  </si>
+  <si>
+    <t>Brooklyn Dark &amp; Twisted</t>
+  </si>
+  <si>
+    <t>Brooklyn Fire &amp; Ice</t>
+  </si>
+  <si>
+    <t>Brooklyn Oishi</t>
+  </si>
+  <si>
+    <t>Brooklyn Greenmarket Wheat</t>
+  </si>
+  <si>
+    <t>Upstate Brewing I.P.W. (India Pale Wheat)</t>
+  </si>
+  <si>
+    <t>Two Brothers Atom Smasher</t>
+  </si>
+  <si>
+    <t>Evil Twin Hipster Ale</t>
+  </si>
+  <si>
+    <t>Peak Organic Winter Session Ale</t>
+  </si>
+  <si>
+    <t>21st Amendment He Said (Baltic Porter)</t>
+  </si>
+  <si>
+    <t>Carnegie Porter 3.5%</t>
+  </si>
+  <si>
+    <t>Unibroue Chambly Noire</t>
+  </si>
+  <si>
+    <t>Paradox Beaver Bite IPA</t>
+  </si>
+  <si>
+    <t>Surly Darkness</t>
+  </si>
+  <si>
+    <t>Perennial Fantastic Voyage</t>
+  </si>
+  <si>
+    <t>Three Floyds Dark Lord Russian Imperial Stout</t>
+  </si>
+  <si>
+    <t>Saranac Rudy’s Spiced Christmas Ale</t>
+  </si>
+  <si>
+    <t>Upright Seven (#7)</t>
+  </si>
+  <si>
+    <t>Explosion BOOM Chocolate Stout Porter</t>
+  </si>
+  <si>
+    <t>Obolon Premium</t>
+  </si>
+  <si>
+    <t>Obolon Bile (White)</t>
+  </si>
+  <si>
+    <t>Celt Experience Celt Bleddyn 1075 (Bottle)</t>
+  </si>
+  <si>
+    <t>Rockaway High Plains Drifter</t>
+  </si>
+  <si>
+    <t>Newburgh Hop Drop Double IPA</t>
+  </si>
+  <si>
+    <t>Corsendonk Christmas Ale</t>
+  </si>
+  <si>
+    <t>Ölvisholt Lava</t>
+  </si>
+  <si>
+    <t>Heavy Seas Red Sky At Night</t>
+  </si>
+  <si>
+    <t>Barrier Riprap Baltic Porter</t>
+  </si>
+  <si>
+    <t>Ballast Point Even Keel</t>
+  </si>
+  <si>
+    <t>Westbrook Orange Bliss 3rd Anniversary Chocolate Orange Stout</t>
+  </si>
+  <si>
+    <t>Thornbridge Jaipur</t>
+  </si>
+  <si>
+    <t>Local Option Sweet Leif</t>
+  </si>
+  <si>
+    <t>Adirondack Super Dort</t>
+  </si>
+  <si>
+    <t>Evil Twin Lil B de Miel</t>
+  </si>
+  <si>
+    <t>Evil Twin Even More Jesus</t>
+  </si>
+  <si>
+    <t>Evil Twin Ryan And The Beaster Bunny</t>
+  </si>
+  <si>
+    <t>Evil Twin Femme Fatale Yuzu Pale</t>
+  </si>
+  <si>
+    <t>Tröegs Dead Reckoning Porter</t>
+  </si>
+  <si>
+    <t>BraufactuM Roog</t>
+  </si>
+  <si>
+    <t>Other Half Motueka Pale Ale</t>
+  </si>
+  <si>
+    <t>Elysian Split Shot</t>
+  </si>
+  <si>
+    <t>Fire Island Frozen Tail Ale</t>
+  </si>
+  <si>
+    <t>Left Hand Motherlode</t>
+  </si>
+  <si>
+    <t>Singlecut Pacific NW Dean Mahogany Ale</t>
+  </si>
+  <si>
+    <t>Adirondack Blackberry Oatmeal Cream Stou</t>
+  </si>
+  <si>
+    <t>Shipyard Blue Fin Stout</t>
+  </si>
+  <si>
+    <t>Left Hand Deep Cover Brown Ale</t>
+  </si>
+  <si>
+    <t>Rogue Imperial India Pale Ale (I²PA)</t>
+  </si>
+  <si>
+    <t>Barrier Imposter Pilsener</t>
+  </si>
+  <si>
+    <t>Ballast Point Habanero Sculpin</t>
+  </si>
+  <si>
+    <t>Erdinger Dunkel</t>
+  </si>
+  <si>
+    <t>Köstritzer Schwarzbier</t>
+  </si>
+  <si>
+    <t>Green Flash East Village Pilsner</t>
+  </si>
+  <si>
+    <t>Greenport Harbor Anti-Freeze Winter Ale</t>
+  </si>
+  <si>
+    <t>Goose Island Pepe Nero</t>
+  </si>
+  <si>
+    <t>Houston Hall Scotch Ale</t>
+  </si>
+  <si>
+    <t>Houston Hall Single Hop Pale Ale</t>
+  </si>
+  <si>
+    <t>Houston Hall Orange Blossom Light</t>
+  </si>
+  <si>
+    <t>Weihenstephaner Hefeweissbier Dunkel</t>
+  </si>
+  <si>
+    <t>Mahrs Bräu Kellerbier Ungespundet Hefetrüb</t>
+  </si>
+  <si>
+    <t>Carton Brunch. Dinner. Grub.</t>
+  </si>
+  <si>
+    <t>Oxbow Farmhouse Pale Ale</t>
+  </si>
+  <si>
+    <t>Smuttynose Short Batch #18 Durty</t>
+  </si>
+  <si>
+    <t>Flying Dog Cinnamon Porter</t>
+  </si>
+  <si>
+    <t>Bayou Teche Cocodrie</t>
+  </si>
+  <si>
+    <t>Uinta Hop Notch IPA</t>
+  </si>
+  <si>
+    <t>Speakeasy Butchertown Black Ale</t>
+  </si>
+  <si>
+    <t>Lagunitas Sucks</t>
+  </si>
+  <si>
+    <t>Blue Mountain Long Winters Nap</t>
+  </si>
+  <si>
+    <t>To Øl By Udder Means</t>
+  </si>
+  <si>
+    <t>Nebraska Brunette Nut Brown (2010- )</t>
+  </si>
+  <si>
+    <t>Weyerbacher Blithering Idiot</t>
+  </si>
+  <si>
+    <t>Weyerbacher Aries</t>
+  </si>
+  <si>
+    <t>Spider Bite Boris the Spider</t>
+  </si>
+  <si>
+    <t>Finback Puffin Smoked Porter</t>
+  </si>
+  <si>
+    <t>Green Jack Red Herring Smoked Ale</t>
+  </si>
+  <si>
+    <t>AleSmith Horny Devil</t>
+  </si>
+  <si>
+    <t>Full Sail Wassail</t>
+  </si>
+  <si>
+    <t>Brooklyn Hammarby Syndrome</t>
+  </si>
+  <si>
+    <t>Singlecut Eric More Cowbell! Milk Stout</t>
+  </si>
+  <si>
+    <t>Goose Island Ten Hills</t>
+  </si>
+  <si>
+    <t>To Øl Black Ball Porter</t>
+  </si>
+  <si>
+    <t>Coronado Idiot IPA</t>
+  </si>
+  <si>
+    <t>Coney Island Seas the Day</t>
+  </si>
+  <si>
+    <t>Bells Java Stout</t>
+  </si>
+  <si>
+    <t>Wild Onion Hop Slayer Double IPA</t>
+  </si>
+  <si>
+    <t>Third Shift Amber Lager</t>
+  </si>
+  <si>
+    <t>Becks Sapphire</t>
+  </si>
+  <si>
+    <t>Green Jack Lurcher Stout</t>
+  </si>
+  <si>
+    <t>Sixpoint Spice of Life - Sorachi Ace</t>
+  </si>
+  <si>
+    <t>Berkshire Ale Traditional Pale Ale</t>
+  </si>
+  <si>
+    <t>Berkshire Steel Rail Extra Pale Ale</t>
+  </si>
+  <si>
+    <t>Barrington Blond Ale</t>
+  </si>
+  <si>
+    <t>Barrington Hopland Pale Ale</t>
+  </si>
+  <si>
+    <t>Barrington Brown Ale</t>
+  </si>
+  <si>
+    <t>Berskhire Mountain Black Bear Stout</t>
+  </si>
+  <si>
+    <t>Barrington Ice Glen IPA</t>
+  </si>
+  <si>
+    <t>Barrington Raspberry</t>
+  </si>
+  <si>
+    <t>Barrington / Berkshire Mountain English Pale Ale</t>
+  </si>
+  <si>
+    <t>Berkshire Mountain New England Farmers Ale</t>
+  </si>
+  <si>
+    <t>Barrington Porter</t>
+  </si>
+  <si>
+    <t>BrewDog 5 A.M. Saint</t>
+  </si>
+  <si>
+    <t>Stillwater Folklore</t>
   </si>
 </sst>
 </file>
@@ -5198,34 +6296,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>27</c:v>
+                  <c:v>28</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>46</c:v>
+                  <c:v>55</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>95</c:v>
+                  <c:v>132</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>217</c:v>
+                  <c:v>278</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>297</c:v>
+                  <c:v>386</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>376</c:v>
+                  <c:v>452</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>341</c:v>
+                  <c:v>398</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>196</c:v>
+                  <c:v>223</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>55</c:v>
+                  <c:v>61</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>7</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5245,34 +6343,34 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>13.774864516716089</c:v>
+                  <c:v>15.83494657255112</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>50.978671998647229</c:v>
+                  <c:v>60.250458101994333</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>136.02364369939471</c:v>
+                  <c:v>164.14141255923161</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>261.67666436804097</c:v>
+                  <c:v>320.17693435328977</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>362.94455935907604</c:v>
+                  <c:v>447.17341852124548</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>362.94455935907604</c:v>
+                  <c:v>447.17341852124548</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>261.67666436804097</c:v>
+                  <c:v>320.17693435328977</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>136.02364369939471</c:v>
+                  <c:v>164.14141255923161</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>50.978671998647229</c:v>
+                  <c:v>60.250458101994333</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>13.774864516716089</c:v>
+                  <c:v>15.83494657255112</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5289,11 +6387,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="100179968"/>
-        <c:axId val="41105600"/>
+        <c:axId val="161840640"/>
+        <c:axId val="69303616"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="100179968"/>
+        <c:axId val="161840640"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5303,7 +6401,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="41105600"/>
+        <c:crossAx val="69303616"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5311,7 +6409,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="41105600"/>
+        <c:axId val="69303616"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5321,13 +6419,14 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="100179968"/>
+        <c:crossAx val="161840640"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -5664,10 +6763,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G1658"/>
+  <dimension ref="A1:G2206"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1633" workbookViewId="0">
-      <selection activeCell="A1658" sqref="A1658"/>
+    <sheetView tabSelected="1" topLeftCell="A2013" workbookViewId="0">
+      <selection activeCell="A2023" sqref="A2023"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -29759,7 +30858,7 @@
         <v>6</v>
       </c>
       <c r="E1605" t="str">
-        <f t="shared" ref="E1605:E1611" si="25">IF(COUNTIF(B:B, B1605)&gt;1,"Duplicate","")</f>
+        <f t="shared" ref="E1605:E1668" si="25">IF(COUNTIF(B:B, B1605)&gt;1,"Duplicate","")</f>
         <v/>
       </c>
     </row>
@@ -29863,6 +30962,10 @@
       <c r="C1612">
         <v>4</v>
       </c>
+      <c r="E1612" t="str">
+        <f t="shared" si="25"/>
+        <v/>
+      </c>
     </row>
     <row r="1613" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1613" s="1">
@@ -29874,6 +30977,10 @@
       <c r="C1613">
         <v>7</v>
       </c>
+      <c r="E1613" t="str">
+        <f t="shared" si="25"/>
+        <v/>
+      </c>
     </row>
     <row r="1614" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1614" s="1">
@@ -29885,6 +30992,10 @@
       <c r="C1614">
         <v>7</v>
       </c>
+      <c r="E1614" t="str">
+        <f t="shared" si="25"/>
+        <v/>
+      </c>
     </row>
     <row r="1615" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1615" s="1">
@@ -29896,6 +31007,10 @@
       <c r="C1615">
         <v>5</v>
       </c>
+      <c r="E1615" t="str">
+        <f t="shared" si="25"/>
+        <v/>
+      </c>
     </row>
     <row r="1616" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1616" s="1">
@@ -29907,8 +31022,12 @@
       <c r="C1616">
         <v>4</v>
       </c>
-    </row>
-    <row r="1617" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E1616" t="str">
+        <f t="shared" si="25"/>
+        <v/>
+      </c>
+    </row>
+    <row r="1617" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1617" s="1">
         <v>41278</v>
       </c>
@@ -29918,8 +31037,12 @@
       <c r="C1617">
         <v>5</v>
       </c>
-    </row>
-    <row r="1618" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E1617" t="str">
+        <f t="shared" si="25"/>
+        <v/>
+      </c>
+    </row>
+    <row r="1618" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1618" s="1">
         <v>41279</v>
       </c>
@@ -29929,8 +31052,12 @@
       <c r="C1618">
         <v>7</v>
       </c>
-    </row>
-    <row r="1619" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E1618" t="str">
+        <f t="shared" si="25"/>
+        <v/>
+      </c>
+    </row>
+    <row r="1619" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1619" s="1">
         <v>41279</v>
       </c>
@@ -29940,8 +31067,12 @@
       <c r="C1619">
         <v>6</v>
       </c>
-    </row>
-    <row r="1620" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E1619" t="str">
+        <f t="shared" si="25"/>
+        <v/>
+      </c>
+    </row>
+    <row r="1620" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1620" s="1">
         <v>41279</v>
       </c>
@@ -29951,8 +31082,12 @@
       <c r="C1620">
         <v>5</v>
       </c>
-    </row>
-    <row r="1621" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E1620" t="str">
+        <f t="shared" si="25"/>
+        <v/>
+      </c>
+    </row>
+    <row r="1621" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1621" s="1">
         <v>41279</v>
       </c>
@@ -29962,8 +31097,12 @@
       <c r="C1621">
         <v>5</v>
       </c>
-    </row>
-    <row r="1622" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E1621" t="str">
+        <f t="shared" si="25"/>
+        <v/>
+      </c>
+    </row>
+    <row r="1622" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1622" s="1">
         <v>41282</v>
       </c>
@@ -29973,8 +31112,12 @@
       <c r="C1622">
         <v>4</v>
       </c>
-    </row>
-    <row r="1623" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E1622" t="str">
+        <f t="shared" si="25"/>
+        <v/>
+      </c>
+    </row>
+    <row r="1623" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1623" s="1">
         <v>41283</v>
       </c>
@@ -29984,8 +31127,12 @@
       <c r="C1623">
         <v>7</v>
       </c>
-    </row>
-    <row r="1624" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E1623" t="str">
+        <f t="shared" si="25"/>
+        <v/>
+      </c>
+    </row>
+    <row r="1624" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1624" s="1">
         <v>41283</v>
       </c>
@@ -29995,8 +31142,12 @@
       <c r="C1624">
         <v>3</v>
       </c>
-    </row>
-    <row r="1625" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E1624" t="str">
+        <f t="shared" si="25"/>
+        <v/>
+      </c>
+    </row>
+    <row r="1625" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1625" s="1">
         <v>41283</v>
       </c>
@@ -30006,8 +31157,12 @@
       <c r="C1625">
         <v>5</v>
       </c>
-    </row>
-    <row r="1626" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E1625" t="str">
+        <f t="shared" si="25"/>
+        <v/>
+      </c>
+    </row>
+    <row r="1626" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1626" s="1">
         <v>41283</v>
       </c>
@@ -30017,8 +31172,12 @@
       <c r="C1626">
         <v>8</v>
       </c>
-    </row>
-    <row r="1627" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E1626" t="str">
+        <f t="shared" si="25"/>
+        <v/>
+      </c>
+    </row>
+    <row r="1627" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1627" s="1">
         <v>41283</v>
       </c>
@@ -30028,8 +31187,12 @@
       <c r="C1627">
         <v>7</v>
       </c>
-    </row>
-    <row r="1628" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E1627" t="str">
+        <f t="shared" si="25"/>
+        <v/>
+      </c>
+    </row>
+    <row r="1628" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1628" s="1">
         <v>41283</v>
       </c>
@@ -30039,8 +31202,12 @@
       <c r="C1628">
         <v>6</v>
       </c>
-    </row>
-    <row r="1629" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E1628" t="str">
+        <f t="shared" si="25"/>
+        <v/>
+      </c>
+    </row>
+    <row r="1629" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1629" s="1">
         <v>41283</v>
       </c>
@@ -30050,8 +31217,12 @@
       <c r="C1629">
         <v>5</v>
       </c>
-    </row>
-    <row r="1630" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E1629" t="str">
+        <f t="shared" si="25"/>
+        <v/>
+      </c>
+    </row>
+    <row r="1630" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1630" s="1">
         <v>41287</v>
       </c>
@@ -30061,8 +31232,12 @@
       <c r="C1630">
         <v>5</v>
       </c>
-    </row>
-    <row r="1631" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E1630" t="str">
+        <f t="shared" si="25"/>
+        <v/>
+      </c>
+    </row>
+    <row r="1631" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1631" s="1">
         <v>41287</v>
       </c>
@@ -30072,8 +31247,12 @@
       <c r="C1631">
         <v>4</v>
       </c>
-    </row>
-    <row r="1632" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E1631" t="str">
+        <f t="shared" si="25"/>
+        <v/>
+      </c>
+    </row>
+    <row r="1632" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1632" s="1">
         <v>41290</v>
       </c>
@@ -30083,8 +31262,12 @@
       <c r="C1632">
         <v>8</v>
       </c>
-    </row>
-    <row r="1633" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E1632" t="str">
+        <f t="shared" si="25"/>
+        <v/>
+      </c>
+    </row>
+    <row r="1633" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1633" s="1">
         <v>41292</v>
       </c>
@@ -30094,8 +31277,12 @@
       <c r="C1633">
         <v>6</v>
       </c>
-    </row>
-    <row r="1634" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E1633" t="str">
+        <f t="shared" si="25"/>
+        <v/>
+      </c>
+    </row>
+    <row r="1634" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1634" s="1">
         <v>41292</v>
       </c>
@@ -30105,8 +31292,12 @@
       <c r="C1634">
         <v>5</v>
       </c>
-    </row>
-    <row r="1635" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E1634" t="str">
+        <f t="shared" si="25"/>
+        <v/>
+      </c>
+    </row>
+    <row r="1635" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1635" s="1">
         <v>41292</v>
       </c>
@@ -30116,8 +31307,12 @@
       <c r="C1635">
         <v>3</v>
       </c>
-    </row>
-    <row r="1636" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E1635" t="str">
+        <f t="shared" si="25"/>
+        <v/>
+      </c>
+    </row>
+    <row r="1636" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1636" s="1">
         <v>41292</v>
       </c>
@@ -30127,8 +31322,12 @@
       <c r="C1636">
         <v>4</v>
       </c>
-    </row>
-    <row r="1637" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E1636" t="str">
+        <f t="shared" si="25"/>
+        <v/>
+      </c>
+    </row>
+    <row r="1637" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1637" s="1">
         <v>41292</v>
       </c>
@@ -30138,8 +31337,12 @@
       <c r="C1637">
         <v>4</v>
       </c>
-    </row>
-    <row r="1638" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E1637" t="str">
+        <f t="shared" si="25"/>
+        <v/>
+      </c>
+    </row>
+    <row r="1638" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1638" s="1">
         <v>41292</v>
       </c>
@@ -30149,8 +31352,12 @@
       <c r="C1638">
         <v>8</v>
       </c>
-    </row>
-    <row r="1639" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E1638" t="str">
+        <f t="shared" si="25"/>
+        <v/>
+      </c>
+    </row>
+    <row r="1639" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1639" s="1">
         <v>41292</v>
       </c>
@@ -30160,8 +31367,12 @@
       <c r="C1639">
         <v>5</v>
       </c>
-    </row>
-    <row r="1640" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E1639" t="str">
+        <f t="shared" si="25"/>
+        <v/>
+      </c>
+    </row>
+    <row r="1640" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1640" s="1">
         <v>41292</v>
       </c>
@@ -30171,8 +31382,12 @@
       <c r="C1640">
         <v>5</v>
       </c>
-    </row>
-    <row r="1641" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E1640" t="str">
+        <f t="shared" si="25"/>
+        <v/>
+      </c>
+    </row>
+    <row r="1641" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1641" s="1">
         <v>41292</v>
       </c>
@@ -30182,8 +31397,12 @@
       <c r="C1641">
         <v>5</v>
       </c>
-    </row>
-    <row r="1642" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E1641" t="str">
+        <f t="shared" si="25"/>
+        <v/>
+      </c>
+    </row>
+    <row r="1642" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1642" s="1">
         <v>41293</v>
       </c>
@@ -30193,8 +31412,12 @@
       <c r="C1642">
         <v>5</v>
       </c>
-    </row>
-    <row r="1643" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E1642" t="str">
+        <f t="shared" si="25"/>
+        <v/>
+      </c>
+    </row>
+    <row r="1643" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1643" s="1">
         <v>41293</v>
       </c>
@@ -30204,8 +31427,12 @@
       <c r="C1643">
         <v>8</v>
       </c>
-    </row>
-    <row r="1644" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E1643" t="str">
+        <f t="shared" si="25"/>
+        <v/>
+      </c>
+    </row>
+    <row r="1644" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1644" s="1">
         <v>41293</v>
       </c>
@@ -30215,8 +31442,12 @@
       <c r="C1644">
         <v>3</v>
       </c>
-    </row>
-    <row r="1645" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E1644" t="str">
+        <f t="shared" si="25"/>
+        <v/>
+      </c>
+    </row>
+    <row r="1645" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1645" s="1">
         <v>41293</v>
       </c>
@@ -30226,8 +31457,12 @@
       <c r="C1645">
         <v>5</v>
       </c>
-    </row>
-    <row r="1646" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E1645" t="str">
+        <f t="shared" si="25"/>
+        <v/>
+      </c>
+    </row>
+    <row r="1646" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1646" s="1">
         <v>41293</v>
       </c>
@@ -30237,8 +31472,12 @@
       <c r="C1646">
         <v>6</v>
       </c>
-    </row>
-    <row r="1647" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E1646" t="str">
+        <f t="shared" si="25"/>
+        <v/>
+      </c>
+    </row>
+    <row r="1647" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1647" s="1">
         <v>41293</v>
       </c>
@@ -30248,8 +31487,12 @@
       <c r="C1647">
         <v>7</v>
       </c>
-    </row>
-    <row r="1648" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E1647" t="str">
+        <f t="shared" si="25"/>
+        <v/>
+      </c>
+    </row>
+    <row r="1648" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1648" s="1">
         <v>41293</v>
       </c>
@@ -30259,8 +31502,12 @@
       <c r="C1648">
         <v>7</v>
       </c>
-    </row>
-    <row r="1649" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E1648" t="str">
+        <f t="shared" si="25"/>
+        <v/>
+      </c>
+    </row>
+    <row r="1649" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1649" s="1">
         <v>41293</v>
       </c>
@@ -30270,8 +31517,12 @@
       <c r="C1649">
         <v>2</v>
       </c>
-    </row>
-    <row r="1650" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E1649" t="str">
+        <f t="shared" si="25"/>
+        <v/>
+      </c>
+    </row>
+    <row r="1650" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1650" s="1">
         <v>41293</v>
       </c>
@@ -30281,8 +31532,12 @@
       <c r="C1650">
         <v>4</v>
       </c>
-    </row>
-    <row r="1651" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E1650" t="str">
+        <f t="shared" si="25"/>
+        <v/>
+      </c>
+    </row>
+    <row r="1651" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1651" s="1">
         <v>41293</v>
       </c>
@@ -30292,8 +31547,12 @@
       <c r="C1651">
         <v>5</v>
       </c>
-    </row>
-    <row r="1652" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E1651" t="str">
+        <f t="shared" si="25"/>
+        <v/>
+      </c>
+    </row>
+    <row r="1652" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1652" s="1">
         <v>41293</v>
       </c>
@@ -30303,8 +31562,12 @@
       <c r="C1652">
         <v>9</v>
       </c>
-    </row>
-    <row r="1653" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E1652" t="str">
+        <f t="shared" si="25"/>
+        <v/>
+      </c>
+    </row>
+    <row r="1653" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1653" s="1">
         <v>41293</v>
       </c>
@@ -30314,8 +31577,12 @@
       <c r="C1653">
         <v>5</v>
       </c>
-    </row>
-    <row r="1654" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E1653" t="str">
+        <f t="shared" si="25"/>
+        <v/>
+      </c>
+    </row>
+    <row r="1654" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1654" s="1">
         <v>41293</v>
       </c>
@@ -30325,8 +31592,12 @@
       <c r="C1654">
         <v>7</v>
       </c>
-    </row>
-    <row r="1655" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E1654" t="str">
+        <f t="shared" si="25"/>
+        <v/>
+      </c>
+    </row>
+    <row r="1655" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1655" s="1">
         <v>41293</v>
       </c>
@@ -30336,8 +31607,12 @@
       <c r="C1655">
         <v>5</v>
       </c>
-    </row>
-    <row r="1656" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E1655" t="str">
+        <f t="shared" si="25"/>
+        <v/>
+      </c>
+    </row>
+    <row r="1656" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1656" s="1">
         <v>41293</v>
       </c>
@@ -30347,8 +31622,12 @@
       <c r="C1656">
         <v>5</v>
       </c>
-    </row>
-    <row r="1657" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E1656" t="str">
+        <f t="shared" si="25"/>
+        <v/>
+      </c>
+    </row>
+    <row r="1657" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1657" s="1">
         <v>41294</v>
       </c>
@@ -30358,8 +31637,12 @@
       <c r="C1657">
         <v>5</v>
       </c>
-    </row>
-    <row r="1658" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E1657" t="str">
+        <f t="shared" si="25"/>
+        <v/>
+      </c>
+    </row>
+    <row r="1658" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1658" s="1">
         <v>41298</v>
       </c>
@@ -30368,6 +31651,6586 @@
       </c>
       <c r="C1658">
         <v>7</v>
+      </c>
+      <c r="E1658" t="str">
+        <f t="shared" si="25"/>
+        <v/>
+      </c>
+    </row>
+    <row r="1659" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1659" s="1">
+        <v>41303</v>
+      </c>
+      <c r="B1659" t="s">
+        <v>1666</v>
+      </c>
+      <c r="C1659">
+        <v>5</v>
+      </c>
+      <c r="E1659" t="str">
+        <f t="shared" si="25"/>
+        <v/>
+      </c>
+    </row>
+    <row r="1660" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1660" s="1">
+        <v>41303</v>
+      </c>
+      <c r="B1660" t="s">
+        <v>1667</v>
+      </c>
+      <c r="C1660">
+        <v>7</v>
+      </c>
+      <c r="E1660" t="str">
+        <f t="shared" si="25"/>
+        <v/>
+      </c>
+    </row>
+    <row r="1661" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1661" s="1">
+        <v>41303</v>
+      </c>
+      <c r="B1661" t="s">
+        <v>1668</v>
+      </c>
+      <c r="C1661">
+        <v>4</v>
+      </c>
+      <c r="E1661" t="str">
+        <f t="shared" si="25"/>
+        <v/>
+      </c>
+    </row>
+    <row r="1662" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1662" s="1">
+        <v>41303</v>
+      </c>
+      <c r="B1662" t="s">
+        <v>1669</v>
+      </c>
+      <c r="C1662">
+        <v>3</v>
+      </c>
+      <c r="E1662" t="str">
+        <f t="shared" si="25"/>
+        <v/>
+      </c>
+    </row>
+    <row r="1663" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1663" s="1">
+        <v>41303</v>
+      </c>
+      <c r="B1663" t="s">
+        <v>1670</v>
+      </c>
+      <c r="C1663">
+        <v>7</v>
+      </c>
+      <c r="E1663" t="str">
+        <f t="shared" si="25"/>
+        <v/>
+      </c>
+    </row>
+    <row r="1664" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1664" s="1">
+        <v>41303</v>
+      </c>
+      <c r="B1664" t="s">
+        <v>1671</v>
+      </c>
+      <c r="C1664">
+        <v>4</v>
+      </c>
+      <c r="E1664" t="str">
+        <f t="shared" si="25"/>
+        <v/>
+      </c>
+    </row>
+    <row r="1665" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1665" s="1">
+        <v>41303</v>
+      </c>
+      <c r="B1665" t="s">
+        <v>1672</v>
+      </c>
+      <c r="C1665">
+        <v>3</v>
+      </c>
+      <c r="E1665" t="str">
+        <f t="shared" si="25"/>
+        <v/>
+      </c>
+    </row>
+    <row r="1666" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1666" s="1">
+        <v>41303</v>
+      </c>
+      <c r="B1666" t="s">
+        <v>1673</v>
+      </c>
+      <c r="C1666">
+        <v>4</v>
+      </c>
+      <c r="E1666" t="str">
+        <f t="shared" si="25"/>
+        <v/>
+      </c>
+    </row>
+    <row r="1667" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1667" s="1">
+        <v>41319</v>
+      </c>
+      <c r="B1667" t="s">
+        <v>1674</v>
+      </c>
+      <c r="C1667">
+        <v>4</v>
+      </c>
+      <c r="E1667" t="str">
+        <f t="shared" si="25"/>
+        <v/>
+      </c>
+    </row>
+    <row r="1668" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1668" s="1">
+        <v>41321</v>
+      </c>
+      <c r="B1668" t="s">
+        <v>1675</v>
+      </c>
+      <c r="C1668">
+        <v>4</v>
+      </c>
+      <c r="E1668" t="str">
+        <f t="shared" si="25"/>
+        <v/>
+      </c>
+    </row>
+    <row r="1669" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1669" s="1">
+        <v>41321</v>
+      </c>
+      <c r="B1669" t="s">
+        <v>1676</v>
+      </c>
+      <c r="C1669">
+        <v>5</v>
+      </c>
+      <c r="E1669" t="str">
+        <f t="shared" ref="E1669:E1732" si="26">IF(COUNTIF(B:B, B1669)&gt;1,"Duplicate","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="1670" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1670" s="1">
+        <v>41321</v>
+      </c>
+      <c r="B1670" t="s">
+        <v>1677</v>
+      </c>
+      <c r="C1670">
+        <v>4</v>
+      </c>
+      <c r="E1670" t="str">
+        <f t="shared" si="26"/>
+        <v/>
+      </c>
+    </row>
+    <row r="1671" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1671" s="1">
+        <v>41330</v>
+      </c>
+      <c r="B1671" t="s">
+        <v>1678</v>
+      </c>
+      <c r="C1671">
+        <v>2</v>
+      </c>
+      <c r="E1671" t="str">
+        <f t="shared" si="26"/>
+        <v/>
+      </c>
+    </row>
+    <row r="1672" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1672" s="1">
+        <v>41330</v>
+      </c>
+      <c r="B1672" t="s">
+        <v>1679</v>
+      </c>
+      <c r="C1672">
+        <v>4</v>
+      </c>
+      <c r="E1672" t="str">
+        <f t="shared" si="26"/>
+        <v/>
+      </c>
+    </row>
+    <row r="1673" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1673" s="1">
+        <v>41330</v>
+      </c>
+      <c r="B1673" t="s">
+        <v>1680</v>
+      </c>
+      <c r="C1673">
+        <v>3</v>
+      </c>
+      <c r="E1673" t="str">
+        <f t="shared" si="26"/>
+        <v/>
+      </c>
+    </row>
+    <row r="1674" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1674" s="1">
+        <v>41335</v>
+      </c>
+      <c r="B1674" t="s">
+        <v>1681</v>
+      </c>
+      <c r="C1674">
+        <v>4</v>
+      </c>
+      <c r="E1674" t="str">
+        <f t="shared" si="26"/>
+        <v/>
+      </c>
+    </row>
+    <row r="1675" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1675" s="1">
+        <v>41335</v>
+      </c>
+      <c r="B1675" t="s">
+        <v>1682</v>
+      </c>
+      <c r="C1675">
+        <v>5</v>
+      </c>
+      <c r="E1675" t="str">
+        <f t="shared" si="26"/>
+        <v/>
+      </c>
+    </row>
+    <row r="1676" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1676" s="1">
+        <v>41335</v>
+      </c>
+      <c r="B1676" t="s">
+        <v>1683</v>
+      </c>
+      <c r="C1676">
+        <v>4</v>
+      </c>
+      <c r="E1676" t="str">
+        <f t="shared" si="26"/>
+        <v/>
+      </c>
+    </row>
+    <row r="1677" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1677" s="1">
+        <v>41335</v>
+      </c>
+      <c r="B1677" t="s">
+        <v>1684</v>
+      </c>
+      <c r="C1677">
+        <v>6</v>
+      </c>
+      <c r="E1677" t="str">
+        <f t="shared" si="26"/>
+        <v/>
+      </c>
+    </row>
+    <row r="1678" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1678" s="1">
+        <v>41335</v>
+      </c>
+      <c r="B1678" t="s">
+        <v>1685</v>
+      </c>
+      <c r="C1678">
+        <v>8</v>
+      </c>
+      <c r="E1678" t="str">
+        <f t="shared" si="26"/>
+        <v/>
+      </c>
+    </row>
+    <row r="1679" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1679" s="1">
+        <v>41335</v>
+      </c>
+      <c r="B1679" t="s">
+        <v>1686</v>
+      </c>
+      <c r="C1679">
+        <v>6</v>
+      </c>
+      <c r="E1679" t="str">
+        <f t="shared" si="26"/>
+        <v/>
+      </c>
+    </row>
+    <row r="1680" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1680" s="1">
+        <v>41335</v>
+      </c>
+      <c r="B1680" t="s">
+        <v>1687</v>
+      </c>
+      <c r="C1680">
+        <v>6</v>
+      </c>
+      <c r="E1680" t="str">
+        <f t="shared" si="26"/>
+        <v/>
+      </c>
+    </row>
+    <row r="1681" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1681" s="1">
+        <v>41335</v>
+      </c>
+      <c r="B1681" t="s">
+        <v>1688</v>
+      </c>
+      <c r="C1681">
+        <v>4</v>
+      </c>
+      <c r="E1681" t="str">
+        <f t="shared" si="26"/>
+        <v/>
+      </c>
+    </row>
+    <row r="1682" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1682" s="1">
+        <v>41338</v>
+      </c>
+      <c r="B1682" t="s">
+        <v>1689</v>
+      </c>
+      <c r="C1682">
+        <v>7</v>
+      </c>
+      <c r="E1682" t="str">
+        <f t="shared" si="26"/>
+        <v/>
+      </c>
+    </row>
+    <row r="1683" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1683" s="1">
+        <v>41338</v>
+      </c>
+      <c r="B1683" t="s">
+        <v>1690</v>
+      </c>
+      <c r="C1683">
+        <v>6</v>
+      </c>
+      <c r="E1683" t="str">
+        <f t="shared" si="26"/>
+        <v/>
+      </c>
+    </row>
+    <row r="1684" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1684" s="1">
+        <v>41338</v>
+      </c>
+      <c r="B1684" t="s">
+        <v>1691</v>
+      </c>
+      <c r="C1684">
+        <v>5</v>
+      </c>
+      <c r="E1684" t="str">
+        <f t="shared" si="26"/>
+        <v/>
+      </c>
+    </row>
+    <row r="1685" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1685" s="1">
+        <v>41338</v>
+      </c>
+      <c r="B1685" t="s">
+        <v>1692</v>
+      </c>
+      <c r="C1685">
+        <v>7</v>
+      </c>
+      <c r="E1685" t="str">
+        <f t="shared" si="26"/>
+        <v/>
+      </c>
+    </row>
+    <row r="1686" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1686" s="1">
+        <v>41340</v>
+      </c>
+      <c r="B1686" t="s">
+        <v>1693</v>
+      </c>
+      <c r="C1686">
+        <v>5</v>
+      </c>
+      <c r="E1686" t="str">
+        <f t="shared" si="26"/>
+        <v/>
+      </c>
+    </row>
+    <row r="1687" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1687" s="1">
+        <v>41340</v>
+      </c>
+      <c r="B1687" t="s">
+        <v>1694</v>
+      </c>
+      <c r="C1687">
+        <v>6</v>
+      </c>
+      <c r="E1687" t="str">
+        <f t="shared" si="26"/>
+        <v/>
+      </c>
+    </row>
+    <row r="1688" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1688" s="1">
+        <v>41348</v>
+      </c>
+      <c r="B1688" t="s">
+        <v>1695</v>
+      </c>
+      <c r="C1688">
+        <v>5</v>
+      </c>
+      <c r="E1688" t="str">
+        <f t="shared" si="26"/>
+        <v/>
+      </c>
+    </row>
+    <row r="1689" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1689" s="1">
+        <v>41348</v>
+      </c>
+      <c r="B1689" t="s">
+        <v>1696</v>
+      </c>
+      <c r="C1689">
+        <v>5</v>
+      </c>
+      <c r="E1689" t="str">
+        <f t="shared" si="26"/>
+        <v/>
+      </c>
+    </row>
+    <row r="1690" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1690" s="1">
+        <v>41354</v>
+      </c>
+      <c r="B1690" t="s">
+        <v>1697</v>
+      </c>
+      <c r="C1690">
+        <v>5</v>
+      </c>
+      <c r="E1690" t="str">
+        <f t="shared" si="26"/>
+        <v/>
+      </c>
+    </row>
+    <row r="1691" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1691" s="1">
+        <v>41354</v>
+      </c>
+      <c r="B1691" t="s">
+        <v>1698</v>
+      </c>
+      <c r="C1691">
+        <v>5</v>
+      </c>
+      <c r="E1691" t="str">
+        <f t="shared" si="26"/>
+        <v/>
+      </c>
+    </row>
+    <row r="1692" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1692" s="1">
+        <v>41354</v>
+      </c>
+      <c r="B1692" t="s">
+        <v>1699</v>
+      </c>
+      <c r="C1692">
+        <v>3</v>
+      </c>
+      <c r="E1692" t="str">
+        <f t="shared" si="26"/>
+        <v/>
+      </c>
+    </row>
+    <row r="1693" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1693" s="1">
+        <v>41357</v>
+      </c>
+      <c r="B1693" t="s">
+        <v>1700</v>
+      </c>
+      <c r="C1693">
+        <v>6</v>
+      </c>
+      <c r="E1693" t="str">
+        <f t="shared" si="26"/>
+        <v/>
+      </c>
+    </row>
+    <row r="1694" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1694" s="1">
+        <v>41357</v>
+      </c>
+      <c r="B1694" t="s">
+        <v>1701</v>
+      </c>
+      <c r="C1694">
+        <v>6</v>
+      </c>
+      <c r="E1694" t="str">
+        <f t="shared" si="26"/>
+        <v/>
+      </c>
+    </row>
+    <row r="1695" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1695" s="1">
+        <v>41365</v>
+      </c>
+      <c r="B1695" t="s">
+        <v>1702</v>
+      </c>
+      <c r="C1695">
+        <v>6</v>
+      </c>
+      <c r="E1695" t="str">
+        <f t="shared" si="26"/>
+        <v/>
+      </c>
+    </row>
+    <row r="1696" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1696" s="1">
+        <v>41365</v>
+      </c>
+      <c r="B1696" t="s">
+        <v>1703</v>
+      </c>
+      <c r="C1696">
+        <v>7</v>
+      </c>
+      <c r="E1696" t="str">
+        <f t="shared" si="26"/>
+        <v/>
+      </c>
+    </row>
+    <row r="1697" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1697" s="1">
+        <v>41368</v>
+      </c>
+      <c r="B1697" t="s">
+        <v>1704</v>
+      </c>
+      <c r="C1697">
+        <v>3</v>
+      </c>
+      <c r="E1697" t="str">
+        <f t="shared" si="26"/>
+        <v/>
+      </c>
+    </row>
+    <row r="1698" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1698" s="1">
+        <v>41368</v>
+      </c>
+      <c r="B1698" t="s">
+        <v>1705</v>
+      </c>
+      <c r="C1698">
+        <v>6</v>
+      </c>
+      <c r="E1698" t="str">
+        <f t="shared" si="26"/>
+        <v/>
+      </c>
+    </row>
+    <row r="1699" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1699" s="1">
+        <v>41368</v>
+      </c>
+      <c r="B1699" t="s">
+        <v>1706</v>
+      </c>
+      <c r="C1699">
+        <v>5</v>
+      </c>
+      <c r="E1699" t="str">
+        <f t="shared" si="26"/>
+        <v/>
+      </c>
+    </row>
+    <row r="1700" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1700" s="1">
+        <v>41368</v>
+      </c>
+      <c r="B1700" t="s">
+        <v>1707</v>
+      </c>
+      <c r="C1700">
+        <v>6</v>
+      </c>
+      <c r="E1700" t="str">
+        <f t="shared" si="26"/>
+        <v/>
+      </c>
+    </row>
+    <row r="1701" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1701" s="1">
+        <v>41370</v>
+      </c>
+      <c r="B1701" t="s">
+        <v>1708</v>
+      </c>
+      <c r="C1701">
+        <v>5</v>
+      </c>
+      <c r="E1701" t="str">
+        <f t="shared" si="26"/>
+        <v/>
+      </c>
+    </row>
+    <row r="1702" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1702" s="1">
+        <v>41372</v>
+      </c>
+      <c r="B1702" t="s">
+        <v>1709</v>
+      </c>
+      <c r="C1702">
+        <v>4</v>
+      </c>
+      <c r="E1702" t="str">
+        <f t="shared" si="26"/>
+        <v/>
+      </c>
+    </row>
+    <row r="1703" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1703" s="1">
+        <v>41373</v>
+      </c>
+      <c r="B1703" t="s">
+        <v>1710</v>
+      </c>
+      <c r="C1703">
+        <v>6</v>
+      </c>
+      <c r="E1703" t="str">
+        <f t="shared" si="26"/>
+        <v/>
+      </c>
+    </row>
+    <row r="1704" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1704" s="1">
+        <v>41374</v>
+      </c>
+      <c r="B1704" t="s">
+        <v>1711</v>
+      </c>
+      <c r="C1704">
+        <v>5</v>
+      </c>
+      <c r="E1704" t="str">
+        <f t="shared" si="26"/>
+        <v/>
+      </c>
+    </row>
+    <row r="1705" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1705" s="1">
+        <v>41374</v>
+      </c>
+      <c r="B1705" t="s">
+        <v>1712</v>
+      </c>
+      <c r="C1705">
+        <v>5</v>
+      </c>
+      <c r="E1705" t="str">
+        <f t="shared" si="26"/>
+        <v/>
+      </c>
+    </row>
+    <row r="1706" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1706" s="1">
+        <v>41375</v>
+      </c>
+      <c r="B1706" t="s">
+        <v>1713</v>
+      </c>
+      <c r="C1706">
+        <v>4</v>
+      </c>
+      <c r="E1706" t="str">
+        <f t="shared" si="26"/>
+        <v/>
+      </c>
+    </row>
+    <row r="1707" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1707" s="1">
+        <v>41379</v>
+      </c>
+      <c r="B1707" t="s">
+        <v>1714</v>
+      </c>
+      <c r="C1707">
+        <v>7</v>
+      </c>
+      <c r="E1707" t="str">
+        <f t="shared" si="26"/>
+        <v/>
+      </c>
+    </row>
+    <row r="1708" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1708" s="1">
+        <v>41379</v>
+      </c>
+      <c r="B1708" t="s">
+        <v>1715</v>
+      </c>
+      <c r="C1708">
+        <v>8</v>
+      </c>
+      <c r="E1708" t="str">
+        <f t="shared" si="26"/>
+        <v/>
+      </c>
+    </row>
+    <row r="1709" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1709" s="1">
+        <v>41379</v>
+      </c>
+      <c r="B1709" t="s">
+        <v>1716</v>
+      </c>
+      <c r="C1709">
+        <v>9</v>
+      </c>
+      <c r="E1709" t="str">
+        <f t="shared" si="26"/>
+        <v/>
+      </c>
+    </row>
+    <row r="1710" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1710" s="1">
+        <v>41379</v>
+      </c>
+      <c r="B1710" t="s">
+        <v>1717</v>
+      </c>
+      <c r="C1710">
+        <v>6</v>
+      </c>
+      <c r="E1710" t="str">
+        <f t="shared" si="26"/>
+        <v/>
+      </c>
+    </row>
+    <row r="1711" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1711" s="1">
+        <v>41381</v>
+      </c>
+      <c r="B1711" t="s">
+        <v>1718</v>
+      </c>
+      <c r="C1711">
+        <v>6</v>
+      </c>
+      <c r="E1711" t="str">
+        <f t="shared" si="26"/>
+        <v/>
+      </c>
+    </row>
+    <row r="1712" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1712" s="1">
+        <v>41381</v>
+      </c>
+      <c r="B1712" t="s">
+        <v>1719</v>
+      </c>
+      <c r="C1712">
+        <v>4</v>
+      </c>
+      <c r="E1712" t="str">
+        <f t="shared" si="26"/>
+        <v/>
+      </c>
+    </row>
+    <row r="1713" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1713" s="1">
+        <v>41381</v>
+      </c>
+      <c r="B1713" t="s">
+        <v>1720</v>
+      </c>
+      <c r="C1713">
+        <v>5</v>
+      </c>
+      <c r="E1713" t="str">
+        <f t="shared" si="26"/>
+        <v/>
+      </c>
+    </row>
+    <row r="1714" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1714" s="1">
+        <v>41381</v>
+      </c>
+      <c r="B1714" t="s">
+        <v>1721</v>
+      </c>
+      <c r="C1714">
+        <v>5</v>
+      </c>
+      <c r="E1714" t="str">
+        <f t="shared" si="26"/>
+        <v/>
+      </c>
+    </row>
+    <row r="1715" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1715" s="1">
+        <v>41381</v>
+      </c>
+      <c r="B1715" t="s">
+        <v>1722</v>
+      </c>
+      <c r="C1715">
+        <v>6</v>
+      </c>
+      <c r="E1715" t="str">
+        <f t="shared" si="26"/>
+        <v/>
+      </c>
+    </row>
+    <row r="1716" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1716" s="1">
+        <v>41382</v>
+      </c>
+      <c r="B1716" t="s">
+        <v>1723</v>
+      </c>
+      <c r="C1716">
+        <v>5</v>
+      </c>
+      <c r="E1716" t="str">
+        <f t="shared" si="26"/>
+        <v/>
+      </c>
+    </row>
+    <row r="1717" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1717" s="1">
+        <v>41387</v>
+      </c>
+      <c r="B1717" t="s">
+        <v>1724</v>
+      </c>
+      <c r="C1717">
+        <v>3</v>
+      </c>
+      <c r="E1717" t="str">
+        <f t="shared" si="26"/>
+        <v/>
+      </c>
+    </row>
+    <row r="1718" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1718" s="1">
+        <v>41387</v>
+      </c>
+      <c r="B1718" t="s">
+        <v>1725</v>
+      </c>
+      <c r="C1718">
+        <v>2</v>
+      </c>
+      <c r="E1718" t="str">
+        <f t="shared" si="26"/>
+        <v/>
+      </c>
+    </row>
+    <row r="1719" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1719" s="1">
+        <v>41387</v>
+      </c>
+      <c r="B1719" t="s">
+        <v>1726</v>
+      </c>
+      <c r="C1719">
+        <v>3</v>
+      </c>
+      <c r="E1719" t="str">
+        <f t="shared" si="26"/>
+        <v/>
+      </c>
+    </row>
+    <row r="1720" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1720" s="1">
+        <v>41387</v>
+      </c>
+      <c r="B1720" t="s">
+        <v>1727</v>
+      </c>
+      <c r="C1720">
+        <v>6</v>
+      </c>
+      <c r="E1720" t="str">
+        <f t="shared" si="26"/>
+        <v/>
+      </c>
+    </row>
+    <row r="1721" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1721" s="1">
+        <v>41387</v>
+      </c>
+      <c r="B1721" t="s">
+        <v>1728</v>
+      </c>
+      <c r="C1721">
+        <v>4</v>
+      </c>
+      <c r="E1721" t="str">
+        <f t="shared" si="26"/>
+        <v/>
+      </c>
+    </row>
+    <row r="1722" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1722" s="1">
+        <v>41387</v>
+      </c>
+      <c r="B1722" t="s">
+        <v>1729</v>
+      </c>
+      <c r="C1722">
+        <v>4</v>
+      </c>
+      <c r="E1722" t="str">
+        <f t="shared" si="26"/>
+        <v/>
+      </c>
+    </row>
+    <row r="1723" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1723" s="1">
+        <v>41387</v>
+      </c>
+      <c r="B1723" t="s">
+        <v>1731</v>
+      </c>
+      <c r="C1723">
+        <v>5</v>
+      </c>
+      <c r="E1723" t="str">
+        <f t="shared" si="26"/>
+        <v/>
+      </c>
+    </row>
+    <row r="1724" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1724" s="1">
+        <v>41387</v>
+      </c>
+      <c r="B1724" t="s">
+        <v>1730</v>
+      </c>
+      <c r="C1724">
+        <v>7</v>
+      </c>
+      <c r="E1724" t="str">
+        <f t="shared" si="26"/>
+        <v/>
+      </c>
+    </row>
+    <row r="1725" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1725" s="1">
+        <v>41389</v>
+      </c>
+      <c r="B1725" t="s">
+        <v>1732</v>
+      </c>
+      <c r="C1725">
+        <v>1</v>
+      </c>
+      <c r="E1725" t="str">
+        <f t="shared" si="26"/>
+        <v/>
+      </c>
+    </row>
+    <row r="1726" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1726" s="1">
+        <v>41391</v>
+      </c>
+      <c r="B1726" t="s">
+        <v>1733</v>
+      </c>
+      <c r="C1726">
+        <v>7</v>
+      </c>
+      <c r="E1726" t="str">
+        <f t="shared" si="26"/>
+        <v/>
+      </c>
+    </row>
+    <row r="1727" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1727" s="1">
+        <v>41397</v>
+      </c>
+      <c r="B1727" t="s">
+        <v>1734</v>
+      </c>
+      <c r="C1727">
+        <v>4</v>
+      </c>
+      <c r="E1727" t="str">
+        <f t="shared" si="26"/>
+        <v/>
+      </c>
+    </row>
+    <row r="1728" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1728" s="1">
+        <v>41471</v>
+      </c>
+      <c r="B1728" t="s">
+        <v>1735</v>
+      </c>
+      <c r="C1728">
+        <v>5</v>
+      </c>
+      <c r="E1728" t="str">
+        <f t="shared" si="26"/>
+        <v/>
+      </c>
+    </row>
+    <row r="1729" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1729" s="1">
+        <v>41475</v>
+      </c>
+      <c r="B1729" t="s">
+        <v>1736</v>
+      </c>
+      <c r="C1729">
+        <v>5</v>
+      </c>
+      <c r="E1729" t="str">
+        <f t="shared" si="26"/>
+        <v/>
+      </c>
+    </row>
+    <row r="1730" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1730" s="1">
+        <v>41475</v>
+      </c>
+      <c r="B1730" t="s">
+        <v>1737</v>
+      </c>
+      <c r="C1730">
+        <v>3</v>
+      </c>
+      <c r="E1730" t="str">
+        <f t="shared" si="26"/>
+        <v/>
+      </c>
+    </row>
+    <row r="1731" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1731" s="1">
+        <v>41475</v>
+      </c>
+      <c r="B1731" t="s">
+        <v>1738</v>
+      </c>
+      <c r="C1731">
+        <v>7</v>
+      </c>
+      <c r="E1731" t="str">
+        <f t="shared" si="26"/>
+        <v/>
+      </c>
+    </row>
+    <row r="1732" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1732" s="1">
+        <v>41475</v>
+      </c>
+      <c r="B1732" t="s">
+        <v>1739</v>
+      </c>
+      <c r="C1732">
+        <v>5</v>
+      </c>
+      <c r="E1732" t="str">
+        <f t="shared" si="26"/>
+        <v/>
+      </c>
+    </row>
+    <row r="1733" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1733" s="1">
+        <v>41475</v>
+      </c>
+      <c r="B1733" t="s">
+        <v>1740</v>
+      </c>
+      <c r="C1733">
+        <v>4</v>
+      </c>
+      <c r="E1733" t="str">
+        <f t="shared" ref="E1733:E1796" si="27">IF(COUNTIF(B:B, B1733)&gt;1,"Duplicate","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="1734" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1734" s="1">
+        <v>41475</v>
+      </c>
+      <c r="B1734" t="s">
+        <v>1741</v>
+      </c>
+      <c r="C1734">
+        <v>9</v>
+      </c>
+      <c r="E1734" t="str">
+        <f t="shared" si="27"/>
+        <v/>
+      </c>
+    </row>
+    <row r="1735" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1735" s="1">
+        <v>41478</v>
+      </c>
+      <c r="B1735" t="s">
+        <v>1742</v>
+      </c>
+      <c r="C1735">
+        <v>7</v>
+      </c>
+      <c r="E1735" t="str">
+        <f t="shared" si="27"/>
+        <v/>
+      </c>
+    </row>
+    <row r="1736" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1736" s="1">
+        <v>41486</v>
+      </c>
+      <c r="B1736" t="s">
+        <v>1743</v>
+      </c>
+      <c r="C1736">
+        <v>8</v>
+      </c>
+      <c r="E1736" t="str">
+        <f t="shared" si="27"/>
+        <v/>
+      </c>
+    </row>
+    <row r="1737" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1737" s="1">
+        <v>41486</v>
+      </c>
+      <c r="B1737" t="s">
+        <v>1744</v>
+      </c>
+      <c r="C1737">
+        <v>5</v>
+      </c>
+      <c r="E1737" t="str">
+        <f t="shared" si="27"/>
+        <v/>
+      </c>
+    </row>
+    <row r="1738" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1738" s="1">
+        <v>41486</v>
+      </c>
+      <c r="B1738" t="s">
+        <v>1745</v>
+      </c>
+      <c r="C1738">
+        <v>8</v>
+      </c>
+      <c r="E1738" t="str">
+        <f t="shared" si="27"/>
+        <v/>
+      </c>
+    </row>
+    <row r="1739" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1739" s="1">
+        <v>41486</v>
+      </c>
+      <c r="B1739" t="s">
+        <v>1746</v>
+      </c>
+      <c r="C1739">
+        <v>4</v>
+      </c>
+      <c r="E1739" t="str">
+        <f t="shared" si="27"/>
+        <v/>
+      </c>
+    </row>
+    <row r="1740" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1740" s="1">
+        <v>41486</v>
+      </c>
+      <c r="B1740" t="s">
+        <v>1747</v>
+      </c>
+      <c r="C1740">
+        <v>7</v>
+      </c>
+      <c r="E1740" t="str">
+        <f t="shared" si="27"/>
+        <v/>
+      </c>
+    </row>
+    <row r="1741" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1741" s="1">
+        <v>41486</v>
+      </c>
+      <c r="B1741" t="s">
+        <v>1748</v>
+      </c>
+      <c r="C1741">
+        <v>4</v>
+      </c>
+      <c r="E1741" t="str">
+        <f t="shared" si="27"/>
+        <v/>
+      </c>
+    </row>
+    <row r="1742" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1742" s="1">
+        <v>41488</v>
+      </c>
+      <c r="B1742" t="s">
+        <v>1749</v>
+      </c>
+      <c r="C1742">
+        <v>5</v>
+      </c>
+      <c r="E1742" t="str">
+        <f t="shared" si="27"/>
+        <v/>
+      </c>
+    </row>
+    <row r="1743" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1743" s="1">
+        <v>41488</v>
+      </c>
+      <c r="B1743" t="s">
+        <v>1750</v>
+      </c>
+      <c r="C1743">
+        <v>6</v>
+      </c>
+      <c r="E1743" t="str">
+        <f t="shared" si="27"/>
+        <v/>
+      </c>
+    </row>
+    <row r="1744" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1744" s="1">
+        <v>41489</v>
+      </c>
+      <c r="B1744" t="s">
+        <v>1751</v>
+      </c>
+      <c r="C1744">
+        <v>7</v>
+      </c>
+      <c r="E1744" t="str">
+        <f t="shared" si="27"/>
+        <v/>
+      </c>
+    </row>
+    <row r="1745" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1745" s="1">
+        <v>41493</v>
+      </c>
+      <c r="B1745" t="s">
+        <v>1752</v>
+      </c>
+      <c r="C1745">
+        <v>7</v>
+      </c>
+      <c r="E1745" t="str">
+        <f t="shared" si="27"/>
+        <v/>
+      </c>
+    </row>
+    <row r="1746" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1746" s="1">
+        <v>41495</v>
+      </c>
+      <c r="B1746" t="s">
+        <v>1753</v>
+      </c>
+      <c r="C1746">
+        <v>4</v>
+      </c>
+      <c r="E1746" t="str">
+        <f t="shared" si="27"/>
+        <v/>
+      </c>
+    </row>
+    <row r="1747" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1747" s="1">
+        <v>41495</v>
+      </c>
+      <c r="B1747" t="s">
+        <v>1754</v>
+      </c>
+      <c r="C1747">
+        <v>4</v>
+      </c>
+      <c r="E1747" t="str">
+        <f t="shared" si="27"/>
+        <v/>
+      </c>
+    </row>
+    <row r="1748" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1748" s="1">
+        <v>41495</v>
+      </c>
+      <c r="B1748" t="s">
+        <v>1755</v>
+      </c>
+      <c r="C1748">
+        <v>7</v>
+      </c>
+      <c r="E1748" t="str">
+        <f t="shared" si="27"/>
+        <v/>
+      </c>
+    </row>
+    <row r="1749" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1749" s="1">
+        <v>41495</v>
+      </c>
+      <c r="B1749" t="s">
+        <v>1756</v>
+      </c>
+      <c r="C1749">
+        <v>3</v>
+      </c>
+      <c r="E1749" t="str">
+        <f t="shared" si="27"/>
+        <v/>
+      </c>
+    </row>
+    <row r="1750" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1750" s="1">
+        <v>41495</v>
+      </c>
+      <c r="B1750" t="s">
+        <v>1757</v>
+      </c>
+      <c r="C1750">
+        <v>6</v>
+      </c>
+      <c r="E1750" t="str">
+        <f t="shared" si="27"/>
+        <v/>
+      </c>
+    </row>
+    <row r="1751" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1751" s="1">
+        <v>41495</v>
+      </c>
+      <c r="B1751" t="s">
+        <v>1758</v>
+      </c>
+      <c r="C1751">
+        <v>8</v>
+      </c>
+      <c r="E1751" t="str">
+        <f t="shared" si="27"/>
+        <v/>
+      </c>
+    </row>
+    <row r="1752" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1752" s="1">
+        <v>41495</v>
+      </c>
+      <c r="B1752" t="s">
+        <v>1759</v>
+      </c>
+      <c r="C1752">
+        <v>4</v>
+      </c>
+      <c r="E1752" t="str">
+        <f t="shared" si="27"/>
+        <v/>
+      </c>
+    </row>
+    <row r="1753" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1753" s="1">
+        <v>41495</v>
+      </c>
+      <c r="B1753" t="s">
+        <v>1760</v>
+      </c>
+      <c r="C1753">
+        <v>2</v>
+      </c>
+      <c r="E1753" t="str">
+        <f t="shared" si="27"/>
+        <v/>
+      </c>
+    </row>
+    <row r="1754" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1754" s="1">
+        <v>41495</v>
+      </c>
+      <c r="B1754" t="s">
+        <v>1761</v>
+      </c>
+      <c r="C1754">
+        <v>7</v>
+      </c>
+      <c r="E1754" t="str">
+        <f t="shared" si="27"/>
+        <v/>
+      </c>
+    </row>
+    <row r="1755" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1755" s="1">
+        <v>41495</v>
+      </c>
+      <c r="B1755" t="s">
+        <v>1762</v>
+      </c>
+      <c r="C1755">
+        <v>4</v>
+      </c>
+      <c r="E1755" t="str">
+        <f t="shared" si="27"/>
+        <v/>
+      </c>
+    </row>
+    <row r="1756" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1756" s="1">
+        <v>41495</v>
+      </c>
+      <c r="B1756" t="s">
+        <v>1763</v>
+      </c>
+      <c r="C1756">
+        <v>3</v>
+      </c>
+      <c r="E1756" t="str">
+        <f t="shared" si="27"/>
+        <v/>
+      </c>
+    </row>
+    <row r="1757" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1757" s="1">
+        <v>41495</v>
+      </c>
+      <c r="B1757" t="s">
+        <v>1764</v>
+      </c>
+      <c r="C1757">
+        <v>3</v>
+      </c>
+      <c r="E1757" t="str">
+        <f t="shared" si="27"/>
+        <v/>
+      </c>
+    </row>
+    <row r="1758" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1758" s="1">
+        <v>41500</v>
+      </c>
+      <c r="B1758" t="s">
+        <v>1765</v>
+      </c>
+      <c r="C1758">
+        <v>8</v>
+      </c>
+      <c r="E1758" t="str">
+        <f t="shared" si="27"/>
+        <v/>
+      </c>
+    </row>
+    <row r="1759" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1759" s="1">
+        <v>41500</v>
+      </c>
+      <c r="B1759" t="s">
+        <v>1766</v>
+      </c>
+      <c r="C1759">
+        <v>8</v>
+      </c>
+      <c r="E1759" t="str">
+        <f t="shared" si="27"/>
+        <v/>
+      </c>
+    </row>
+    <row r="1760" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1760" s="1">
+        <v>41500</v>
+      </c>
+      <c r="B1760" t="s">
+        <v>1767</v>
+      </c>
+      <c r="C1760">
+        <v>5</v>
+      </c>
+      <c r="E1760" t="str">
+        <f t="shared" si="27"/>
+        <v/>
+      </c>
+    </row>
+    <row r="1761" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1761" s="1">
+        <v>41500</v>
+      </c>
+      <c r="B1761" t="s">
+        <v>1768</v>
+      </c>
+      <c r="C1761">
+        <v>5</v>
+      </c>
+      <c r="E1761" t="str">
+        <f t="shared" si="27"/>
+        <v/>
+      </c>
+    </row>
+    <row r="1762" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1762" s="1">
+        <v>41500</v>
+      </c>
+      <c r="B1762" t="s">
+        <v>1769</v>
+      </c>
+      <c r="C1762">
+        <v>9</v>
+      </c>
+      <c r="D1762" t="s">
+        <v>1770</v>
+      </c>
+      <c r="E1762" t="str">
+        <f t="shared" si="27"/>
+        <v/>
+      </c>
+    </row>
+    <row r="1763" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1763" s="1">
+        <v>41500</v>
+      </c>
+      <c r="B1763" t="s">
+        <v>1771</v>
+      </c>
+      <c r="C1763">
+        <v>6</v>
+      </c>
+      <c r="E1763" t="str">
+        <f t="shared" si="27"/>
+        <v/>
+      </c>
+    </row>
+    <row r="1764" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1764" s="1">
+        <v>41500</v>
+      </c>
+      <c r="B1764" t="s">
+        <v>1772</v>
+      </c>
+      <c r="C1764">
+        <v>4</v>
+      </c>
+      <c r="E1764" t="str">
+        <f t="shared" si="27"/>
+        <v/>
+      </c>
+    </row>
+    <row r="1765" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1765" s="1">
+        <v>41503</v>
+      </c>
+      <c r="B1765" t="s">
+        <v>1773</v>
+      </c>
+      <c r="C1765">
+        <v>7</v>
+      </c>
+      <c r="E1765" t="str">
+        <f t="shared" si="27"/>
+        <v/>
+      </c>
+    </row>
+    <row r="1766" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1766" s="1">
+        <v>41503</v>
+      </c>
+      <c r="B1766" t="s">
+        <v>1774</v>
+      </c>
+      <c r="C1766">
+        <v>7</v>
+      </c>
+      <c r="E1766" t="str">
+        <f t="shared" si="27"/>
+        <v/>
+      </c>
+    </row>
+    <row r="1767" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1767" s="1">
+        <v>41506</v>
+      </c>
+      <c r="B1767" t="s">
+        <v>1775</v>
+      </c>
+      <c r="C1767">
+        <v>7</v>
+      </c>
+      <c r="E1767" t="str">
+        <f t="shared" si="27"/>
+        <v/>
+      </c>
+    </row>
+    <row r="1768" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1768" s="1">
+        <v>41506</v>
+      </c>
+      <c r="B1768" t="s">
+        <v>1776</v>
+      </c>
+      <c r="C1768">
+        <v>4</v>
+      </c>
+      <c r="E1768" t="str">
+        <f t="shared" si="27"/>
+        <v/>
+      </c>
+    </row>
+    <row r="1769" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1769" s="1">
+        <v>41507</v>
+      </c>
+      <c r="B1769" t="s">
+        <v>1777</v>
+      </c>
+      <c r="C1769">
+        <v>5</v>
+      </c>
+      <c r="E1769" t="str">
+        <f t="shared" si="27"/>
+        <v/>
+      </c>
+    </row>
+    <row r="1770" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1770" s="1">
+        <v>41507</v>
+      </c>
+      <c r="B1770" t="s">
+        <v>1778</v>
+      </c>
+      <c r="C1770">
+        <v>5</v>
+      </c>
+      <c r="E1770" t="str">
+        <f t="shared" si="27"/>
+        <v/>
+      </c>
+    </row>
+    <row r="1771" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1771" s="1">
+        <v>41507</v>
+      </c>
+      <c r="B1771" t="s">
+        <v>1779</v>
+      </c>
+      <c r="C1771">
+        <v>5</v>
+      </c>
+      <c r="E1771" t="str">
+        <f t="shared" si="27"/>
+        <v/>
+      </c>
+    </row>
+    <row r="1772" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1772" s="1">
+        <v>41510</v>
+      </c>
+      <c r="B1772" t="s">
+        <v>1780</v>
+      </c>
+      <c r="C1772">
+        <v>7</v>
+      </c>
+      <c r="E1772" t="str">
+        <f t="shared" si="27"/>
+        <v/>
+      </c>
+    </row>
+    <row r="1773" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1773" s="1">
+        <v>41510</v>
+      </c>
+      <c r="B1773" t="s">
+        <v>1781</v>
+      </c>
+      <c r="C1773">
+        <v>4</v>
+      </c>
+      <c r="E1773" t="str">
+        <f t="shared" si="27"/>
+        <v/>
+      </c>
+    </row>
+    <row r="1774" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1774" s="1">
+        <v>41510</v>
+      </c>
+      <c r="B1774" t="s">
+        <v>1782</v>
+      </c>
+      <c r="C1774">
+        <v>3</v>
+      </c>
+      <c r="E1774" t="str">
+        <f t="shared" si="27"/>
+        <v/>
+      </c>
+    </row>
+    <row r="1775" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1775" s="1">
+        <v>41510</v>
+      </c>
+      <c r="B1775" t="s">
+        <v>1783</v>
+      </c>
+      <c r="C1775">
+        <v>6</v>
+      </c>
+      <c r="E1775" t="str">
+        <f t="shared" si="27"/>
+        <v/>
+      </c>
+    </row>
+    <row r="1776" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1776" s="1">
+        <v>41510</v>
+      </c>
+      <c r="B1776" t="s">
+        <v>1784</v>
+      </c>
+      <c r="C1776">
+        <v>8</v>
+      </c>
+      <c r="E1776" t="str">
+        <f t="shared" si="27"/>
+        <v/>
+      </c>
+    </row>
+    <row r="1777" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1777" s="1">
+        <v>41511</v>
+      </c>
+      <c r="B1777" t="s">
+        <v>1785</v>
+      </c>
+      <c r="C1777">
+        <v>5</v>
+      </c>
+      <c r="E1777" t="str">
+        <f t="shared" si="27"/>
+        <v/>
+      </c>
+    </row>
+    <row r="1778" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1778" s="1">
+        <v>41511</v>
+      </c>
+      <c r="B1778" t="s">
+        <v>1786</v>
+      </c>
+      <c r="C1778">
+        <v>5</v>
+      </c>
+      <c r="E1778" t="str">
+        <f t="shared" si="27"/>
+        <v/>
+      </c>
+    </row>
+    <row r="1779" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1779" s="1">
+        <v>41516</v>
+      </c>
+      <c r="B1779" t="s">
+        <v>1787</v>
+      </c>
+      <c r="C1779">
+        <v>8</v>
+      </c>
+      <c r="E1779" t="str">
+        <f t="shared" si="27"/>
+        <v/>
+      </c>
+    </row>
+    <row r="1780" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1780" s="1">
+        <v>41516</v>
+      </c>
+      <c r="B1780" t="s">
+        <v>1788</v>
+      </c>
+      <c r="C1780">
+        <v>5</v>
+      </c>
+      <c r="E1780" t="str">
+        <f t="shared" si="27"/>
+        <v/>
+      </c>
+    </row>
+    <row r="1781" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1781" s="1">
+        <v>41518</v>
+      </c>
+      <c r="B1781" t="s">
+        <v>1789</v>
+      </c>
+      <c r="C1781">
+        <v>7</v>
+      </c>
+      <c r="E1781" t="str">
+        <f t="shared" si="27"/>
+        <v/>
+      </c>
+    </row>
+    <row r="1782" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1782" s="1">
+        <v>41521</v>
+      </c>
+      <c r="B1782" t="s">
+        <v>1790</v>
+      </c>
+      <c r="C1782">
+        <v>4</v>
+      </c>
+      <c r="E1782" t="str">
+        <f t="shared" si="27"/>
+        <v/>
+      </c>
+    </row>
+    <row r="1783" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1783" s="1">
+        <v>41522</v>
+      </c>
+      <c r="B1783" t="s">
+        <v>1791</v>
+      </c>
+      <c r="C1783">
+        <v>5</v>
+      </c>
+      <c r="E1783" t="str">
+        <f t="shared" si="27"/>
+        <v/>
+      </c>
+    </row>
+    <row r="1784" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1784" s="1">
+        <v>41522</v>
+      </c>
+      <c r="B1784" t="s">
+        <v>1792</v>
+      </c>
+      <c r="C1784">
+        <v>6</v>
+      </c>
+      <c r="E1784" t="str">
+        <f t="shared" si="27"/>
+        <v/>
+      </c>
+    </row>
+    <row r="1785" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1785" s="1">
+        <v>41522</v>
+      </c>
+      <c r="B1785" t="s">
+        <v>1793</v>
+      </c>
+      <c r="C1785">
+        <v>2</v>
+      </c>
+      <c r="E1785" t="str">
+        <f t="shared" si="27"/>
+        <v/>
+      </c>
+    </row>
+    <row r="1786" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1786" s="1">
+        <v>41522</v>
+      </c>
+      <c r="B1786" t="s">
+        <v>1794</v>
+      </c>
+      <c r="C1786">
+        <v>6</v>
+      </c>
+      <c r="E1786" t="str">
+        <f t="shared" si="27"/>
+        <v/>
+      </c>
+    </row>
+    <row r="1787" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1787" s="1">
+        <v>41531</v>
+      </c>
+      <c r="B1787" t="s">
+        <v>1795</v>
+      </c>
+      <c r="C1787">
+        <v>4</v>
+      </c>
+      <c r="E1787" t="str">
+        <f t="shared" si="27"/>
+        <v/>
+      </c>
+    </row>
+    <row r="1788" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1788" s="1">
+        <v>41531</v>
+      </c>
+      <c r="B1788" t="s">
+        <v>1796</v>
+      </c>
+      <c r="C1788">
+        <v>6</v>
+      </c>
+      <c r="E1788" t="str">
+        <f t="shared" si="27"/>
+        <v/>
+      </c>
+    </row>
+    <row r="1789" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1789" s="1">
+        <v>41534</v>
+      </c>
+      <c r="B1789" t="s">
+        <v>1797</v>
+      </c>
+      <c r="C1789">
+        <v>6</v>
+      </c>
+      <c r="E1789" t="str">
+        <f t="shared" si="27"/>
+        <v/>
+      </c>
+    </row>
+    <row r="1790" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1790" s="1">
+        <v>41534</v>
+      </c>
+      <c r="B1790" t="s">
+        <v>1798</v>
+      </c>
+      <c r="C1790">
+        <v>7</v>
+      </c>
+      <c r="E1790" t="str">
+        <f t="shared" si="27"/>
+        <v/>
+      </c>
+    </row>
+    <row r="1791" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1791" s="1">
+        <v>41538</v>
+      </c>
+      <c r="B1791" t="s">
+        <v>1799</v>
+      </c>
+      <c r="C1791">
+        <v>8</v>
+      </c>
+      <c r="E1791" t="str">
+        <f t="shared" si="27"/>
+        <v/>
+      </c>
+    </row>
+    <row r="1792" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1792" s="1">
+        <v>41538</v>
+      </c>
+      <c r="B1792" t="s">
+        <v>1800</v>
+      </c>
+      <c r="C1792">
+        <v>5</v>
+      </c>
+      <c r="E1792" t="str">
+        <f t="shared" si="27"/>
+        <v/>
+      </c>
+    </row>
+    <row r="1793" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1793" s="1">
+        <v>41538</v>
+      </c>
+      <c r="B1793" t="s">
+        <v>1801</v>
+      </c>
+      <c r="C1793">
+        <v>7</v>
+      </c>
+      <c r="E1793" t="str">
+        <f t="shared" si="27"/>
+        <v/>
+      </c>
+    </row>
+    <row r="1794" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1794" s="1">
+        <v>41538</v>
+      </c>
+      <c r="B1794" t="s">
+        <v>1802</v>
+      </c>
+      <c r="C1794">
+        <v>8</v>
+      </c>
+      <c r="E1794" t="str">
+        <f t="shared" si="27"/>
+        <v/>
+      </c>
+    </row>
+    <row r="1795" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1795" s="1">
+        <v>41538</v>
+      </c>
+      <c r="B1795" t="s">
+        <v>1803</v>
+      </c>
+      <c r="C1795">
+        <v>9</v>
+      </c>
+      <c r="E1795" t="str">
+        <f t="shared" si="27"/>
+        <v/>
+      </c>
+    </row>
+    <row r="1796" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1796" s="1">
+        <v>41538</v>
+      </c>
+      <c r="B1796" t="s">
+        <v>1804</v>
+      </c>
+      <c r="C1796">
+        <v>3</v>
+      </c>
+      <c r="E1796" t="str">
+        <f t="shared" si="27"/>
+        <v/>
+      </c>
+    </row>
+    <row r="1797" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1797" s="1">
+        <v>41538</v>
+      </c>
+      <c r="B1797" t="s">
+        <v>1805</v>
+      </c>
+      <c r="C1797">
+        <v>7</v>
+      </c>
+      <c r="E1797" t="str">
+        <f t="shared" ref="E1797:E1860" si="28">IF(COUNTIF(B:B, B1797)&gt;1,"Duplicate","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="1798" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1798" s="1">
+        <v>41538</v>
+      </c>
+      <c r="B1798" t="s">
+        <v>1806</v>
+      </c>
+      <c r="C1798">
+        <v>5</v>
+      </c>
+      <c r="E1798" t="str">
+        <f t="shared" si="28"/>
+        <v/>
+      </c>
+    </row>
+    <row r="1799" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1799" s="1">
+        <v>41538</v>
+      </c>
+      <c r="B1799" t="s">
+        <v>1807</v>
+      </c>
+      <c r="C1799">
+        <v>5</v>
+      </c>
+      <c r="E1799" t="str">
+        <f t="shared" si="28"/>
+        <v/>
+      </c>
+    </row>
+    <row r="1800" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1800" s="1">
+        <v>41538</v>
+      </c>
+      <c r="B1800" t="s">
+        <v>1808</v>
+      </c>
+      <c r="C1800">
+        <v>6</v>
+      </c>
+      <c r="E1800" t="str">
+        <f t="shared" si="28"/>
+        <v/>
+      </c>
+    </row>
+    <row r="1801" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1801" s="1">
+        <v>41538</v>
+      </c>
+      <c r="B1801" t="s">
+        <v>1809</v>
+      </c>
+      <c r="C1801">
+        <v>5</v>
+      </c>
+      <c r="E1801" t="str">
+        <f t="shared" si="28"/>
+        <v/>
+      </c>
+    </row>
+    <row r="1802" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1802" s="1">
+        <v>41538</v>
+      </c>
+      <c r="B1802" t="s">
+        <v>1810</v>
+      </c>
+      <c r="C1802">
+        <v>4</v>
+      </c>
+      <c r="E1802" t="str">
+        <f t="shared" si="28"/>
+        <v/>
+      </c>
+    </row>
+    <row r="1803" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1803" s="1">
+        <v>41538</v>
+      </c>
+      <c r="B1803" t="s">
+        <v>1811</v>
+      </c>
+      <c r="C1803">
+        <v>9</v>
+      </c>
+      <c r="E1803" t="str">
+        <f t="shared" si="28"/>
+        <v/>
+      </c>
+    </row>
+    <row r="1804" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1804" s="1">
+        <v>41538</v>
+      </c>
+      <c r="B1804" t="s">
+        <v>1812</v>
+      </c>
+      <c r="C1804">
+        <v>2</v>
+      </c>
+      <c r="E1804" t="str">
+        <f t="shared" si="28"/>
+        <v/>
+      </c>
+    </row>
+    <row r="1805" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1805" s="1">
+        <v>41538</v>
+      </c>
+      <c r="B1805" t="s">
+        <v>1813</v>
+      </c>
+      <c r="C1805">
+        <v>5</v>
+      </c>
+      <c r="E1805" t="str">
+        <f t="shared" si="28"/>
+        <v/>
+      </c>
+    </row>
+    <row r="1806" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1806" s="1">
+        <v>41538</v>
+      </c>
+      <c r="B1806" t="s">
+        <v>1814</v>
+      </c>
+      <c r="C1806">
+        <v>4</v>
+      </c>
+      <c r="E1806" t="str">
+        <f t="shared" si="28"/>
+        <v/>
+      </c>
+    </row>
+    <row r="1807" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1807" s="1">
+        <v>41538</v>
+      </c>
+      <c r="B1807" t="s">
+        <v>1815</v>
+      </c>
+      <c r="C1807">
+        <v>8</v>
+      </c>
+      <c r="E1807" t="str">
+        <f t="shared" si="28"/>
+        <v/>
+      </c>
+    </row>
+    <row r="1808" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1808" s="1">
+        <v>41538</v>
+      </c>
+      <c r="B1808" t="s">
+        <v>1816</v>
+      </c>
+      <c r="C1808">
+        <v>5</v>
+      </c>
+      <c r="E1808" t="str">
+        <f t="shared" si="28"/>
+        <v/>
+      </c>
+    </row>
+    <row r="1809" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1809" s="1">
+        <v>41538</v>
+      </c>
+      <c r="B1809" t="s">
+        <v>1817</v>
+      </c>
+      <c r="C1809">
+        <v>5</v>
+      </c>
+      <c r="E1809" t="str">
+        <f t="shared" si="28"/>
+        <v/>
+      </c>
+    </row>
+    <row r="1810" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1810" s="1">
+        <v>41538</v>
+      </c>
+      <c r="B1810" t="s">
+        <v>1818</v>
+      </c>
+      <c r="C1810">
+        <v>4</v>
+      </c>
+      <c r="E1810" t="str">
+        <f t="shared" si="28"/>
+        <v/>
+      </c>
+    </row>
+    <row r="1811" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1811" s="1">
+        <v>41538</v>
+      </c>
+      <c r="B1811" t="s">
+        <v>1819</v>
+      </c>
+      <c r="C1811">
+        <v>6</v>
+      </c>
+      <c r="E1811" t="str">
+        <f t="shared" si="28"/>
+        <v/>
+      </c>
+    </row>
+    <row r="1812" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1812" s="1">
+        <v>41538</v>
+      </c>
+      <c r="B1812" t="s">
+        <v>1820</v>
+      </c>
+      <c r="C1812">
+        <v>6</v>
+      </c>
+      <c r="E1812" t="str">
+        <f t="shared" si="28"/>
+        <v/>
+      </c>
+    </row>
+    <row r="1813" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1813" s="1">
+        <v>41538</v>
+      </c>
+      <c r="B1813" t="s">
+        <v>1821</v>
+      </c>
+      <c r="C1813">
+        <v>4</v>
+      </c>
+      <c r="E1813" t="str">
+        <f t="shared" si="28"/>
+        <v/>
+      </c>
+    </row>
+    <row r="1814" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1814" s="1">
+        <v>41538</v>
+      </c>
+      <c r="B1814" t="s">
+        <v>1822</v>
+      </c>
+      <c r="C1814">
+        <v>6</v>
+      </c>
+      <c r="E1814" t="str">
+        <f t="shared" si="28"/>
+        <v/>
+      </c>
+    </row>
+    <row r="1815" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1815" s="1">
+        <v>41538</v>
+      </c>
+      <c r="B1815" t="s">
+        <v>1823</v>
+      </c>
+      <c r="C1815">
+        <v>4</v>
+      </c>
+      <c r="E1815" t="str">
+        <f t="shared" si="28"/>
+        <v/>
+      </c>
+    </row>
+    <row r="1816" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1816" s="1">
+        <v>41538</v>
+      </c>
+      <c r="B1816" t="s">
+        <v>1824</v>
+      </c>
+      <c r="C1816">
+        <v>5</v>
+      </c>
+      <c r="E1816" t="str">
+        <f t="shared" si="28"/>
+        <v/>
+      </c>
+    </row>
+    <row r="1817" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1817" s="1">
+        <v>41538</v>
+      </c>
+      <c r="B1817" t="s">
+        <v>1825</v>
+      </c>
+      <c r="C1817">
+        <v>6</v>
+      </c>
+      <c r="E1817" t="str">
+        <f t="shared" si="28"/>
+        <v/>
+      </c>
+    </row>
+    <row r="1818" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1818" s="1">
+        <v>41538</v>
+      </c>
+      <c r="B1818" t="s">
+        <v>1826</v>
+      </c>
+      <c r="C1818">
+        <v>3</v>
+      </c>
+      <c r="E1818" t="str">
+        <f t="shared" si="28"/>
+        <v/>
+      </c>
+    </row>
+    <row r="1819" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1819" s="1">
+        <v>41538</v>
+      </c>
+      <c r="B1819" t="s">
+        <v>1827</v>
+      </c>
+      <c r="C1819">
+        <v>3</v>
+      </c>
+      <c r="E1819" t="str">
+        <f t="shared" si="28"/>
+        <v/>
+      </c>
+    </row>
+    <row r="1820" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1820" s="1">
+        <v>41538</v>
+      </c>
+      <c r="B1820" t="s">
+        <v>1828</v>
+      </c>
+      <c r="C1820">
+        <v>5</v>
+      </c>
+      <c r="E1820" t="str">
+        <f t="shared" si="28"/>
+        <v/>
+      </c>
+    </row>
+    <row r="1821" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1821" s="1">
+        <v>41538</v>
+      </c>
+      <c r="B1821" t="s">
+        <v>1829</v>
+      </c>
+      <c r="C1821">
+        <v>6</v>
+      </c>
+      <c r="E1821" t="str">
+        <f t="shared" si="28"/>
+        <v/>
+      </c>
+    </row>
+    <row r="1822" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1822" s="1">
+        <v>41538</v>
+      </c>
+      <c r="B1822" t="s">
+        <v>1830</v>
+      </c>
+      <c r="C1822">
+        <v>4</v>
+      </c>
+      <c r="E1822" t="str">
+        <f t="shared" si="28"/>
+        <v/>
+      </c>
+    </row>
+    <row r="1823" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1823" s="1">
+        <v>41538</v>
+      </c>
+      <c r="B1823" t="s">
+        <v>1831</v>
+      </c>
+      <c r="C1823">
+        <v>2</v>
+      </c>
+      <c r="E1823" t="str">
+        <f t="shared" si="28"/>
+        <v/>
+      </c>
+    </row>
+    <row r="1824" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1824" s="1">
+        <v>41538</v>
+      </c>
+      <c r="B1824" t="s">
+        <v>1832</v>
+      </c>
+      <c r="C1824">
+        <v>4</v>
+      </c>
+      <c r="E1824" t="str">
+        <f t="shared" si="28"/>
+        <v/>
+      </c>
+    </row>
+    <row r="1825" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1825" s="1">
+        <v>41538</v>
+      </c>
+      <c r="B1825" t="s">
+        <v>1833</v>
+      </c>
+      <c r="C1825">
+        <v>3</v>
+      </c>
+      <c r="E1825" t="str">
+        <f t="shared" si="28"/>
+        <v/>
+      </c>
+    </row>
+    <row r="1826" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1826" s="1">
+        <v>41538</v>
+      </c>
+      <c r="B1826" t="s">
+        <v>1834</v>
+      </c>
+      <c r="C1826">
+        <v>5</v>
+      </c>
+      <c r="E1826" t="str">
+        <f t="shared" si="28"/>
+        <v/>
+      </c>
+    </row>
+    <row r="1827" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1827" s="1">
+        <v>41538</v>
+      </c>
+      <c r="B1827" t="s">
+        <v>1835</v>
+      </c>
+      <c r="C1827">
+        <v>6</v>
+      </c>
+      <c r="E1827" t="str">
+        <f t="shared" si="28"/>
+        <v/>
+      </c>
+    </row>
+    <row r="1828" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1828" s="1">
+        <v>41538</v>
+      </c>
+      <c r="B1828" t="s">
+        <v>1836</v>
+      </c>
+      <c r="C1828">
+        <v>6</v>
+      </c>
+      <c r="E1828" t="str">
+        <f t="shared" si="28"/>
+        <v/>
+      </c>
+    </row>
+    <row r="1829" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1829" s="1">
+        <v>41538</v>
+      </c>
+      <c r="B1829" t="s">
+        <v>1837</v>
+      </c>
+      <c r="C1829">
+        <v>5</v>
+      </c>
+      <c r="E1829" t="str">
+        <f t="shared" si="28"/>
+        <v/>
+      </c>
+    </row>
+    <row r="1830" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1830" s="1">
+        <v>41538</v>
+      </c>
+      <c r="B1830" t="s">
+        <v>1838</v>
+      </c>
+      <c r="C1830">
+        <v>4</v>
+      </c>
+      <c r="E1830" t="str">
+        <f t="shared" si="28"/>
+        <v/>
+      </c>
+    </row>
+    <row r="1831" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1831" s="1">
+        <v>41538</v>
+      </c>
+      <c r="B1831" t="s">
+        <v>1839</v>
+      </c>
+      <c r="C1831">
+        <v>5</v>
+      </c>
+      <c r="E1831" t="str">
+        <f t="shared" si="28"/>
+        <v/>
+      </c>
+    </row>
+    <row r="1832" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1832" s="1">
+        <v>41538</v>
+      </c>
+      <c r="B1832" t="s">
+        <v>1840</v>
+      </c>
+      <c r="C1832">
+        <v>4</v>
+      </c>
+      <c r="E1832" t="str">
+        <f t="shared" si="28"/>
+        <v/>
+      </c>
+    </row>
+    <row r="1833" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1833" s="1">
+        <v>41538</v>
+      </c>
+      <c r="B1833" t="s">
+        <v>1841</v>
+      </c>
+      <c r="C1833">
+        <v>7</v>
+      </c>
+      <c r="E1833" t="str">
+        <f t="shared" si="28"/>
+        <v/>
+      </c>
+    </row>
+    <row r="1834" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1834" s="1">
+        <v>41538</v>
+      </c>
+      <c r="B1834" t="s">
+        <v>1842</v>
+      </c>
+      <c r="C1834">
+        <v>5</v>
+      </c>
+      <c r="E1834" t="str">
+        <f t="shared" si="28"/>
+        <v/>
+      </c>
+    </row>
+    <row r="1835" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1835" s="1">
+        <v>41538</v>
+      </c>
+      <c r="B1835" t="s">
+        <v>1843</v>
+      </c>
+      <c r="C1835">
+        <v>6</v>
+      </c>
+      <c r="E1835" t="str">
+        <f t="shared" si="28"/>
+        <v/>
+      </c>
+    </row>
+    <row r="1836" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1836" s="1">
+        <v>41538</v>
+      </c>
+      <c r="B1836" t="s">
+        <v>1844</v>
+      </c>
+      <c r="C1836">
+        <v>4</v>
+      </c>
+      <c r="E1836" t="str">
+        <f t="shared" si="28"/>
+        <v/>
+      </c>
+    </row>
+    <row r="1837" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1837" s="1">
+        <v>41538</v>
+      </c>
+      <c r="B1837" t="s">
+        <v>1845</v>
+      </c>
+      <c r="C1837">
+        <v>7</v>
+      </c>
+      <c r="E1837" t="str">
+        <f t="shared" si="28"/>
+        <v/>
+      </c>
+    </row>
+    <row r="1838" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1838" s="1">
+        <v>41538</v>
+      </c>
+      <c r="B1838" t="s">
+        <v>1846</v>
+      </c>
+      <c r="C1838">
+        <v>6</v>
+      </c>
+      <c r="E1838" t="str">
+        <f t="shared" si="28"/>
+        <v/>
+      </c>
+    </row>
+    <row r="1839" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1839" s="1">
+        <v>41538</v>
+      </c>
+      <c r="B1839" t="s">
+        <v>1847</v>
+      </c>
+      <c r="C1839">
+        <v>7</v>
+      </c>
+      <c r="E1839" t="str">
+        <f t="shared" si="28"/>
+        <v/>
+      </c>
+    </row>
+    <row r="1840" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1840" s="1">
+        <v>41538</v>
+      </c>
+      <c r="B1840" t="s">
+        <v>1848</v>
+      </c>
+      <c r="C1840">
+        <v>3</v>
+      </c>
+      <c r="E1840" t="str">
+        <f t="shared" si="28"/>
+        <v/>
+      </c>
+    </row>
+    <row r="1841" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1841" s="1">
+        <v>41538</v>
+      </c>
+      <c r="B1841" t="s">
+        <v>1849</v>
+      </c>
+      <c r="C1841">
+        <v>6</v>
+      </c>
+      <c r="E1841" t="str">
+        <f t="shared" si="28"/>
+        <v/>
+      </c>
+    </row>
+    <row r="1842" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1842" s="1">
+        <v>41538</v>
+      </c>
+      <c r="B1842" t="s">
+        <v>1850</v>
+      </c>
+      <c r="C1842">
+        <v>6</v>
+      </c>
+      <c r="E1842" t="str">
+        <f t="shared" si="28"/>
+        <v/>
+      </c>
+    </row>
+    <row r="1843" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1843" s="1">
+        <v>41538</v>
+      </c>
+      <c r="B1843" t="s">
+        <v>1851</v>
+      </c>
+      <c r="C1843">
+        <v>5</v>
+      </c>
+      <c r="E1843" t="str">
+        <f t="shared" si="28"/>
+        <v/>
+      </c>
+    </row>
+    <row r="1844" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1844" s="1">
+        <v>41538</v>
+      </c>
+      <c r="B1844" t="s">
+        <v>1852</v>
+      </c>
+      <c r="C1844">
+        <v>6</v>
+      </c>
+      <c r="E1844" t="str">
+        <f t="shared" si="28"/>
+        <v/>
+      </c>
+    </row>
+    <row r="1845" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1845" s="1">
+        <v>41538</v>
+      </c>
+      <c r="B1845" t="s">
+        <v>1853</v>
+      </c>
+      <c r="C1845">
+        <v>3</v>
+      </c>
+      <c r="E1845" t="str">
+        <f t="shared" si="28"/>
+        <v/>
+      </c>
+    </row>
+    <row r="1846" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1846" s="1">
+        <v>41539</v>
+      </c>
+      <c r="B1846" t="s">
+        <v>1854</v>
+      </c>
+      <c r="C1846">
+        <v>5</v>
+      </c>
+      <c r="E1846" t="str">
+        <f t="shared" si="28"/>
+        <v/>
+      </c>
+    </row>
+    <row r="1847" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1847" s="1">
+        <v>41542</v>
+      </c>
+      <c r="B1847" t="s">
+        <v>1855</v>
+      </c>
+      <c r="C1847">
+        <v>6</v>
+      </c>
+      <c r="E1847" t="str">
+        <f t="shared" si="28"/>
+        <v/>
+      </c>
+    </row>
+    <row r="1848" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1848" s="1">
+        <v>41542</v>
+      </c>
+      <c r="B1848" t="s">
+        <v>1859</v>
+      </c>
+      <c r="C1848">
+        <v>5</v>
+      </c>
+      <c r="E1848" t="str">
+        <f t="shared" si="28"/>
+        <v/>
+      </c>
+    </row>
+    <row r="1849" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1849" s="1">
+        <v>41542</v>
+      </c>
+      <c r="B1849" t="s">
+        <v>1856</v>
+      </c>
+      <c r="C1849">
+        <v>5</v>
+      </c>
+      <c r="E1849" t="str">
+        <f t="shared" si="28"/>
+        <v/>
+      </c>
+    </row>
+    <row r="1850" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1850" s="1">
+        <v>41542</v>
+      </c>
+      <c r="B1850" t="s">
+        <v>1857</v>
+      </c>
+      <c r="C1850">
+        <v>8</v>
+      </c>
+      <c r="E1850" t="str">
+        <f t="shared" si="28"/>
+        <v/>
+      </c>
+    </row>
+    <row r="1851" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1851" s="1">
+        <v>41542</v>
+      </c>
+      <c r="B1851" t="s">
+        <v>1858</v>
+      </c>
+      <c r="C1851">
+        <v>7</v>
+      </c>
+      <c r="E1851" t="str">
+        <f t="shared" si="28"/>
+        <v/>
+      </c>
+    </row>
+    <row r="1852" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1852" s="1">
+        <v>41542</v>
+      </c>
+      <c r="B1852" t="s">
+        <v>1860</v>
+      </c>
+      <c r="C1852">
+        <v>5</v>
+      </c>
+      <c r="E1852" t="str">
+        <f t="shared" si="28"/>
+        <v/>
+      </c>
+    </row>
+    <row r="1853" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1853" s="1">
+        <v>41542</v>
+      </c>
+      <c r="B1853" t="s">
+        <v>1861</v>
+      </c>
+      <c r="C1853">
+        <v>6</v>
+      </c>
+      <c r="E1853" t="str">
+        <f t="shared" si="28"/>
+        <v/>
+      </c>
+    </row>
+    <row r="1854" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1854" s="1">
+        <v>41542</v>
+      </c>
+      <c r="B1854" t="s">
+        <v>1862</v>
+      </c>
+      <c r="C1854">
+        <v>3</v>
+      </c>
+      <c r="E1854" t="str">
+        <f t="shared" si="28"/>
+        <v/>
+      </c>
+    </row>
+    <row r="1855" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1855" s="1">
+        <v>41542</v>
+      </c>
+      <c r="B1855" t="s">
+        <v>1863</v>
+      </c>
+      <c r="C1855">
+        <v>4</v>
+      </c>
+      <c r="E1855" t="str">
+        <f t="shared" si="28"/>
+        <v/>
+      </c>
+    </row>
+    <row r="1856" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1856" s="1">
+        <v>41542</v>
+      </c>
+      <c r="B1856" t="s">
+        <v>1864</v>
+      </c>
+      <c r="C1856">
+        <v>6</v>
+      </c>
+      <c r="E1856" t="str">
+        <f t="shared" si="28"/>
+        <v/>
+      </c>
+    </row>
+    <row r="1857" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1857" s="1">
+        <v>41542</v>
+      </c>
+      <c r="B1857" t="s">
+        <v>1865</v>
+      </c>
+      <c r="C1857">
+        <v>4</v>
+      </c>
+      <c r="E1857" t="str">
+        <f t="shared" si="28"/>
+        <v/>
+      </c>
+    </row>
+    <row r="1858" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1858" s="1">
+        <v>41542</v>
+      </c>
+      <c r="B1858" t="s">
+        <v>1866</v>
+      </c>
+      <c r="C1858">
+        <v>6</v>
+      </c>
+      <c r="E1858" t="str">
+        <f t="shared" si="28"/>
+        <v/>
+      </c>
+    </row>
+    <row r="1859" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1859" s="1">
+        <v>41542</v>
+      </c>
+      <c r="B1859" t="s">
+        <v>1867</v>
+      </c>
+      <c r="C1859">
+        <v>3</v>
+      </c>
+      <c r="E1859" t="str">
+        <f t="shared" si="28"/>
+        <v/>
+      </c>
+    </row>
+    <row r="1860" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1860" s="1">
+        <v>41542</v>
+      </c>
+      <c r="B1860" t="s">
+        <v>1868</v>
+      </c>
+      <c r="C1860">
+        <v>5</v>
+      </c>
+      <c r="E1860" t="str">
+        <f t="shared" si="28"/>
+        <v/>
+      </c>
+    </row>
+    <row r="1861" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1861" s="1">
+        <v>41542</v>
+      </c>
+      <c r="B1861" t="s">
+        <v>1869</v>
+      </c>
+      <c r="C1861">
+        <v>7</v>
+      </c>
+      <c r="E1861" t="str">
+        <f t="shared" ref="E1861:E1924" si="29">IF(COUNTIF(B:B, B1861)&gt;1,"Duplicate","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="1862" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1862" s="1">
+        <v>41544</v>
+      </c>
+      <c r="B1862" t="s">
+        <v>1870</v>
+      </c>
+      <c r="C1862">
+        <v>5</v>
+      </c>
+      <c r="E1862" t="str">
+        <f t="shared" si="29"/>
+        <v/>
+      </c>
+    </row>
+    <row r="1863" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1863" s="1">
+        <v>41547</v>
+      </c>
+      <c r="B1863" t="s">
+        <v>1871</v>
+      </c>
+      <c r="C1863">
+        <v>4</v>
+      </c>
+      <c r="E1863" t="str">
+        <f t="shared" si="29"/>
+        <v/>
+      </c>
+    </row>
+    <row r="1864" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1864" s="1">
+        <v>41550</v>
+      </c>
+      <c r="B1864" t="s">
+        <v>1872</v>
+      </c>
+      <c r="C1864">
+        <v>4</v>
+      </c>
+      <c r="E1864" t="str">
+        <f t="shared" si="29"/>
+        <v/>
+      </c>
+    </row>
+    <row r="1865" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1865" s="1">
+        <v>41551</v>
+      </c>
+      <c r="B1865" t="s">
+        <v>1873</v>
+      </c>
+      <c r="C1865">
+        <v>4</v>
+      </c>
+      <c r="E1865" t="str">
+        <f t="shared" si="29"/>
+        <v/>
+      </c>
+    </row>
+    <row r="1866" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1866" s="1">
+        <v>41557</v>
+      </c>
+      <c r="B1866" t="s">
+        <v>1874</v>
+      </c>
+      <c r="C1866">
+        <v>5</v>
+      </c>
+      <c r="E1866" t="str">
+        <f t="shared" si="29"/>
+        <v/>
+      </c>
+    </row>
+    <row r="1867" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1867" s="1">
+        <v>41561</v>
+      </c>
+      <c r="B1867" t="s">
+        <v>1875</v>
+      </c>
+      <c r="C1867">
+        <v>5</v>
+      </c>
+      <c r="E1867" t="str">
+        <f t="shared" si="29"/>
+        <v/>
+      </c>
+    </row>
+    <row r="1868" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1868" s="1">
+        <v>41561</v>
+      </c>
+      <c r="B1868" t="s">
+        <v>1876</v>
+      </c>
+      <c r="C1868">
+        <v>5</v>
+      </c>
+      <c r="E1868" t="str">
+        <f t="shared" si="29"/>
+        <v/>
+      </c>
+    </row>
+    <row r="1869" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1869" s="1">
+        <v>41561</v>
+      </c>
+      <c r="B1869" t="s">
+        <v>1877</v>
+      </c>
+      <c r="C1869">
+        <v>4</v>
+      </c>
+      <c r="E1869" t="str">
+        <f t="shared" si="29"/>
+        <v/>
+      </c>
+    </row>
+    <row r="1870" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1870" s="1">
+        <v>41561</v>
+      </c>
+      <c r="B1870" t="s">
+        <v>1878</v>
+      </c>
+      <c r="C1870">
+        <v>6</v>
+      </c>
+      <c r="E1870" t="str">
+        <f t="shared" si="29"/>
+        <v/>
+      </c>
+    </row>
+    <row r="1871" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1871" s="1">
+        <v>41561</v>
+      </c>
+      <c r="B1871" t="s">
+        <v>1879</v>
+      </c>
+      <c r="C1871">
+        <v>6</v>
+      </c>
+      <c r="E1871" t="str">
+        <f t="shared" si="29"/>
+        <v/>
+      </c>
+    </row>
+    <row r="1872" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1872" s="1">
+        <v>41562</v>
+      </c>
+      <c r="B1872" t="s">
+        <v>1880</v>
+      </c>
+      <c r="C1872">
+        <v>6</v>
+      </c>
+      <c r="E1872" t="str">
+        <f t="shared" si="29"/>
+        <v/>
+      </c>
+    </row>
+    <row r="1873" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1873" s="1">
+        <v>41563</v>
+      </c>
+      <c r="B1873" t="s">
+        <v>1881</v>
+      </c>
+      <c r="C1873">
+        <v>6</v>
+      </c>
+      <c r="E1873" t="str">
+        <f t="shared" si="29"/>
+        <v/>
+      </c>
+    </row>
+    <row r="1874" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1874" s="1">
+        <v>41566</v>
+      </c>
+      <c r="B1874" t="s">
+        <v>1882</v>
+      </c>
+      <c r="C1874">
+        <v>5</v>
+      </c>
+      <c r="E1874" t="str">
+        <f t="shared" si="29"/>
+        <v/>
+      </c>
+    </row>
+    <row r="1875" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1875" s="1">
+        <v>41566</v>
+      </c>
+      <c r="B1875" t="s">
+        <v>1883</v>
+      </c>
+      <c r="C1875">
+        <v>5</v>
+      </c>
+      <c r="E1875" t="str">
+        <f t="shared" si="29"/>
+        <v/>
+      </c>
+    </row>
+    <row r="1876" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1876" s="1">
+        <v>41577</v>
+      </c>
+      <c r="B1876" t="s">
+        <v>1884</v>
+      </c>
+      <c r="C1876">
+        <v>3</v>
+      </c>
+      <c r="E1876" t="str">
+        <f t="shared" si="29"/>
+        <v/>
+      </c>
+    </row>
+    <row r="1877" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1877" s="1">
+        <v>41579</v>
+      </c>
+      <c r="B1877" t="s">
+        <v>1885</v>
+      </c>
+      <c r="C1877">
+        <v>5</v>
+      </c>
+      <c r="E1877" t="str">
+        <f t="shared" si="29"/>
+        <v/>
+      </c>
+    </row>
+    <row r="1878" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1878" s="1">
+        <v>41579</v>
+      </c>
+      <c r="B1878" t="s">
+        <v>1886</v>
+      </c>
+      <c r="C1878">
+        <v>6</v>
+      </c>
+      <c r="E1878" t="str">
+        <f t="shared" si="29"/>
+        <v/>
+      </c>
+    </row>
+    <row r="1879" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1879" s="1">
+        <v>41579</v>
+      </c>
+      <c r="B1879" t="s">
+        <v>1887</v>
+      </c>
+      <c r="C1879">
+        <v>9</v>
+      </c>
+      <c r="E1879" t="str">
+        <f t="shared" si="29"/>
+        <v/>
+      </c>
+    </row>
+    <row r="1880" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1880" s="1">
+        <v>41579</v>
+      </c>
+      <c r="B1880" t="s">
+        <v>1888</v>
+      </c>
+      <c r="C1880">
+        <v>8</v>
+      </c>
+      <c r="E1880" t="str">
+        <f t="shared" si="29"/>
+        <v/>
+      </c>
+    </row>
+    <row r="1881" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1881" s="1">
+        <v>41581</v>
+      </c>
+      <c r="B1881" t="s">
+        <v>1889</v>
+      </c>
+      <c r="C1881">
+        <v>7</v>
+      </c>
+      <c r="E1881" t="str">
+        <f t="shared" si="29"/>
+        <v/>
+      </c>
+    </row>
+    <row r="1882" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1882" s="1">
+        <v>41581</v>
+      </c>
+      <c r="B1882" t="s">
+        <v>1890</v>
+      </c>
+      <c r="C1882">
+        <v>6</v>
+      </c>
+      <c r="E1882" t="str">
+        <f t="shared" si="29"/>
+        <v/>
+      </c>
+    </row>
+    <row r="1883" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1883" s="1">
+        <v>41583</v>
+      </c>
+      <c r="B1883" t="s">
+        <v>1891</v>
+      </c>
+      <c r="C1883">
+        <v>5</v>
+      </c>
+      <c r="E1883" t="str">
+        <f t="shared" si="29"/>
+        <v/>
+      </c>
+    </row>
+    <row r="1884" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1884" s="1">
+        <v>41583</v>
+      </c>
+      <c r="B1884" t="s">
+        <v>1892</v>
+      </c>
+      <c r="C1884">
+        <v>4</v>
+      </c>
+      <c r="E1884" t="str">
+        <f t="shared" si="29"/>
+        <v/>
+      </c>
+    </row>
+    <row r="1885" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1885" s="1">
+        <v>41583</v>
+      </c>
+      <c r="B1885" t="s">
+        <v>1893</v>
+      </c>
+      <c r="C1885">
+        <v>5</v>
+      </c>
+      <c r="E1885" t="str">
+        <f t="shared" si="29"/>
+        <v/>
+      </c>
+    </row>
+    <row r="1886" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1886" s="1">
+        <v>41583</v>
+      </c>
+      <c r="B1886" t="s">
+        <v>1894</v>
+      </c>
+      <c r="C1886">
+        <v>6</v>
+      </c>
+      <c r="E1886" t="str">
+        <f t="shared" si="29"/>
+        <v/>
+      </c>
+    </row>
+    <row r="1887" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1887" s="1">
+        <v>41583</v>
+      </c>
+      <c r="B1887" t="s">
+        <v>1895</v>
+      </c>
+      <c r="C1887">
+        <v>5</v>
+      </c>
+      <c r="E1887" t="str">
+        <f t="shared" si="29"/>
+        <v/>
+      </c>
+    </row>
+    <row r="1888" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1888" s="1">
+        <v>41583</v>
+      </c>
+      <c r="B1888" t="s">
+        <v>1896</v>
+      </c>
+      <c r="C1888">
+        <v>5</v>
+      </c>
+      <c r="E1888" t="str">
+        <f t="shared" si="29"/>
+        <v/>
+      </c>
+    </row>
+    <row r="1889" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1889" s="1">
+        <v>41583</v>
+      </c>
+      <c r="B1889" t="s">
+        <v>1897</v>
+      </c>
+      <c r="C1889">
+        <v>6</v>
+      </c>
+      <c r="E1889" t="str">
+        <f t="shared" si="29"/>
+        <v/>
+      </c>
+    </row>
+    <row r="1890" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1890" s="1">
+        <v>41583</v>
+      </c>
+      <c r="B1890" t="s">
+        <v>1898</v>
+      </c>
+      <c r="C1890">
+        <v>8</v>
+      </c>
+      <c r="E1890" t="str">
+        <f t="shared" si="29"/>
+        <v/>
+      </c>
+    </row>
+    <row r="1891" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1891" s="1">
+        <v>41583</v>
+      </c>
+      <c r="B1891" t="s">
+        <v>1899</v>
+      </c>
+      <c r="C1891">
+        <v>7</v>
+      </c>
+      <c r="E1891" t="str">
+        <f t="shared" si="29"/>
+        <v/>
+      </c>
+    </row>
+    <row r="1892" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1892" s="1">
+        <v>41583</v>
+      </c>
+      <c r="B1892" t="s">
+        <v>1900</v>
+      </c>
+      <c r="C1892">
+        <v>7</v>
+      </c>
+      <c r="E1892" t="str">
+        <f t="shared" si="29"/>
+        <v/>
+      </c>
+    </row>
+    <row r="1893" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1893" s="1">
+        <v>41583</v>
+      </c>
+      <c r="B1893" t="s">
+        <v>1901</v>
+      </c>
+      <c r="C1893">
+        <v>7</v>
+      </c>
+      <c r="E1893" t="str">
+        <f t="shared" si="29"/>
+        <v/>
+      </c>
+    </row>
+    <row r="1894" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1894" s="1">
+        <v>41583</v>
+      </c>
+      <c r="B1894" t="s">
+        <v>1902</v>
+      </c>
+      <c r="C1894">
+        <v>3</v>
+      </c>
+      <c r="E1894" t="str">
+        <f t="shared" si="29"/>
+        <v/>
+      </c>
+    </row>
+    <row r="1895" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1895" s="1">
+        <v>41583</v>
+      </c>
+      <c r="B1895" t="s">
+        <v>1903</v>
+      </c>
+      <c r="C1895">
+        <v>3</v>
+      </c>
+      <c r="E1895" t="str">
+        <f t="shared" si="29"/>
+        <v/>
+      </c>
+    </row>
+    <row r="1896" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1896" s="1">
+        <v>41583</v>
+      </c>
+      <c r="B1896" t="s">
+        <v>1904</v>
+      </c>
+      <c r="C1896">
+        <v>5</v>
+      </c>
+      <c r="E1896" t="str">
+        <f t="shared" si="29"/>
+        <v/>
+      </c>
+    </row>
+    <row r="1897" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1897" s="1">
+        <v>41583</v>
+      </c>
+      <c r="B1897" t="s">
+        <v>1905</v>
+      </c>
+      <c r="C1897">
+        <v>4</v>
+      </c>
+      <c r="E1897" t="str">
+        <f t="shared" si="29"/>
+        <v/>
+      </c>
+    </row>
+    <row r="1898" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1898" s="1">
+        <v>41583</v>
+      </c>
+      <c r="B1898" t="s">
+        <v>1906</v>
+      </c>
+      <c r="C1898">
+        <v>6</v>
+      </c>
+      <c r="E1898" t="str">
+        <f t="shared" si="29"/>
+        <v/>
+      </c>
+    </row>
+    <row r="1899" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1899" s="1">
+        <v>41583</v>
+      </c>
+      <c r="B1899" t="s">
+        <v>1907</v>
+      </c>
+      <c r="C1899">
+        <v>5</v>
+      </c>
+      <c r="E1899" t="str">
+        <f t="shared" si="29"/>
+        <v/>
+      </c>
+    </row>
+    <row r="1900" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1900" s="1">
+        <v>41583</v>
+      </c>
+      <c r="B1900" t="s">
+        <v>1908</v>
+      </c>
+      <c r="C1900">
+        <v>6</v>
+      </c>
+      <c r="E1900" t="str">
+        <f t="shared" si="29"/>
+        <v/>
+      </c>
+    </row>
+    <row r="1901" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1901" s="1">
+        <v>41583</v>
+      </c>
+      <c r="B1901" t="s">
+        <v>1909</v>
+      </c>
+      <c r="C1901">
+        <v>7</v>
+      </c>
+      <c r="E1901" t="str">
+        <f t="shared" si="29"/>
+        <v/>
+      </c>
+    </row>
+    <row r="1902" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1902" s="1">
+        <v>41583</v>
+      </c>
+      <c r="B1902" t="s">
+        <v>1910</v>
+      </c>
+      <c r="C1902">
+        <v>7</v>
+      </c>
+      <c r="E1902" t="str">
+        <f t="shared" si="29"/>
+        <v/>
+      </c>
+    </row>
+    <row r="1903" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1903" s="1">
+        <v>41583</v>
+      </c>
+      <c r="B1903" t="s">
+        <v>1911</v>
+      </c>
+      <c r="C1903">
+        <v>2</v>
+      </c>
+      <c r="E1903" t="str">
+        <f t="shared" si="29"/>
+        <v/>
+      </c>
+    </row>
+    <row r="1904" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1904" s="1">
+        <v>41583</v>
+      </c>
+      <c r="B1904" t="s">
+        <v>1912</v>
+      </c>
+      <c r="C1904">
+        <v>5</v>
+      </c>
+      <c r="E1904" t="str">
+        <f t="shared" si="29"/>
+        <v/>
+      </c>
+    </row>
+    <row r="1905" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1905" s="1">
+        <v>41584</v>
+      </c>
+      <c r="B1905" t="s">
+        <v>1913</v>
+      </c>
+      <c r="C1905">
+        <v>5</v>
+      </c>
+      <c r="E1905" t="str">
+        <f t="shared" si="29"/>
+        <v/>
+      </c>
+    </row>
+    <row r="1906" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1906" s="1">
+        <v>41584</v>
+      </c>
+      <c r="B1906" t="s">
+        <v>1914</v>
+      </c>
+      <c r="C1906">
+        <v>6</v>
+      </c>
+      <c r="E1906" t="str">
+        <f t="shared" si="29"/>
+        <v/>
+      </c>
+    </row>
+    <row r="1907" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1907" s="1">
+        <v>41584</v>
+      </c>
+      <c r="B1907" t="s">
+        <v>1915</v>
+      </c>
+      <c r="C1907">
+        <v>7</v>
+      </c>
+      <c r="E1907" t="str">
+        <f t="shared" si="29"/>
+        <v/>
+      </c>
+    </row>
+    <row r="1908" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1908" s="1">
+        <v>41584</v>
+      </c>
+      <c r="B1908" t="s">
+        <v>1916</v>
+      </c>
+      <c r="C1908">
+        <v>4</v>
+      </c>
+      <c r="E1908" t="str">
+        <f t="shared" si="29"/>
+        <v/>
+      </c>
+    </row>
+    <row r="1909" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1909" s="1">
+        <v>41584</v>
+      </c>
+      <c r="B1909" t="s">
+        <v>1917</v>
+      </c>
+      <c r="C1909">
+        <v>4</v>
+      </c>
+      <c r="E1909" t="str">
+        <f t="shared" si="29"/>
+        <v/>
+      </c>
+    </row>
+    <row r="1910" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1910" s="1">
+        <v>41584</v>
+      </c>
+      <c r="B1910" t="s">
+        <v>1918</v>
+      </c>
+      <c r="C1910">
+        <v>6</v>
+      </c>
+      <c r="E1910" t="str">
+        <f t="shared" si="29"/>
+        <v/>
+      </c>
+    </row>
+    <row r="1911" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1911" s="1">
+        <v>41584</v>
+      </c>
+      <c r="B1911" t="s">
+        <v>1919</v>
+      </c>
+      <c r="C1911">
+        <v>3</v>
+      </c>
+      <c r="E1911" t="str">
+        <f t="shared" si="29"/>
+        <v/>
+      </c>
+    </row>
+    <row r="1912" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1912" s="1">
+        <v>41584</v>
+      </c>
+      <c r="B1912" t="s">
+        <v>1920</v>
+      </c>
+      <c r="C1912">
+        <v>5</v>
+      </c>
+      <c r="E1912" t="str">
+        <f t="shared" si="29"/>
+        <v/>
+      </c>
+    </row>
+    <row r="1913" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1913" s="1">
+        <v>41584</v>
+      </c>
+      <c r="B1913" t="s">
+        <v>1921</v>
+      </c>
+      <c r="C1913">
+        <v>6</v>
+      </c>
+      <c r="E1913" t="str">
+        <f t="shared" si="29"/>
+        <v/>
+      </c>
+    </row>
+    <row r="1914" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1914" s="1">
+        <v>41587</v>
+      </c>
+      <c r="B1914" t="s">
+        <v>1922</v>
+      </c>
+      <c r="C1914">
+        <v>7</v>
+      </c>
+      <c r="E1914" t="str">
+        <f t="shared" si="29"/>
+        <v/>
+      </c>
+    </row>
+    <row r="1915" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1915" s="1">
+        <v>41587</v>
+      </c>
+      <c r="B1915" t="s">
+        <v>1923</v>
+      </c>
+      <c r="C1915">
+        <v>3</v>
+      </c>
+      <c r="E1915" t="str">
+        <f t="shared" si="29"/>
+        <v/>
+      </c>
+    </row>
+    <row r="1916" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1916" s="1">
+        <v>41587</v>
+      </c>
+      <c r="B1916" t="s">
+        <v>1924</v>
+      </c>
+      <c r="C1916">
+        <v>4</v>
+      </c>
+      <c r="E1916" t="str">
+        <f t="shared" si="29"/>
+        <v/>
+      </c>
+    </row>
+    <row r="1917" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1917" s="1">
+        <v>41587</v>
+      </c>
+      <c r="B1917" t="s">
+        <v>1925</v>
+      </c>
+      <c r="C1917">
+        <v>6</v>
+      </c>
+      <c r="E1917" t="str">
+        <f t="shared" si="29"/>
+        <v/>
+      </c>
+    </row>
+    <row r="1918" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1918" s="1">
+        <v>41587</v>
+      </c>
+      <c r="B1918" t="s">
+        <v>1926</v>
+      </c>
+      <c r="C1918">
+        <v>5</v>
+      </c>
+      <c r="E1918" t="str">
+        <f t="shared" si="29"/>
+        <v/>
+      </c>
+    </row>
+    <row r="1919" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1919" s="1">
+        <v>41587</v>
+      </c>
+      <c r="B1919" t="s">
+        <v>1927</v>
+      </c>
+      <c r="C1919">
+        <v>5</v>
+      </c>
+      <c r="E1919" t="str">
+        <f t="shared" si="29"/>
+        <v/>
+      </c>
+    </row>
+    <row r="1920" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1920" s="1">
+        <v>41587</v>
+      </c>
+      <c r="B1920" t="s">
+        <v>1928</v>
+      </c>
+      <c r="C1920">
+        <v>7</v>
+      </c>
+      <c r="E1920" t="str">
+        <f t="shared" si="29"/>
+        <v/>
+      </c>
+    </row>
+    <row r="1921" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1921" s="1">
+        <v>41557</v>
+      </c>
+      <c r="B1921" t="s">
+        <v>1929</v>
+      </c>
+      <c r="C1921">
+        <v>6</v>
+      </c>
+      <c r="E1921" t="str">
+        <f t="shared" si="29"/>
+        <v/>
+      </c>
+    </row>
+    <row r="1922" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1922" s="1">
+        <v>41562</v>
+      </c>
+      <c r="B1922" t="s">
+        <v>1930</v>
+      </c>
+      <c r="C1922">
+        <v>7</v>
+      </c>
+      <c r="E1922" t="str">
+        <f t="shared" si="29"/>
+        <v/>
+      </c>
+    </row>
+    <row r="1923" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1923" s="1">
+        <v>41562</v>
+      </c>
+      <c r="B1923" t="s">
+        <v>1931</v>
+      </c>
+      <c r="C1923">
+        <v>6</v>
+      </c>
+      <c r="E1923" t="str">
+        <f t="shared" si="29"/>
+        <v/>
+      </c>
+    </row>
+    <row r="1924" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1924" s="1">
+        <v>41562</v>
+      </c>
+      <c r="B1924" t="s">
+        <v>1932</v>
+      </c>
+      <c r="C1924">
+        <v>8</v>
+      </c>
+      <c r="E1924" t="str">
+        <f t="shared" si="29"/>
+        <v/>
+      </c>
+    </row>
+    <row r="1925" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1925" s="1">
+        <v>41562</v>
+      </c>
+      <c r="B1925" t="s">
+        <v>1933</v>
+      </c>
+      <c r="C1925">
+        <v>7</v>
+      </c>
+      <c r="E1925" t="str">
+        <f t="shared" ref="E1925:E1988" si="30">IF(COUNTIF(B:B, B1925)&gt;1,"Duplicate","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="1926" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1926" s="1">
+        <v>41563</v>
+      </c>
+      <c r="B1926" t="s">
+        <v>1934</v>
+      </c>
+      <c r="C1926">
+        <v>7</v>
+      </c>
+      <c r="E1926" t="str">
+        <f t="shared" si="30"/>
+        <v/>
+      </c>
+    </row>
+    <row r="1927" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1927" s="1">
+        <v>41563</v>
+      </c>
+      <c r="B1927" t="s">
+        <v>1935</v>
+      </c>
+      <c r="C1927">
+        <v>5</v>
+      </c>
+      <c r="E1927" t="str">
+        <f t="shared" si="30"/>
+        <v/>
+      </c>
+    </row>
+    <row r="1928" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1928" s="1">
+        <v>41563</v>
+      </c>
+      <c r="B1928" t="s">
+        <v>1936</v>
+      </c>
+      <c r="C1928">
+        <v>3</v>
+      </c>
+      <c r="E1928" t="str">
+        <f t="shared" si="30"/>
+        <v/>
+      </c>
+    </row>
+    <row r="1929" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1929" s="1">
+        <v>41563</v>
+      </c>
+      <c r="B1929" t="s">
+        <v>1937</v>
+      </c>
+      <c r="C1929">
+        <v>5</v>
+      </c>
+      <c r="E1929" t="str">
+        <f t="shared" si="30"/>
+        <v/>
+      </c>
+    </row>
+    <row r="1930" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1930" s="1">
+        <v>41563</v>
+      </c>
+      <c r="B1930" t="s">
+        <v>1938</v>
+      </c>
+      <c r="C1930">
+        <v>5</v>
+      </c>
+      <c r="E1930" t="str">
+        <f t="shared" si="30"/>
+        <v/>
+      </c>
+    </row>
+    <row r="1931" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1931" s="1">
+        <v>41563</v>
+      </c>
+      <c r="B1931" t="s">
+        <v>1939</v>
+      </c>
+      <c r="C1931">
+        <v>4</v>
+      </c>
+      <c r="E1931" t="str">
+        <f t="shared" si="30"/>
+        <v/>
+      </c>
+    </row>
+    <row r="1932" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1932" s="1">
+        <v>41600</v>
+      </c>
+      <c r="B1932" t="s">
+        <v>1940</v>
+      </c>
+      <c r="C1932">
+        <v>7</v>
+      </c>
+      <c r="E1932" t="str">
+        <f t="shared" si="30"/>
+        <v/>
+      </c>
+    </row>
+    <row r="1933" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1933" s="1">
+        <v>41600</v>
+      </c>
+      <c r="B1933" t="s">
+        <v>1941</v>
+      </c>
+      <c r="C1933">
+        <v>8</v>
+      </c>
+      <c r="E1933" t="str">
+        <f t="shared" si="30"/>
+        <v/>
+      </c>
+    </row>
+    <row r="1934" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1934" s="1">
+        <v>41600</v>
+      </c>
+      <c r="B1934" t="s">
+        <v>1942</v>
+      </c>
+      <c r="C1934">
+        <v>10</v>
+      </c>
+      <c r="E1934" t="str">
+        <f t="shared" si="30"/>
+        <v/>
+      </c>
+    </row>
+    <row r="1935" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1935" s="1">
+        <v>41600</v>
+      </c>
+      <c r="B1935" t="s">
+        <v>1943</v>
+      </c>
+      <c r="C1935">
+        <v>3</v>
+      </c>
+      <c r="E1935" t="str">
+        <f t="shared" si="30"/>
+        <v/>
+      </c>
+    </row>
+    <row r="1936" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1936" s="1">
+        <v>41600</v>
+      </c>
+      <c r="B1936" t="s">
+        <v>1944</v>
+      </c>
+      <c r="C1936">
+        <v>10</v>
+      </c>
+      <c r="E1936" t="str">
+        <f t="shared" si="30"/>
+        <v/>
+      </c>
+    </row>
+    <row r="1937" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1937" s="1">
+        <v>41600</v>
+      </c>
+      <c r="B1937" t="s">
+        <v>1945</v>
+      </c>
+      <c r="C1937">
+        <v>5</v>
+      </c>
+      <c r="E1937" t="str">
+        <f t="shared" si="30"/>
+        <v/>
+      </c>
+    </row>
+    <row r="1938" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1938" s="1">
+        <v>41615</v>
+      </c>
+      <c r="B1938" t="s">
+        <v>1946</v>
+      </c>
+      <c r="C1938">
+        <v>6</v>
+      </c>
+      <c r="E1938" t="str">
+        <f t="shared" si="30"/>
+        <v/>
+      </c>
+    </row>
+    <row r="1939" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1939" s="1">
+        <v>41617</v>
+      </c>
+      <c r="B1939" t="s">
+        <v>1947</v>
+      </c>
+      <c r="C1939">
+        <v>3</v>
+      </c>
+      <c r="E1939" t="str">
+        <f t="shared" si="30"/>
+        <v/>
+      </c>
+    </row>
+    <row r="1940" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1940" s="1">
+        <v>41622</v>
+      </c>
+      <c r="B1940" t="s">
+        <v>1948</v>
+      </c>
+      <c r="C1940">
+        <v>5</v>
+      </c>
+      <c r="E1940" t="str">
+        <f t="shared" si="30"/>
+        <v/>
+      </c>
+    </row>
+    <row r="1941" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1941" s="1">
+        <v>41622</v>
+      </c>
+      <c r="B1941" t="s">
+        <v>1949</v>
+      </c>
+      <c r="C1941">
+        <v>5</v>
+      </c>
+      <c r="E1941" t="str">
+        <f t="shared" si="30"/>
+        <v/>
+      </c>
+    </row>
+    <row r="1942" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1942" s="1">
+        <v>41629</v>
+      </c>
+      <c r="B1942" t="s">
+        <v>1950</v>
+      </c>
+      <c r="C1942">
+        <v>7</v>
+      </c>
+      <c r="E1942" t="str">
+        <f t="shared" si="30"/>
+        <v/>
+      </c>
+    </row>
+    <row r="1943" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1943" s="1">
+        <v>41629</v>
+      </c>
+      <c r="B1943" t="s">
+        <v>1951</v>
+      </c>
+      <c r="C1943">
+        <v>4</v>
+      </c>
+      <c r="E1943" t="str">
+        <f t="shared" si="30"/>
+        <v/>
+      </c>
+    </row>
+    <row r="1944" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1944" s="1">
+        <v>41629</v>
+      </c>
+      <c r="B1944" t="s">
+        <v>1952</v>
+      </c>
+      <c r="C1944">
+        <v>8</v>
+      </c>
+      <c r="E1944" t="str">
+        <f t="shared" si="30"/>
+        <v/>
+      </c>
+    </row>
+    <row r="1945" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1945" s="1">
+        <v>41629</v>
+      </c>
+      <c r="B1945" t="s">
+        <v>1953</v>
+      </c>
+      <c r="C1945">
+        <v>7</v>
+      </c>
+      <c r="E1945" t="str">
+        <f t="shared" si="30"/>
+        <v/>
+      </c>
+    </row>
+    <row r="1946" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1946" s="1">
+        <v>41629</v>
+      </c>
+      <c r="B1946" t="s">
+        <v>1954</v>
+      </c>
+      <c r="C1946">
+        <v>7</v>
+      </c>
+      <c r="E1946" t="str">
+        <f t="shared" si="30"/>
+        <v/>
+      </c>
+    </row>
+    <row r="1947" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1947" s="1">
+        <v>41629</v>
+      </c>
+      <c r="B1947" t="s">
+        <v>1955</v>
+      </c>
+      <c r="C1947">
+        <v>6</v>
+      </c>
+      <c r="E1947" t="str">
+        <f t="shared" si="30"/>
+        <v/>
+      </c>
+    </row>
+    <row r="1948" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1948" s="1">
+        <v>41634</v>
+      </c>
+      <c r="B1948" t="s">
+        <v>1956</v>
+      </c>
+      <c r="C1948">
+        <v>8</v>
+      </c>
+      <c r="E1948" t="str">
+        <f t="shared" si="30"/>
+        <v/>
+      </c>
+    </row>
+    <row r="1949" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1949" s="1">
+        <v>41634</v>
+      </c>
+      <c r="B1949" t="s">
+        <v>1957</v>
+      </c>
+      <c r="C1949">
+        <v>6</v>
+      </c>
+      <c r="E1949" t="str">
+        <f t="shared" si="30"/>
+        <v/>
+      </c>
+    </row>
+    <row r="1950" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1950" s="1">
+        <v>41634</v>
+      </c>
+      <c r="B1950" t="s">
+        <v>1958</v>
+      </c>
+      <c r="C1950">
+        <v>3</v>
+      </c>
+      <c r="E1950" t="str">
+        <f t="shared" si="30"/>
+        <v/>
+      </c>
+    </row>
+    <row r="1951" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1951" s="1">
+        <v>41634</v>
+      </c>
+      <c r="B1951" t="s">
+        <v>1959</v>
+      </c>
+      <c r="C1951">
+        <v>6</v>
+      </c>
+      <c r="E1951" t="str">
+        <f t="shared" si="30"/>
+        <v/>
+      </c>
+    </row>
+    <row r="1952" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1952" s="1">
+        <v>41634</v>
+      </c>
+      <c r="B1952" t="s">
+        <v>1960</v>
+      </c>
+      <c r="C1952">
+        <v>5</v>
+      </c>
+      <c r="E1952" t="str">
+        <f t="shared" si="30"/>
+        <v/>
+      </c>
+    </row>
+    <row r="1953" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1953" s="1">
+        <v>41634</v>
+      </c>
+      <c r="B1953" t="s">
+        <v>1961</v>
+      </c>
+      <c r="C1953">
+        <v>3</v>
+      </c>
+      <c r="E1953" t="str">
+        <f t="shared" si="30"/>
+        <v/>
+      </c>
+    </row>
+    <row r="1954" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1954" s="1">
+        <v>41636</v>
+      </c>
+      <c r="B1954" t="s">
+        <v>1962</v>
+      </c>
+      <c r="C1954">
+        <v>6</v>
+      </c>
+      <c r="E1954" t="str">
+        <f t="shared" si="30"/>
+        <v/>
+      </c>
+    </row>
+    <row r="1955" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1955" s="1">
+        <v>41636</v>
+      </c>
+      <c r="B1955" t="s">
+        <v>1963</v>
+      </c>
+      <c r="C1955">
+        <v>7</v>
+      </c>
+      <c r="E1955" t="str">
+        <f t="shared" si="30"/>
+        <v/>
+      </c>
+    </row>
+    <row r="1956" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1956" s="1">
+        <v>41636</v>
+      </c>
+      <c r="B1956" t="s">
+        <v>1964</v>
+      </c>
+      <c r="C1956">
+        <v>7</v>
+      </c>
+      <c r="E1956" t="str">
+        <f t="shared" si="30"/>
+        <v/>
+      </c>
+    </row>
+    <row r="1957" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1957" s="1">
+        <v>41636</v>
+      </c>
+      <c r="B1957" t="s">
+        <v>1965</v>
+      </c>
+      <c r="C1957">
+        <v>7</v>
+      </c>
+      <c r="E1957" t="str">
+        <f t="shared" si="30"/>
+        <v/>
+      </c>
+    </row>
+    <row r="1958" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1958" s="1">
+        <v>41636</v>
+      </c>
+      <c r="B1958" t="s">
+        <v>1966</v>
+      </c>
+      <c r="C1958">
+        <v>4</v>
+      </c>
+      <c r="E1958" t="str">
+        <f t="shared" si="30"/>
+        <v/>
+      </c>
+    </row>
+    <row r="1959" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1959" s="1">
+        <v>41636</v>
+      </c>
+      <c r="B1959" t="s">
+        <v>1967</v>
+      </c>
+      <c r="C1959">
+        <v>8</v>
+      </c>
+      <c r="E1959" t="str">
+        <f t="shared" si="30"/>
+        <v/>
+      </c>
+    </row>
+    <row r="1960" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1960" s="1">
+        <v>41649</v>
+      </c>
+      <c r="B1960" t="s">
+        <v>1968</v>
+      </c>
+      <c r="C1960">
+        <v>5</v>
+      </c>
+      <c r="E1960" t="str">
+        <f t="shared" si="30"/>
+        <v/>
+      </c>
+    </row>
+    <row r="1961" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1961" s="1">
+        <v>41649</v>
+      </c>
+      <c r="B1961" t="s">
+        <v>1969</v>
+      </c>
+      <c r="C1961">
+        <v>8</v>
+      </c>
+      <c r="E1961" t="str">
+        <f t="shared" si="30"/>
+        <v/>
+      </c>
+    </row>
+    <row r="1962" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1962" s="1">
+        <v>41651</v>
+      </c>
+      <c r="B1962" t="s">
+        <v>1970</v>
+      </c>
+      <c r="C1962">
+        <v>5</v>
+      </c>
+      <c r="E1962" t="str">
+        <f t="shared" si="30"/>
+        <v/>
+      </c>
+    </row>
+    <row r="1963" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1963" s="1">
+        <v>41656</v>
+      </c>
+      <c r="B1963" t="s">
+        <v>1971</v>
+      </c>
+      <c r="C1963">
+        <v>6</v>
+      </c>
+      <c r="E1963" t="str">
+        <f t="shared" si="30"/>
+        <v/>
+      </c>
+    </row>
+    <row r="1964" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1964" s="1">
+        <v>41656</v>
+      </c>
+      <c r="B1964" t="s">
+        <v>1972</v>
+      </c>
+      <c r="C1964">
+        <v>3</v>
+      </c>
+      <c r="E1964" t="str">
+        <f t="shared" si="30"/>
+        <v/>
+      </c>
+    </row>
+    <row r="1965" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1965" s="1">
+        <v>41656</v>
+      </c>
+      <c r="B1965" t="s">
+        <v>1973</v>
+      </c>
+      <c r="C1965">
+        <v>6</v>
+      </c>
+      <c r="E1965" t="str">
+        <f t="shared" si="30"/>
+        <v/>
+      </c>
+    </row>
+    <row r="1966" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1966" s="1">
+        <v>41656</v>
+      </c>
+      <c r="B1966" t="s">
+        <v>1974</v>
+      </c>
+      <c r="C1966">
+        <v>2</v>
+      </c>
+      <c r="E1966" t="str">
+        <f t="shared" si="30"/>
+        <v/>
+      </c>
+    </row>
+    <row r="1967" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1967" s="1">
+        <v>41657</v>
+      </c>
+      <c r="B1967" t="s">
+        <v>1975</v>
+      </c>
+      <c r="C1967">
+        <v>5</v>
+      </c>
+      <c r="E1967" t="str">
+        <f t="shared" si="30"/>
+        <v/>
+      </c>
+    </row>
+    <row r="1968" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1968" s="1">
+        <v>41657</v>
+      </c>
+      <c r="B1968" t="s">
+        <v>1976</v>
+      </c>
+      <c r="C1968">
+        <v>5</v>
+      </c>
+      <c r="E1968" t="str">
+        <f t="shared" si="30"/>
+        <v/>
+      </c>
+    </row>
+    <row r="1969" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1969" s="1">
+        <v>41657</v>
+      </c>
+      <c r="B1969" t="s">
+        <v>1977</v>
+      </c>
+      <c r="C1969">
+        <v>4</v>
+      </c>
+      <c r="E1969" t="str">
+        <f t="shared" si="30"/>
+        <v/>
+      </c>
+    </row>
+    <row r="1970" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1970" s="1">
+        <v>41657</v>
+      </c>
+      <c r="B1970" t="s">
+        <v>1978</v>
+      </c>
+      <c r="C1970">
+        <v>8</v>
+      </c>
+      <c r="E1970" t="str">
+        <f t="shared" si="30"/>
+        <v/>
+      </c>
+    </row>
+    <row r="1971" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1971" s="1">
+        <v>41657</v>
+      </c>
+      <c r="B1971" t="s">
+        <v>1979</v>
+      </c>
+      <c r="C1971">
+        <v>8</v>
+      </c>
+      <c r="E1971" t="str">
+        <f t="shared" si="30"/>
+        <v/>
+      </c>
+    </row>
+    <row r="1972" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1972" s="1">
+        <v>41657</v>
+      </c>
+      <c r="B1972" t="s">
+        <v>1980</v>
+      </c>
+      <c r="C1972">
+        <v>5</v>
+      </c>
+      <c r="E1972" t="str">
+        <f t="shared" si="30"/>
+        <v/>
+      </c>
+    </row>
+    <row r="1973" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1973" s="1">
+        <v>41657</v>
+      </c>
+      <c r="B1973" t="s">
+        <v>1981</v>
+      </c>
+      <c r="C1973">
+        <v>6</v>
+      </c>
+      <c r="E1973" t="str">
+        <f t="shared" si="30"/>
+        <v/>
+      </c>
+    </row>
+    <row r="1974" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1974" s="1">
+        <v>41657</v>
+      </c>
+      <c r="B1974" t="s">
+        <v>1982</v>
+      </c>
+      <c r="C1974">
+        <v>7</v>
+      </c>
+      <c r="E1974" t="str">
+        <f t="shared" si="30"/>
+        <v/>
+      </c>
+    </row>
+    <row r="1975" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1975" s="1">
+        <v>41660</v>
+      </c>
+      <c r="B1975" t="s">
+        <v>1983</v>
+      </c>
+      <c r="C1975">
+        <v>8</v>
+      </c>
+      <c r="E1975" t="str">
+        <f t="shared" si="30"/>
+        <v/>
+      </c>
+    </row>
+    <row r="1976" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1976" s="1">
+        <v>41663</v>
+      </c>
+      <c r="B1976" t="s">
+        <v>1984</v>
+      </c>
+      <c r="C1976">
+        <v>6</v>
+      </c>
+      <c r="E1976" t="str">
+        <f t="shared" si="30"/>
+        <v/>
+      </c>
+    </row>
+    <row r="1977" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1977" s="1">
+        <v>41663</v>
+      </c>
+      <c r="B1977" t="s">
+        <v>1985</v>
+      </c>
+      <c r="C1977">
+        <v>8</v>
+      </c>
+      <c r="E1977" t="str">
+        <f t="shared" si="30"/>
+        <v/>
+      </c>
+    </row>
+    <row r="1978" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1978" s="1">
+        <v>41663</v>
+      </c>
+      <c r="B1978" t="s">
+        <v>1986</v>
+      </c>
+      <c r="C1978">
+        <v>6</v>
+      </c>
+      <c r="E1978" t="str">
+        <f t="shared" si="30"/>
+        <v/>
+      </c>
+    </row>
+    <row r="1979" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1979" s="1">
+        <v>41664</v>
+      </c>
+      <c r="B1979" t="s">
+        <v>1987</v>
+      </c>
+      <c r="C1979">
+        <v>6</v>
+      </c>
+      <c r="E1979" t="str">
+        <f t="shared" si="30"/>
+        <v/>
+      </c>
+    </row>
+    <row r="1980" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1980" s="1">
+        <v>41666</v>
+      </c>
+      <c r="B1980" t="s">
+        <v>1988</v>
+      </c>
+      <c r="C1980">
+        <v>5</v>
+      </c>
+      <c r="E1980" t="str">
+        <f t="shared" si="30"/>
+        <v/>
+      </c>
+    </row>
+    <row r="1981" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1981" s="1">
+        <v>41666</v>
+      </c>
+      <c r="B1981" t="s">
+        <v>1989</v>
+      </c>
+      <c r="C1981">
+        <v>4</v>
+      </c>
+      <c r="E1981" t="str">
+        <f t="shared" si="30"/>
+        <v/>
+      </c>
+    </row>
+    <row r="1982" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1982" s="1">
+        <v>41666</v>
+      </c>
+      <c r="B1982" t="s">
+        <v>1990</v>
+      </c>
+      <c r="C1982">
+        <v>6</v>
+      </c>
+      <c r="E1982" t="str">
+        <f t="shared" si="30"/>
+        <v/>
+      </c>
+    </row>
+    <row r="1983" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1983" s="1">
+        <v>41671</v>
+      </c>
+      <c r="B1983" t="s">
+        <v>1991</v>
+      </c>
+      <c r="C1983">
+        <v>6</v>
+      </c>
+      <c r="E1983" t="str">
+        <f t="shared" si="30"/>
+        <v/>
+      </c>
+    </row>
+    <row r="1984" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1984" s="1">
+        <v>41671</v>
+      </c>
+      <c r="B1984" t="s">
+        <v>1992</v>
+      </c>
+      <c r="C1984">
+        <v>7</v>
+      </c>
+      <c r="E1984" t="str">
+        <f t="shared" si="30"/>
+        <v/>
+      </c>
+    </row>
+    <row r="1985" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1985" s="1">
+        <v>41671</v>
+      </c>
+      <c r="B1985" t="s">
+        <v>1993</v>
+      </c>
+      <c r="C1985">
+        <v>8</v>
+      </c>
+      <c r="E1985" t="str">
+        <f t="shared" si="30"/>
+        <v/>
+      </c>
+    </row>
+    <row r="1986" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1986" s="1">
+        <v>41671</v>
+      </c>
+      <c r="B1986" t="s">
+        <v>1994</v>
+      </c>
+      <c r="C1986">
+        <v>7</v>
+      </c>
+      <c r="E1986" t="str">
+        <f t="shared" si="30"/>
+        <v/>
+      </c>
+    </row>
+    <row r="1987" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1987" s="1">
+        <v>41671</v>
+      </c>
+      <c r="B1987" t="s">
+        <v>1995</v>
+      </c>
+      <c r="C1987">
+        <v>5</v>
+      </c>
+      <c r="E1987" t="str">
+        <f t="shared" si="30"/>
+        <v/>
+      </c>
+    </row>
+    <row r="1988" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1988" s="1">
+        <v>41671</v>
+      </c>
+      <c r="B1988" t="s">
+        <v>1996</v>
+      </c>
+      <c r="C1988">
+        <v>6</v>
+      </c>
+      <c r="E1988" t="str">
+        <f t="shared" si="30"/>
+        <v/>
+      </c>
+    </row>
+    <row r="1989" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1989" s="1">
+        <v>41671</v>
+      </c>
+      <c r="B1989" t="s">
+        <v>1997</v>
+      </c>
+      <c r="C1989">
+        <v>5</v>
+      </c>
+      <c r="E1989" t="str">
+        <f t="shared" ref="E1989:E2052" si="31">IF(COUNTIF(B:B, B1989)&gt;1,"Duplicate","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="1990" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1990" s="1">
+        <v>41672</v>
+      </c>
+      <c r="B1990" t="s">
+        <v>1998</v>
+      </c>
+      <c r="C1990">
+        <v>7</v>
+      </c>
+      <c r="E1990" t="str">
+        <f t="shared" si="31"/>
+        <v/>
+      </c>
+    </row>
+    <row r="1991" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1991" s="1">
+        <v>41674</v>
+      </c>
+      <c r="B1991" t="s">
+        <v>1999</v>
+      </c>
+      <c r="C1991">
+        <v>3</v>
+      </c>
+      <c r="E1991" t="str">
+        <f t="shared" si="31"/>
+        <v/>
+      </c>
+    </row>
+    <row r="1992" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1992" s="1">
+        <v>41674</v>
+      </c>
+      <c r="B1992" t="s">
+        <v>2000</v>
+      </c>
+      <c r="C1992">
+        <v>4</v>
+      </c>
+      <c r="E1992" t="str">
+        <f t="shared" si="31"/>
+        <v/>
+      </c>
+    </row>
+    <row r="1993" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1993" s="1">
+        <v>41674</v>
+      </c>
+      <c r="B1993" t="s">
+        <v>2001</v>
+      </c>
+      <c r="C1993">
+        <v>5</v>
+      </c>
+      <c r="E1993" t="str">
+        <f t="shared" si="31"/>
+        <v/>
+      </c>
+    </row>
+    <row r="1994" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1994" s="1">
+        <v>41674</v>
+      </c>
+      <c r="B1994" t="s">
+        <v>2002</v>
+      </c>
+      <c r="C1994">
+        <v>4</v>
+      </c>
+      <c r="E1994" t="str">
+        <f t="shared" si="31"/>
+        <v/>
+      </c>
+    </row>
+    <row r="1995" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1995" s="1">
+        <v>41674</v>
+      </c>
+      <c r="B1995" t="s">
+        <v>2003</v>
+      </c>
+      <c r="C1995">
+        <v>5</v>
+      </c>
+      <c r="E1995" t="str">
+        <f t="shared" si="31"/>
+        <v/>
+      </c>
+    </row>
+    <row r="1996" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1996" s="1">
+        <v>41678</v>
+      </c>
+      <c r="B1996" t="s">
+        <v>2004</v>
+      </c>
+      <c r="C1996">
+        <v>6</v>
+      </c>
+      <c r="E1996" t="str">
+        <f t="shared" si="31"/>
+        <v/>
+      </c>
+    </row>
+    <row r="1997" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1997" s="1">
+        <v>41678</v>
+      </c>
+      <c r="B1997" t="s">
+        <v>2005</v>
+      </c>
+      <c r="C1997">
+        <v>6</v>
+      </c>
+      <c r="E1997" t="str">
+        <f t="shared" si="31"/>
+        <v/>
+      </c>
+    </row>
+    <row r="1998" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1998" s="1">
+        <v>41678</v>
+      </c>
+      <c r="B1998" t="s">
+        <v>2006</v>
+      </c>
+      <c r="C1998">
+        <v>5</v>
+      </c>
+      <c r="E1998" t="str">
+        <f t="shared" si="31"/>
+        <v/>
+      </c>
+    </row>
+    <row r="1999" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1999" s="1">
+        <v>41681</v>
+      </c>
+      <c r="B1999" t="s">
+        <v>2007</v>
+      </c>
+      <c r="C1999">
+        <v>6</v>
+      </c>
+      <c r="E1999" t="str">
+        <f t="shared" si="31"/>
+        <v/>
+      </c>
+    </row>
+    <row r="2000" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2000" s="1">
+        <v>41684</v>
+      </c>
+      <c r="B2000" t="s">
+        <v>2008</v>
+      </c>
+      <c r="C2000">
+        <v>5</v>
+      </c>
+      <c r="E2000" t="str">
+        <f t="shared" si="31"/>
+        <v/>
+      </c>
+    </row>
+    <row r="2001" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2001" s="1">
+        <v>41684</v>
+      </c>
+      <c r="B2001" t="s">
+        <v>2009</v>
+      </c>
+      <c r="C2001">
+        <v>8</v>
+      </c>
+      <c r="E2001" t="str">
+        <f t="shared" si="31"/>
+        <v/>
+      </c>
+    </row>
+    <row r="2002" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2002" s="1">
+        <v>41684</v>
+      </c>
+      <c r="B2002" t="s">
+        <v>2010</v>
+      </c>
+      <c r="C2002">
+        <v>6</v>
+      </c>
+      <c r="E2002" t="str">
+        <f t="shared" si="31"/>
+        <v/>
+      </c>
+    </row>
+    <row r="2003" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2003" s="1">
+        <v>41684</v>
+      </c>
+      <c r="B2003" t="s">
+        <v>2011</v>
+      </c>
+      <c r="C2003">
+        <v>6</v>
+      </c>
+      <c r="E2003" t="str">
+        <f t="shared" si="31"/>
+        <v/>
+      </c>
+    </row>
+    <row r="2004" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2004" s="1">
+        <v>41684</v>
+      </c>
+      <c r="B2004" t="s">
+        <v>2012</v>
+      </c>
+      <c r="C2004">
+        <v>7</v>
+      </c>
+      <c r="E2004" t="str">
+        <f t="shared" si="31"/>
+        <v/>
+      </c>
+    </row>
+    <row r="2005" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2005" s="1">
+        <v>41687</v>
+      </c>
+      <c r="B2005" t="s">
+        <v>2013</v>
+      </c>
+      <c r="C2005">
+        <v>7</v>
+      </c>
+      <c r="E2005" t="str">
+        <f t="shared" si="31"/>
+        <v/>
+      </c>
+    </row>
+    <row r="2006" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2006" s="1">
+        <v>41687</v>
+      </c>
+      <c r="B2006" t="s">
+        <v>2014</v>
+      </c>
+      <c r="C2006">
+        <v>4</v>
+      </c>
+      <c r="E2006" t="str">
+        <f t="shared" si="31"/>
+        <v/>
+      </c>
+    </row>
+    <row r="2007" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2007" s="1">
+        <v>41688</v>
+      </c>
+      <c r="B2007" t="s">
+        <v>2015</v>
+      </c>
+      <c r="C2007">
+        <v>5</v>
+      </c>
+      <c r="E2007" t="str">
+        <f t="shared" si="31"/>
+        <v/>
+      </c>
+    </row>
+    <row r="2008" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2008" s="1">
+        <v>41688</v>
+      </c>
+      <c r="B2008" t="s">
+        <v>2016</v>
+      </c>
+      <c r="C2008">
+        <v>3</v>
+      </c>
+      <c r="E2008" t="str">
+        <f t="shared" si="31"/>
+        <v/>
+      </c>
+    </row>
+    <row r="2009" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2009" s="1">
+        <v>41690</v>
+      </c>
+      <c r="B2009" t="s">
+        <v>2017</v>
+      </c>
+      <c r="C2009">
+        <v>6</v>
+      </c>
+      <c r="E2009" t="str">
+        <f t="shared" si="31"/>
+        <v/>
+      </c>
+    </row>
+    <row r="2010" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2010" s="1">
+        <v>41690</v>
+      </c>
+      <c r="B2010" t="s">
+        <v>2018</v>
+      </c>
+      <c r="C2010">
+        <v>7</v>
+      </c>
+      <c r="E2010" t="str">
+        <f t="shared" si="31"/>
+        <v/>
+      </c>
+    </row>
+    <row r="2011" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2011" s="1">
+        <v>41692</v>
+      </c>
+      <c r="B2011" t="s">
+        <v>2020</v>
+      </c>
+      <c r="C2011">
+        <v>4</v>
+      </c>
+      <c r="E2011" t="str">
+        <f t="shared" si="31"/>
+        <v/>
+      </c>
+    </row>
+    <row r="2012" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2012" s="1">
+        <v>41692</v>
+      </c>
+      <c r="B2012" t="s">
+        <v>2019</v>
+      </c>
+      <c r="C2012">
+        <v>7</v>
+      </c>
+      <c r="E2012" t="str">
+        <f t="shared" si="31"/>
+        <v/>
+      </c>
+    </row>
+    <row r="2013" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2013" s="1">
+        <v>41693</v>
+      </c>
+      <c r="B2013" t="s">
+        <v>2021</v>
+      </c>
+      <c r="C2013">
+        <v>3</v>
+      </c>
+      <c r="E2013" t="str">
+        <f t="shared" si="31"/>
+        <v/>
+      </c>
+    </row>
+    <row r="2014" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2014" s="1">
+        <v>41693</v>
+      </c>
+      <c r="B2014" t="s">
+        <v>2022</v>
+      </c>
+      <c r="C2014">
+        <v>4</v>
+      </c>
+      <c r="E2014" t="str">
+        <f t="shared" si="31"/>
+        <v/>
+      </c>
+    </row>
+    <row r="2015" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2015" s="1">
+        <v>41693</v>
+      </c>
+      <c r="B2015" t="s">
+        <v>2023</v>
+      </c>
+      <c r="C2015">
+        <v>3</v>
+      </c>
+      <c r="E2015" t="str">
+        <f t="shared" si="31"/>
+        <v/>
+      </c>
+    </row>
+    <row r="2016" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2016" s="1">
+        <v>41693</v>
+      </c>
+      <c r="B2016" t="s">
+        <v>2024</v>
+      </c>
+      <c r="C2016">
+        <v>4</v>
+      </c>
+      <c r="E2016" t="str">
+        <f t="shared" si="31"/>
+        <v/>
+      </c>
+    </row>
+    <row r="2017" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2017" s="1">
+        <v>41693</v>
+      </c>
+      <c r="B2017" t="s">
+        <v>2025</v>
+      </c>
+      <c r="C2017">
+        <v>4</v>
+      </c>
+      <c r="E2017" t="str">
+        <f t="shared" si="31"/>
+        <v/>
+      </c>
+    </row>
+    <row r="2018" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2018" s="1">
+        <v>41693</v>
+      </c>
+      <c r="B2018" t="s">
+        <v>2026</v>
+      </c>
+      <c r="C2018">
+        <v>2</v>
+      </c>
+      <c r="E2018" t="str">
+        <f t="shared" si="31"/>
+        <v/>
+      </c>
+    </row>
+    <row r="2019" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2019" s="1">
+        <v>41693</v>
+      </c>
+      <c r="B2019" t="s">
+        <v>2027</v>
+      </c>
+      <c r="C2019">
+        <v>3</v>
+      </c>
+      <c r="E2019" t="str">
+        <f t="shared" si="31"/>
+        <v/>
+      </c>
+    </row>
+    <row r="2020" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2020" s="1">
+        <v>41693</v>
+      </c>
+      <c r="B2020" t="s">
+        <v>2028</v>
+      </c>
+      <c r="C2020">
+        <v>3</v>
+      </c>
+      <c r="E2020" t="str">
+        <f t="shared" si="31"/>
+        <v/>
+      </c>
+    </row>
+    <row r="2021" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2021" s="1">
+        <v>41693</v>
+      </c>
+      <c r="B2021" t="s">
+        <v>2029</v>
+      </c>
+      <c r="C2021">
+        <v>5</v>
+      </c>
+      <c r="E2021" t="str">
+        <f t="shared" si="31"/>
+        <v/>
+      </c>
+    </row>
+    <row r="2022" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2022" s="1">
+        <v>41694</v>
+      </c>
+      <c r="B2022" t="s">
+        <v>2030</v>
+      </c>
+      <c r="C2022">
+        <v>7</v>
+      </c>
+      <c r="E2022" t="str">
+        <f t="shared" si="31"/>
+        <v/>
+      </c>
+    </row>
+    <row r="2023" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2023" s="1">
+        <v>41694</v>
+      </c>
+      <c r="B2023" t="s">
+        <v>2031</v>
+      </c>
+      <c r="C2023">
+        <v>7</v>
+      </c>
+      <c r="E2023" t="str">
+        <f t="shared" si="31"/>
+        <v/>
+      </c>
+    </row>
+    <row r="2024" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E2024" t="str">
+        <f t="shared" si="31"/>
+        <v/>
+      </c>
+    </row>
+    <row r="2025" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E2025" t="str">
+        <f t="shared" si="31"/>
+        <v/>
+      </c>
+    </row>
+    <row r="2026" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E2026" t="str">
+        <f t="shared" si="31"/>
+        <v/>
+      </c>
+    </row>
+    <row r="2027" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E2027" t="str">
+        <f t="shared" si="31"/>
+        <v/>
+      </c>
+    </row>
+    <row r="2028" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E2028" t="str">
+        <f t="shared" si="31"/>
+        <v/>
+      </c>
+    </row>
+    <row r="2029" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E2029" t="str">
+        <f t="shared" si="31"/>
+        <v/>
+      </c>
+    </row>
+    <row r="2030" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E2030" t="str">
+        <f t="shared" si="31"/>
+        <v/>
+      </c>
+    </row>
+    <row r="2031" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E2031" t="str">
+        <f t="shared" si="31"/>
+        <v/>
+      </c>
+    </row>
+    <row r="2032" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E2032" t="str">
+        <f t="shared" si="31"/>
+        <v/>
+      </c>
+    </row>
+    <row r="2033" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E2033" t="str">
+        <f t="shared" si="31"/>
+        <v/>
+      </c>
+    </row>
+    <row r="2034" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E2034" t="str">
+        <f t="shared" si="31"/>
+        <v/>
+      </c>
+    </row>
+    <row r="2035" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E2035" t="str">
+        <f t="shared" si="31"/>
+        <v/>
+      </c>
+    </row>
+    <row r="2036" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E2036" t="str">
+        <f t="shared" si="31"/>
+        <v/>
+      </c>
+    </row>
+    <row r="2037" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E2037" t="str">
+        <f t="shared" si="31"/>
+        <v/>
+      </c>
+    </row>
+    <row r="2038" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E2038" t="str">
+        <f t="shared" si="31"/>
+        <v/>
+      </c>
+    </row>
+    <row r="2039" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E2039" t="str">
+        <f t="shared" si="31"/>
+        <v/>
+      </c>
+    </row>
+    <row r="2040" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E2040" t="str">
+        <f t="shared" si="31"/>
+        <v/>
+      </c>
+    </row>
+    <row r="2041" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E2041" t="str">
+        <f t="shared" si="31"/>
+        <v/>
+      </c>
+    </row>
+    <row r="2042" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E2042" t="str">
+        <f t="shared" si="31"/>
+        <v/>
+      </c>
+    </row>
+    <row r="2043" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E2043" t="str">
+        <f t="shared" si="31"/>
+        <v/>
+      </c>
+    </row>
+    <row r="2044" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E2044" t="str">
+        <f t="shared" si="31"/>
+        <v/>
+      </c>
+    </row>
+    <row r="2045" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E2045" t="str">
+        <f t="shared" si="31"/>
+        <v/>
+      </c>
+    </row>
+    <row r="2046" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E2046" t="str">
+        <f t="shared" si="31"/>
+        <v/>
+      </c>
+    </row>
+    <row r="2047" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E2047" t="str">
+        <f t="shared" si="31"/>
+        <v/>
+      </c>
+    </row>
+    <row r="2048" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E2048" t="str">
+        <f t="shared" si="31"/>
+        <v/>
+      </c>
+    </row>
+    <row r="2049" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E2049" t="str">
+        <f t="shared" si="31"/>
+        <v/>
+      </c>
+    </row>
+    <row r="2050" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E2050" t="str">
+        <f t="shared" si="31"/>
+        <v/>
+      </c>
+    </row>
+    <row r="2051" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E2051" t="str">
+        <f t="shared" si="31"/>
+        <v/>
+      </c>
+    </row>
+    <row r="2052" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E2052" t="str">
+        <f t="shared" si="31"/>
+        <v/>
+      </c>
+    </row>
+    <row r="2053" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E2053" t="str">
+        <f t="shared" ref="E2053:E2116" si="32">IF(COUNTIF(B:B, B2053)&gt;1,"Duplicate","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="2054" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E2054" t="str">
+        <f t="shared" si="32"/>
+        <v/>
+      </c>
+    </row>
+    <row r="2055" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E2055" t="str">
+        <f t="shared" si="32"/>
+        <v/>
+      </c>
+    </row>
+    <row r="2056" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E2056" t="str">
+        <f t="shared" si="32"/>
+        <v/>
+      </c>
+    </row>
+    <row r="2057" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E2057" t="str">
+        <f t="shared" si="32"/>
+        <v/>
+      </c>
+    </row>
+    <row r="2058" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E2058" t="str">
+        <f t="shared" si="32"/>
+        <v/>
+      </c>
+    </row>
+    <row r="2059" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E2059" t="str">
+        <f t="shared" si="32"/>
+        <v/>
+      </c>
+    </row>
+    <row r="2060" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E2060" t="str">
+        <f t="shared" si="32"/>
+        <v/>
+      </c>
+    </row>
+    <row r="2061" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E2061" t="str">
+        <f t="shared" si="32"/>
+        <v/>
+      </c>
+    </row>
+    <row r="2062" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E2062" t="str">
+        <f t="shared" si="32"/>
+        <v/>
+      </c>
+    </row>
+    <row r="2063" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E2063" t="str">
+        <f t="shared" si="32"/>
+        <v/>
+      </c>
+    </row>
+    <row r="2064" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E2064" t="str">
+        <f t="shared" si="32"/>
+        <v/>
+      </c>
+    </row>
+    <row r="2065" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E2065" t="str">
+        <f t="shared" si="32"/>
+        <v/>
+      </c>
+    </row>
+    <row r="2066" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E2066" t="str">
+        <f t="shared" si="32"/>
+        <v/>
+      </c>
+    </row>
+    <row r="2067" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E2067" t="str">
+        <f t="shared" si="32"/>
+        <v/>
+      </c>
+    </row>
+    <row r="2068" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E2068" t="str">
+        <f t="shared" si="32"/>
+        <v/>
+      </c>
+    </row>
+    <row r="2069" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E2069" t="str">
+        <f t="shared" si="32"/>
+        <v/>
+      </c>
+    </row>
+    <row r="2070" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E2070" t="str">
+        <f t="shared" si="32"/>
+        <v/>
+      </c>
+    </row>
+    <row r="2071" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E2071" t="str">
+        <f t="shared" si="32"/>
+        <v/>
+      </c>
+    </row>
+    <row r="2072" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E2072" t="str">
+        <f t="shared" si="32"/>
+        <v/>
+      </c>
+    </row>
+    <row r="2073" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E2073" t="str">
+        <f t="shared" si="32"/>
+        <v/>
+      </c>
+    </row>
+    <row r="2074" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E2074" t="str">
+        <f t="shared" si="32"/>
+        <v/>
+      </c>
+    </row>
+    <row r="2075" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E2075" t="str">
+        <f t="shared" si="32"/>
+        <v/>
+      </c>
+    </row>
+    <row r="2076" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E2076" t="str">
+        <f t="shared" si="32"/>
+        <v/>
+      </c>
+    </row>
+    <row r="2077" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E2077" t="str">
+        <f t="shared" si="32"/>
+        <v/>
+      </c>
+    </row>
+    <row r="2078" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E2078" t="str">
+        <f t="shared" si="32"/>
+        <v/>
+      </c>
+    </row>
+    <row r="2079" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E2079" t="str">
+        <f t="shared" si="32"/>
+        <v/>
+      </c>
+    </row>
+    <row r="2080" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E2080" t="str">
+        <f t="shared" si="32"/>
+        <v/>
+      </c>
+    </row>
+    <row r="2081" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E2081" t="str">
+        <f t="shared" si="32"/>
+        <v/>
+      </c>
+    </row>
+    <row r="2082" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E2082" t="str">
+        <f t="shared" si="32"/>
+        <v/>
+      </c>
+    </row>
+    <row r="2083" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E2083" t="str">
+        <f t="shared" si="32"/>
+        <v/>
+      </c>
+    </row>
+    <row r="2084" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E2084" t="str">
+        <f t="shared" si="32"/>
+        <v/>
+      </c>
+    </row>
+    <row r="2085" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E2085" t="str">
+        <f t="shared" si="32"/>
+        <v/>
+      </c>
+    </row>
+    <row r="2086" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E2086" t="str">
+        <f t="shared" si="32"/>
+        <v/>
+      </c>
+    </row>
+    <row r="2087" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E2087" t="str">
+        <f t="shared" si="32"/>
+        <v/>
+      </c>
+    </row>
+    <row r="2088" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E2088" t="str">
+        <f t="shared" si="32"/>
+        <v/>
+      </c>
+    </row>
+    <row r="2089" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E2089" t="str">
+        <f t="shared" si="32"/>
+        <v/>
+      </c>
+    </row>
+    <row r="2090" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E2090" t="str">
+        <f t="shared" si="32"/>
+        <v/>
+      </c>
+    </row>
+    <row r="2091" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E2091" t="str">
+        <f t="shared" si="32"/>
+        <v/>
+      </c>
+    </row>
+    <row r="2092" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E2092" t="str">
+        <f t="shared" si="32"/>
+        <v/>
+      </c>
+    </row>
+    <row r="2093" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E2093" t="str">
+        <f t="shared" si="32"/>
+        <v/>
+      </c>
+    </row>
+    <row r="2094" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E2094" t="str">
+        <f t="shared" si="32"/>
+        <v/>
+      </c>
+    </row>
+    <row r="2095" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E2095" t="str">
+        <f t="shared" si="32"/>
+        <v/>
+      </c>
+    </row>
+    <row r="2096" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E2096" t="str">
+        <f t="shared" si="32"/>
+        <v/>
+      </c>
+    </row>
+    <row r="2097" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E2097" t="str">
+        <f t="shared" si="32"/>
+        <v/>
+      </c>
+    </row>
+    <row r="2098" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E2098" t="str">
+        <f t="shared" si="32"/>
+        <v/>
+      </c>
+    </row>
+    <row r="2099" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E2099" t="str">
+        <f t="shared" si="32"/>
+        <v/>
+      </c>
+    </row>
+    <row r="2100" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E2100" t="str">
+        <f t="shared" si="32"/>
+        <v/>
+      </c>
+    </row>
+    <row r="2101" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E2101" t="str">
+        <f t="shared" si="32"/>
+        <v/>
+      </c>
+    </row>
+    <row r="2102" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E2102" t="str">
+        <f t="shared" si="32"/>
+        <v/>
+      </c>
+    </row>
+    <row r="2103" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E2103" t="str">
+        <f t="shared" si="32"/>
+        <v/>
+      </c>
+    </row>
+    <row r="2104" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E2104" t="str">
+        <f t="shared" si="32"/>
+        <v/>
+      </c>
+    </row>
+    <row r="2105" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E2105" t="str">
+        <f t="shared" si="32"/>
+        <v/>
+      </c>
+    </row>
+    <row r="2106" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E2106" t="str">
+        <f t="shared" si="32"/>
+        <v/>
+      </c>
+    </row>
+    <row r="2107" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E2107" t="str">
+        <f t="shared" si="32"/>
+        <v/>
+      </c>
+    </row>
+    <row r="2108" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E2108" t="str">
+        <f t="shared" si="32"/>
+        <v/>
+      </c>
+    </row>
+    <row r="2109" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E2109" t="str">
+        <f t="shared" si="32"/>
+        <v/>
+      </c>
+    </row>
+    <row r="2110" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E2110" t="str">
+        <f t="shared" si="32"/>
+        <v/>
+      </c>
+    </row>
+    <row r="2111" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E2111" t="str">
+        <f t="shared" si="32"/>
+        <v/>
+      </c>
+    </row>
+    <row r="2112" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E2112" t="str">
+        <f t="shared" si="32"/>
+        <v/>
+      </c>
+    </row>
+    <row r="2113" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E2113" t="str">
+        <f t="shared" si="32"/>
+        <v/>
+      </c>
+    </row>
+    <row r="2114" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E2114" t="str">
+        <f t="shared" si="32"/>
+        <v/>
+      </c>
+    </row>
+    <row r="2115" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E2115" t="str">
+        <f t="shared" si="32"/>
+        <v/>
+      </c>
+    </row>
+    <row r="2116" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E2116" t="str">
+        <f t="shared" si="32"/>
+        <v/>
+      </c>
+    </row>
+    <row r="2117" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E2117" t="str">
+        <f t="shared" ref="E2117:E2180" si="33">IF(COUNTIF(B:B, B2117)&gt;1,"Duplicate","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="2118" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E2118" t="str">
+        <f t="shared" si="33"/>
+        <v/>
+      </c>
+    </row>
+    <row r="2119" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E2119" t="str">
+        <f t="shared" si="33"/>
+        <v/>
+      </c>
+    </row>
+    <row r="2120" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E2120" t="str">
+        <f t="shared" si="33"/>
+        <v/>
+      </c>
+    </row>
+    <row r="2121" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E2121" t="str">
+        <f t="shared" si="33"/>
+        <v/>
+      </c>
+    </row>
+    <row r="2122" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E2122" t="str">
+        <f t="shared" si="33"/>
+        <v/>
+      </c>
+    </row>
+    <row r="2123" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E2123" t="str">
+        <f t="shared" si="33"/>
+        <v/>
+      </c>
+    </row>
+    <row r="2124" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E2124" t="str">
+        <f t="shared" si="33"/>
+        <v/>
+      </c>
+    </row>
+    <row r="2125" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E2125" t="str">
+        <f t="shared" si="33"/>
+        <v/>
+      </c>
+    </row>
+    <row r="2126" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E2126" t="str">
+        <f t="shared" si="33"/>
+        <v/>
+      </c>
+    </row>
+    <row r="2127" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E2127" t="str">
+        <f t="shared" si="33"/>
+        <v/>
+      </c>
+    </row>
+    <row r="2128" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E2128" t="str">
+        <f t="shared" si="33"/>
+        <v/>
+      </c>
+    </row>
+    <row r="2129" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E2129" t="str">
+        <f t="shared" si="33"/>
+        <v/>
+      </c>
+    </row>
+    <row r="2130" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E2130" t="str">
+        <f t="shared" si="33"/>
+        <v/>
+      </c>
+    </row>
+    <row r="2131" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E2131" t="str">
+        <f t="shared" si="33"/>
+        <v/>
+      </c>
+    </row>
+    <row r="2132" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E2132" t="str">
+        <f t="shared" si="33"/>
+        <v/>
+      </c>
+    </row>
+    <row r="2133" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E2133" t="str">
+        <f t="shared" si="33"/>
+        <v/>
+      </c>
+    </row>
+    <row r="2134" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E2134" t="str">
+        <f t="shared" si="33"/>
+        <v/>
+      </c>
+    </row>
+    <row r="2135" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E2135" t="str">
+        <f t="shared" si="33"/>
+        <v/>
+      </c>
+    </row>
+    <row r="2136" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E2136" t="str">
+        <f t="shared" si="33"/>
+        <v/>
+      </c>
+    </row>
+    <row r="2137" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E2137" t="str">
+        <f t="shared" si="33"/>
+        <v/>
+      </c>
+    </row>
+    <row r="2138" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E2138" t="str">
+        <f t="shared" si="33"/>
+        <v/>
+      </c>
+    </row>
+    <row r="2139" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E2139" t="str">
+        <f t="shared" si="33"/>
+        <v/>
+      </c>
+    </row>
+    <row r="2140" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E2140" t="str">
+        <f t="shared" si="33"/>
+        <v/>
+      </c>
+    </row>
+    <row r="2141" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E2141" t="str">
+        <f t="shared" si="33"/>
+        <v/>
+      </c>
+    </row>
+    <row r="2142" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E2142" t="str">
+        <f t="shared" si="33"/>
+        <v/>
+      </c>
+    </row>
+    <row r="2143" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E2143" t="str">
+        <f t="shared" si="33"/>
+        <v/>
+      </c>
+    </row>
+    <row r="2144" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E2144" t="str">
+        <f t="shared" si="33"/>
+        <v/>
+      </c>
+    </row>
+    <row r="2145" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E2145" t="str">
+        <f t="shared" si="33"/>
+        <v/>
+      </c>
+    </row>
+    <row r="2146" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E2146" t="str">
+        <f t="shared" si="33"/>
+        <v/>
+      </c>
+    </row>
+    <row r="2147" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E2147" t="str">
+        <f t="shared" si="33"/>
+        <v/>
+      </c>
+    </row>
+    <row r="2148" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E2148" t="str">
+        <f t="shared" si="33"/>
+        <v/>
+      </c>
+    </row>
+    <row r="2149" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E2149" t="str">
+        <f t="shared" si="33"/>
+        <v/>
+      </c>
+    </row>
+    <row r="2150" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E2150" t="str">
+        <f t="shared" si="33"/>
+        <v/>
+      </c>
+    </row>
+    <row r="2151" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E2151" t="str">
+        <f t="shared" si="33"/>
+        <v/>
+      </c>
+    </row>
+    <row r="2152" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E2152" t="str">
+        <f t="shared" si="33"/>
+        <v/>
+      </c>
+    </row>
+    <row r="2153" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E2153" t="str">
+        <f t="shared" si="33"/>
+        <v/>
+      </c>
+    </row>
+    <row r="2154" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E2154" t="str">
+        <f t="shared" si="33"/>
+        <v/>
+      </c>
+    </row>
+    <row r="2155" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E2155" t="str">
+        <f t="shared" si="33"/>
+        <v/>
+      </c>
+    </row>
+    <row r="2156" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E2156" t="str">
+        <f t="shared" si="33"/>
+        <v/>
+      </c>
+    </row>
+    <row r="2157" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E2157" t="str">
+        <f t="shared" si="33"/>
+        <v/>
+      </c>
+    </row>
+    <row r="2158" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E2158" t="str">
+        <f t="shared" si="33"/>
+        <v/>
+      </c>
+    </row>
+    <row r="2159" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E2159" t="str">
+        <f t="shared" si="33"/>
+        <v/>
+      </c>
+    </row>
+    <row r="2160" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E2160" t="str">
+        <f t="shared" si="33"/>
+        <v/>
+      </c>
+    </row>
+    <row r="2161" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E2161" t="str">
+        <f t="shared" si="33"/>
+        <v/>
+      </c>
+    </row>
+    <row r="2162" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E2162" t="str">
+        <f t="shared" si="33"/>
+        <v/>
+      </c>
+    </row>
+    <row r="2163" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E2163" t="str">
+        <f t="shared" si="33"/>
+        <v/>
+      </c>
+    </row>
+    <row r="2164" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E2164" t="str">
+        <f t="shared" si="33"/>
+        <v/>
+      </c>
+    </row>
+    <row r="2165" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E2165" t="str">
+        <f t="shared" si="33"/>
+        <v/>
+      </c>
+    </row>
+    <row r="2166" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E2166" t="str">
+        <f t="shared" si="33"/>
+        <v/>
+      </c>
+    </row>
+    <row r="2167" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E2167" t="str">
+        <f t="shared" si="33"/>
+        <v/>
+      </c>
+    </row>
+    <row r="2168" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E2168" t="str">
+        <f t="shared" si="33"/>
+        <v/>
+      </c>
+    </row>
+    <row r="2169" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E2169" t="str">
+        <f t="shared" si="33"/>
+        <v/>
+      </c>
+    </row>
+    <row r="2170" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E2170" t="str">
+        <f t="shared" si="33"/>
+        <v/>
+      </c>
+    </row>
+    <row r="2171" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E2171" t="str">
+        <f t="shared" si="33"/>
+        <v/>
+      </c>
+    </row>
+    <row r="2172" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E2172" t="str">
+        <f t="shared" si="33"/>
+        <v/>
+      </c>
+    </row>
+    <row r="2173" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E2173" t="str">
+        <f t="shared" si="33"/>
+        <v/>
+      </c>
+    </row>
+    <row r="2174" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E2174" t="str">
+        <f t="shared" si="33"/>
+        <v/>
+      </c>
+    </row>
+    <row r="2175" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E2175" t="str">
+        <f t="shared" si="33"/>
+        <v/>
+      </c>
+    </row>
+    <row r="2176" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E2176" t="str">
+        <f t="shared" si="33"/>
+        <v/>
+      </c>
+    </row>
+    <row r="2177" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E2177" t="str">
+        <f t="shared" si="33"/>
+        <v/>
+      </c>
+    </row>
+    <row r="2178" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E2178" t="str">
+        <f t="shared" si="33"/>
+        <v/>
+      </c>
+    </row>
+    <row r="2179" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E2179" t="str">
+        <f t="shared" si="33"/>
+        <v/>
+      </c>
+    </row>
+    <row r="2180" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E2180" t="str">
+        <f t="shared" si="33"/>
+        <v/>
+      </c>
+    </row>
+    <row r="2181" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E2181" t="str">
+        <f t="shared" ref="E2181:E2206" si="34">IF(COUNTIF(B:B, B2181)&gt;1,"Duplicate","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="2182" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E2182" t="str">
+        <f t="shared" si="34"/>
+        <v/>
+      </c>
+    </row>
+    <row r="2183" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E2183" t="str">
+        <f t="shared" si="34"/>
+        <v/>
+      </c>
+    </row>
+    <row r="2184" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E2184" t="str">
+        <f t="shared" si="34"/>
+        <v/>
+      </c>
+    </row>
+    <row r="2185" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E2185" t="str">
+        <f t="shared" si="34"/>
+        <v/>
+      </c>
+    </row>
+    <row r="2186" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E2186" t="str">
+        <f t="shared" si="34"/>
+        <v/>
+      </c>
+    </row>
+    <row r="2187" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E2187" t="str">
+        <f t="shared" si="34"/>
+        <v/>
+      </c>
+    </row>
+    <row r="2188" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E2188" t="str">
+        <f t="shared" si="34"/>
+        <v/>
+      </c>
+    </row>
+    <row r="2189" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E2189" t="str">
+        <f t="shared" si="34"/>
+        <v/>
+      </c>
+    </row>
+    <row r="2190" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E2190" t="str">
+        <f t="shared" si="34"/>
+        <v/>
+      </c>
+    </row>
+    <row r="2191" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E2191" t="str">
+        <f t="shared" si="34"/>
+        <v/>
+      </c>
+    </row>
+    <row r="2192" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E2192" t="str">
+        <f t="shared" si="34"/>
+        <v/>
+      </c>
+    </row>
+    <row r="2193" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E2193" t="str">
+        <f t="shared" si="34"/>
+        <v/>
+      </c>
+    </row>
+    <row r="2194" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E2194" t="str">
+        <f t="shared" si="34"/>
+        <v/>
+      </c>
+    </row>
+    <row r="2195" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E2195" t="str">
+        <f t="shared" si="34"/>
+        <v/>
+      </c>
+    </row>
+    <row r="2196" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E2196" t="str">
+        <f t="shared" si="34"/>
+        <v/>
+      </c>
+    </row>
+    <row r="2197" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E2197" t="str">
+        <f t="shared" si="34"/>
+        <v/>
+      </c>
+    </row>
+    <row r="2198" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E2198" t="str">
+        <f t="shared" si="34"/>
+        <v/>
+      </c>
+    </row>
+    <row r="2199" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E2199" t="str">
+        <f t="shared" si="34"/>
+        <v/>
+      </c>
+    </row>
+    <row r="2200" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E2200" t="str">
+        <f t="shared" si="34"/>
+        <v/>
+      </c>
+    </row>
+    <row r="2201" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E2201" t="str">
+        <f t="shared" si="34"/>
+        <v/>
+      </c>
+    </row>
+    <row r="2202" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E2202" t="str">
+        <f t="shared" si="34"/>
+        <v/>
+      </c>
+    </row>
+    <row r="2203" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E2203" t="str">
+        <f t="shared" si="34"/>
+        <v/>
+      </c>
+    </row>
+    <row r="2204" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E2204" t="str">
+        <f t="shared" si="34"/>
+        <v/>
+      </c>
+    </row>
+    <row r="2205" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E2205" t="str">
+        <f t="shared" si="34"/>
+        <v/>
+      </c>
+    </row>
+    <row r="2206" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E2206" t="str">
+        <f t="shared" si="34"/>
+        <v/>
       </c>
     </row>
   </sheetData>
@@ -30384,7 +38247,7 @@
   <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -30399,11 +38262,11 @@
       </c>
       <c r="B1">
         <f>COUNTIF(Ratings!C:C,Distribution!A1)</f>
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C1" s="2">
         <f>_xlfn.NORM.DIST(A1,$B$13,$B$14,FALSE)*COUNT(Ratings!A:A)</f>
-        <v>13.774864516716089</v>
+        <v>15.83494657255112</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -30412,11 +38275,11 @@
       </c>
       <c r="B2">
         <f>COUNTIF(Ratings!C:C,Distribution!A2)</f>
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="C2" s="2">
         <f>_xlfn.NORM.DIST(A2,$B$13,$B$14,FALSE)*COUNT(Ratings!A:A)</f>
-        <v>50.978671998647229</v>
+        <v>60.250458101994333</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -30425,11 +38288,11 @@
       </c>
       <c r="B3">
         <f>COUNTIF(Ratings!C:C,Distribution!A3)</f>
-        <v>95</v>
+        <v>132</v>
       </c>
       <c r="C3" s="2">
         <f>_xlfn.NORM.DIST(A3,$B$13,$B$14,FALSE)*COUNT(Ratings!A:A)</f>
-        <v>136.02364369939471</v>
+        <v>164.14141255923161</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -30438,11 +38301,11 @@
       </c>
       <c r="B4">
         <f>COUNTIF(Ratings!C:C,Distribution!A4)</f>
-        <v>217</v>
+        <v>278</v>
       </c>
       <c r="C4" s="2">
         <f>_xlfn.NORM.DIST(A4,$B$13,$B$14,FALSE)*COUNT(Ratings!A:A)</f>
-        <v>261.67666436804097</v>
+        <v>320.17693435328977</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -30451,11 +38314,11 @@
       </c>
       <c r="B5">
         <f>COUNTIF(Ratings!C:C,Distribution!A5)</f>
-        <v>297</v>
+        <v>386</v>
       </c>
       <c r="C5" s="2">
         <f>_xlfn.NORM.DIST(A5,$B$13,$B$14,FALSE)*COUNT(Ratings!A:A)</f>
-        <v>362.94455935907604</v>
+        <v>447.17341852124548</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -30464,11 +38327,11 @@
       </c>
       <c r="B6">
         <f>COUNTIF(Ratings!C:C,Distribution!A6)</f>
-        <v>376</v>
+        <v>452</v>
       </c>
       <c r="C6" s="2">
         <f>_xlfn.NORM.DIST(A6,$B$13,$B$14,FALSE)*COUNT(Ratings!A:A)</f>
-        <v>362.94455935907604</v>
+        <v>447.17341852124548</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -30477,11 +38340,11 @@
       </c>
       <c r="B7">
         <f>COUNTIF(Ratings!C:C,Distribution!A7)</f>
-        <v>341</v>
+        <v>398</v>
       </c>
       <c r="C7" s="2">
         <f>_xlfn.NORM.DIST(A7,$B$13,$B$14,FALSE)*COUNT(Ratings!A:A)</f>
-        <v>261.67666436804097</v>
+        <v>320.17693435328977</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
@@ -30490,11 +38353,11 @@
       </c>
       <c r="B8">
         <f>COUNTIF(Ratings!C:C,Distribution!A8)</f>
-        <v>196</v>
+        <v>223</v>
       </c>
       <c r="C8" s="2">
         <f>_xlfn.NORM.DIST(A8,$B$13,$B$14,FALSE)*COUNT(Ratings!A:A)</f>
-        <v>136.02364369939471</v>
+        <v>164.14141255923161</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
@@ -30503,11 +38366,11 @@
       </c>
       <c r="B9">
         <f>COUNTIF(Ratings!C:C,Distribution!A9)</f>
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="C9" s="2">
         <f>_xlfn.NORM.DIST(A9,$B$13,$B$14,FALSE)*COUNT(Ratings!A:A)</f>
-        <v>50.978671998647229</v>
+        <v>60.250458101994333</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
@@ -30516,11 +38379,11 @@
       </c>
       <c r="B10">
         <f>COUNTIF(Ratings!C:C,Distribution!A10)</f>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C10" s="2">
         <f>_xlfn.NORM.DIST(A10,$B$13,$B$14,FALSE)*COUNT(Ratings!A:A)</f>
-        <v>13.774864516716089</v>
+        <v>15.83494657255112</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
@@ -30537,7 +38400,7 @@
       </c>
       <c r="B14">
         <f>STDEV(Ratings!C:C)</f>
-        <v>1.7483680910774788</v>
+        <v>1.7301330212041166</v>
       </c>
     </row>
   </sheetData>
